--- a/ChinaVerification_01/DataTesting/Levels.xlsx
+++ b/ChinaVerification_01/DataTesting/Levels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FX</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>TimeShare</t>
+  </si>
+  <si>
+    <t>RevShare</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="B2:AC147"/>
+  <dimension ref="B2:AD147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -94,22 +97,27 @@
     <col min="3" max="3" width="10.707245826721191" customWidth="1"/>
     <col min="4" max="4" width="10.707245826721191" customWidth="1"/>
     <col min="5" max="5" width="10.742030143737793" customWidth="1"/>
+    <col min="6" max="6" width="9.617682456970215" customWidth="1"/>
     <col min="8" max="8" width="11.368146896362305" customWidth="1"/>
     <col min="9" max="9" width="11.368146896362305" customWidth="1"/>
     <col min="10" max="10" width="11.368146896362305" customWidth="1"/>
     <col min="11" max="11" width="10.742030143737793" customWidth="1"/>
+    <col min="12" max="12" width="9.617682456970215" customWidth="1"/>
     <col min="14" max="14" width="11.368146896362305" customWidth="1"/>
     <col min="15" max="15" width="11.368146896362305" customWidth="1"/>
     <col min="16" max="16" width="11.368146896362305" customWidth="1"/>
     <col min="17" max="17" width="10.742030143737793" customWidth="1"/>
+    <col min="18" max="18" width="9.617682456970215" customWidth="1"/>
     <col min="20" max="20" width="12.46180248260498" customWidth="1"/>
     <col min="21" max="21" width="12.46180248260498" customWidth="1"/>
     <col min="22" max="22" width="12.46180248260498" customWidth="1"/>
     <col min="23" max="23" width="10.742030143737793" customWidth="1"/>
+    <col min="24" max="24" width="9.617682456970215" customWidth="1"/>
     <col min="26" max="26" width="12.46180248260498" customWidth="1"/>
     <col min="27" max="27" width="12.46180248260498" customWidth="1"/>
     <col min="28" max="28" width="12.46180248260498" customWidth="1"/>
     <col min="29" max="29" width="10.742030143737793" customWidth="1"/>
+    <col min="30" max="30" width="9.617682456970215" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -142,6 +150,9 @@
       <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="0" t="s">
         <v>5</v>
       </c>
@@ -154,6 +165,9 @@
       <c r="K3" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="L3" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="N3" s="0" t="s">
         <v>5</v>
       </c>
@@ -166,6 +180,9 @@
       <c r="Q3" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="R3" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="T3" s="0" t="s">
         <v>5</v>
       </c>
@@ -178,6 +195,9 @@
       <c r="W3" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="X3" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="Z3" s="0" t="s">
         <v>5</v>
       </c>
@@ -189,6 +209,9 @@
       </c>
       <c r="AC3" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -204,6 +227,9 @@
       <c r="E4" s="0">
         <v>2.0831597366886094E-05</v>
       </c>
+      <c r="F4" s="0">
+        <v>1.9822235981914058E-05</v>
+      </c>
       <c r="H4" s="0">
         <v>-807.0136319444445</v>
       </c>
@@ -216,6 +242,9 @@
       <c r="K4" s="0">
         <v>0.008645112907257736</v>
       </c>
+      <c r="L4" s="0">
+        <v>0.008688676317228103</v>
+      </c>
       <c r="N4" s="0">
         <v>-804.0439513888888</v>
       </c>
@@ -228,6 +257,9 @@
       <c r="Q4" s="0">
         <v>0.016581951504041445</v>
       </c>
+      <c r="R4" s="0">
+        <v>0.016555839974990192</v>
+      </c>
       <c r="T4" s="0">
         <v>-2015.3711805555556</v>
       </c>
@@ -240,6 +272,9 @@
       <c r="W4" s="0">
         <v>8.332638946754438E-05</v>
       </c>
+      <c r="X4" s="0">
+        <v>7.966556550404298E-05</v>
+      </c>
       <c r="Z4" s="0">
         <v>-2165.3983333333335</v>
       </c>
@@ -251,6 +286,9 @@
       </c>
       <c r="AC4" s="0">
         <v>0.00018748437630197482</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>0.00017745669626545246</v>
       </c>
     </row>
     <row r="5">
@@ -266,6 +304,9 @@
       <c r="E5" s="0">
         <v>4.166319473377219E-05</v>
       </c>
+      <c r="F5" s="0">
+        <v>3.963850492134112E-05</v>
+      </c>
       <c r="H5" s="0">
         <v>-795.660263888889</v>
       </c>
@@ -278,6 +319,9 @@
       <c r="K5" s="0">
         <v>0.040017498541788515</v>
       </c>
+      <c r="L5" s="0">
+        <v>0.04010951606219306</v>
+      </c>
       <c r="N5" s="0">
         <v>-792.7059027777776</v>
       </c>
@@ -290,6 +334,9 @@
       <c r="Q5" s="0">
         <v>0.03810099158403499</v>
       </c>
+      <c r="R5" s="0">
+        <v>0.03802654003484568</v>
+      </c>
       <c r="T5" s="0">
         <v>-1986.9523611111113</v>
       </c>
@@ -302,6 +349,9 @@
       <c r="W5" s="0">
         <v>4.166319473377219E-05</v>
       </c>
+      <c r="X5" s="0">
+        <v>3.977288550974706E-05</v>
+      </c>
       <c r="Z5" s="0">
         <v>-2136.396666666667</v>
       </c>
@@ -313,6 +363,9 @@
       </c>
       <c r="AC5" s="0">
         <v>0.00012498958420131655</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>0.00011832796986973476</v>
       </c>
     </row>
     <row r="6">
@@ -328,6 +381,9 @@
       <c r="E6" s="0">
         <v>0</v>
       </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
       <c r="H6" s="0">
         <v>-784.3068958333333</v>
       </c>
@@ -340,6 +396,9 @@
       <c r="K6" s="0">
         <v>0.023706357803516563</v>
       </c>
+      <c r="L6" s="0">
+        <v>0.02367595771246747</v>
+      </c>
       <c r="N6" s="0">
         <v>-781.3678541666666</v>
       </c>
@@ -352,6 +411,9 @@
       <c r="Q6" s="0">
         <v>0.022602283143071587</v>
       </c>
+      <c r="R6" s="0">
+        <v>0.0225472892152192</v>
+      </c>
       <c r="T6" s="0">
         <v>-1958.5335416666667</v>
       </c>
@@ -364,6 +426,9 @@
       <c r="W6" s="0">
         <v>8.332638946754438E-05</v>
       </c>
+      <c r="X6" s="0">
+        <v>7.933378398377195E-05</v>
+      </c>
       <c r="Z6" s="0">
         <v>-2107.395</v>
       </c>
@@ -374,6 +439,9 @@
         <v>-2136.3966666666665</v>
       </c>
       <c r="AC6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="0">
         <v>0</v>
       </c>
     </row>
@@ -390,6 +458,9 @@
       <c r="E7" s="0">
         <v>8.332638946754438E-05</v>
       </c>
+      <c r="F7" s="0">
+        <v>7.914884056166042E-05</v>
+      </c>
       <c r="H7" s="0">
         <v>-772.9535277777778</v>
       </c>
@@ -402,6 +473,9 @@
       <c r="K7" s="0">
         <v>0.017936005332889058</v>
       </c>
+      <c r="L7" s="0">
+        <v>0.017979504100763932</v>
+      </c>
       <c r="N7" s="0">
         <v>-770.0298055555554</v>
       </c>
@@ -414,6 +488,9 @@
       <c r="Q7" s="0">
         <v>0.017415215398716908</v>
       </c>
+      <c r="R7" s="0">
+        <v>0.017435293425978236</v>
+      </c>
       <c r="T7" s="0">
         <v>-1930.1147222222223</v>
       </c>
@@ -426,6 +503,9 @@
       <c r="W7" s="0">
         <v>0.000229147571035747</v>
       </c>
+      <c r="X7" s="0">
+        <v>0.00021757057666639627</v>
+      </c>
       <c r="Z7" s="0">
         <v>-2078.3933333333334</v>
       </c>
@@ -437,6 +517,9 @@
       </c>
       <c r="AC7" s="0">
         <v>0.00012498958420131655</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>0.00011833651108158195</v>
       </c>
     </row>
     <row r="8">
@@ -452,6 +535,9 @@
       <c r="E8" s="0">
         <v>8.332638946754438E-05</v>
       </c>
+      <c r="F8" s="0">
+        <v>7.912434428197697E-05</v>
+      </c>
       <c r="H8" s="0">
         <v>-761.6001597222222</v>
       </c>
@@ -464,6 +550,9 @@
       <c r="K8" s="0">
         <v>0.014686276143654793</v>
       </c>
+      <c r="L8" s="0">
+        <v>0.01463846559531115</v>
+      </c>
       <c r="N8" s="0">
         <v>-758.6917569444444</v>
       </c>
@@ -476,6 +565,9 @@
       <c r="Q8" s="0">
         <v>0.014352970585784611</v>
       </c>
+      <c r="R8" s="0">
+        <v>0.014377575299994705</v>
+      </c>
       <c r="T8" s="0">
         <v>-1901.6959027777777</v>
       </c>
@@ -488,6 +580,9 @@
       <c r="W8" s="0">
         <v>0.0006249479210065826</v>
       </c>
+      <c r="X8" s="0">
+        <v>0.000636654566800814</v>
+      </c>
       <c r="Z8" s="0">
         <v>-2049.391666666667</v>
       </c>
@@ -499,6 +594,9 @@
       </c>
       <c r="AC8" s="0">
         <v>6.249479210065827E-05</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>5.9206638913543296E-05</v>
       </c>
     </row>
     <row r="9">
@@ -514,6 +612,9 @@
       <c r="E9" s="0">
         <v>0.00037496875260394986</v>
       </c>
+      <c r="F9" s="0">
+        <v>0.00035646016114767963</v>
+      </c>
       <c r="H9" s="0">
         <v>-750.2467916666667</v>
       </c>
@@ -526,6 +627,9 @@
       <c r="K9" s="0">
         <v>0.012665611199066812</v>
       </c>
+      <c r="L9" s="0">
+        <v>0.012624965852579046</v>
+      </c>
       <c r="N9" s="0">
         <v>-747.3537083333332</v>
       </c>
@@ -538,6 +642,9 @@
       <c r="Q9" s="0">
         <v>0.012665611199066812</v>
       </c>
+      <c r="R9" s="0">
+        <v>0.012620459178663742</v>
+      </c>
       <c r="T9" s="0">
         <v>-1873.2770833333334</v>
       </c>
@@ -550,6 +657,9 @@
       <c r="W9" s="0">
         <v>0.00033330555787017746</v>
       </c>
+      <c r="X9" s="0">
+        <v>0.0003369048161615997</v>
+      </c>
       <c r="Z9" s="0">
         <v>-2020.3900000000003</v>
       </c>
@@ -561,6 +671,9 @@
       </c>
       <c r="AC9" s="0">
         <v>6.249479210065827E-05</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>5.916226627638594E-05</v>
       </c>
     </row>
     <row r="10">
@@ -576,6 +689,9 @@
       <c r="E10" s="0">
         <v>0.00035413715523706374</v>
       </c>
+      <c r="F10" s="0">
+        <v>0.00033658052291494047</v>
+      </c>
       <c r="H10" s="0">
         <v>-738.8934236111111</v>
       </c>
@@ -588,6 +704,9 @@
       <c r="K10" s="0">
         <v>0.011894842096492015</v>
       </c>
+      <c r="L10" s="0">
+        <v>0.01189953871046673</v>
+      </c>
       <c r="N10" s="0">
         <v>-736.0156597222222</v>
       </c>
@@ -600,6 +719,9 @@
       <c r="Q10" s="0">
         <v>0.011665694525456264</v>
       </c>
+      <c r="R10" s="0">
+        <v>0.011655968400562997</v>
+      </c>
       <c r="T10" s="0">
         <v>-1844.858263888889</v>
       </c>
@@ -612,6 +734,9 @@
       <c r="W10" s="0">
         <v>0.0006666111157403548</v>
       </c>
+      <c r="X10" s="0">
+        <v>0.0006650977438479739</v>
+      </c>
       <c r="Z10" s="0">
         <v>-1991.3883333333333</v>
       </c>
@@ -623,6 +748,9 @@
       </c>
       <c r="AC10" s="0">
         <v>0.00018748437630197482</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>0.0001778058443399865</v>
       </c>
     </row>
     <row r="11">
@@ -638,6 +766,9 @@
       <c r="E11" s="0">
         <v>0.0005624531289059249</v>
       </c>
+      <c r="F11" s="0">
+        <v>0.0005346609648288495</v>
+      </c>
       <c r="H11" s="0">
         <v>-727.5400555555556</v>
       </c>
@@ -650,6 +781,9 @@
       <c r="K11" s="0">
         <v>0.011249062578118535</v>
       </c>
+      <c r="L11" s="0">
+        <v>0.011255968660671372</v>
+      </c>
       <c r="N11" s="0">
         <v>-724.677611111111</v>
       </c>
@@ -662,6 +796,9 @@
       <c r="Q11" s="0">
         <v>0.011478210149154285</v>
       </c>
+      <c r="R11" s="0">
+        <v>0.01148272105967652</v>
+      </c>
       <c r="T11" s="0">
         <v>-1816.4394444444445</v>
       </c>
@@ -674,6 +811,9 @@
       <c r="W11" s="0">
         <v>0.0010415798683443044</v>
       </c>
+      <c r="X11" s="0">
+        <v>0.0010246208146714537</v>
+      </c>
       <c r="Z11" s="0">
         <v>-1962.3866666666668</v>
       </c>
@@ -685,6 +825,9 @@
       </c>
       <c r="AC11" s="0">
         <v>0.0003749687526039496</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>0.00035583750998832307</v>
       </c>
     </row>
     <row r="12">
@@ -700,6 +843,9 @@
       <c r="E12" s="0">
         <v>0.0006874427131072416</v>
       </c>
+      <c r="F12" s="0">
+        <v>0.000653580771676065</v>
+      </c>
       <c r="H12" s="0">
         <v>-716.1866875</v>
       </c>
@@ -712,6 +858,9 @@
       <c r="K12" s="0">
         <v>0.009999166736105352</v>
       </c>
+      <c r="L12" s="0">
+        <v>0.009984135431222204</v>
+      </c>
       <c r="N12" s="0">
         <v>-713.3395624999998</v>
       </c>
@@ -724,6 +873,9 @@
       <c r="Q12" s="0">
         <v>0.009540871594033851</v>
       </c>
+      <c r="R12" s="0">
+        <v>0.009517841776428426</v>
+      </c>
       <c r="T12" s="0">
         <v>-1788.020625</v>
       </c>
@@ -736,6 +888,9 @@
       <c r="W12" s="0">
         <v>0.0010207482709774182</v>
       </c>
+      <c r="X12" s="0">
+        <v>0.001004885341303901</v>
+      </c>
       <c r="Z12" s="0">
         <v>-1933.3850000000002</v>
       </c>
@@ -747,6 +902,9 @@
       </c>
       <c r="AC12" s="0">
         <v>0.0002499791684026331</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>0.0002368781780504793</v>
       </c>
     </row>
     <row r="13">
@@ -762,6 +920,9 @@
       <c r="E13" s="0">
         <v>0.0010415798683443053</v>
       </c>
+      <c r="F13" s="0">
+        <v>0.0009901307963738496</v>
+      </c>
       <c r="H13" s="0">
         <v>-704.8333194444444</v>
       </c>
@@ -774,6 +935,9 @@
       <c r="K13" s="0">
         <v>0.009020081659861692</v>
       </c>
+      <c r="L13" s="0">
+        <v>0.009034210095908633</v>
+      </c>
       <c r="N13" s="0">
         <v>-702.0015138888888</v>
       </c>
@@ -786,6 +950,9 @@
       <c r="Q13" s="0">
         <v>0.009915840346637804</v>
       </c>
+      <c r="R13" s="0">
+        <v>0.00989632839386438</v>
+      </c>
       <c r="T13" s="0">
         <v>-1759.6018055555555</v>
       </c>
@@ -798,6 +965,9 @@
       <c r="W13" s="0">
         <v>0.0009790850762436461</v>
       </c>
+      <c r="X13" s="0">
+        <v>0.0010039361408470996</v>
+      </c>
       <c r="Z13" s="0">
         <v>-1904.3833333333337</v>
       </c>
@@ -809,6 +979,9 @@
       </c>
       <c r="AC13" s="0">
         <v>0.00033330555787017746</v>
+      </c>
+      <c r="AD13" s="0">
+        <v>0.00031636987301250494</v>
       </c>
     </row>
     <row r="14">
@@ -824,6 +997,9 @@
       <c r="E14" s="0">
         <v>0.0009165902841429889</v>
       </c>
+      <c r="F14" s="0">
+        <v>0.0008714452046679949</v>
+      </c>
       <c r="H14" s="0">
         <v>-693.4799513888889</v>
       </c>
@@ -836,6 +1012,9 @@
       <c r="K14" s="0">
         <v>0.009457545204566304</v>
       </c>
+      <c r="L14" s="0">
+        <v>0.009426388309034365</v>
+      </c>
       <c r="N14" s="0">
         <v>-690.6634652777776</v>
       </c>
@@ -848,6 +1027,9 @@
       <c r="Q14" s="0">
         <v>0.009145071244063009</v>
       </c>
+      <c r="R14" s="0">
+        <v>0.009115348039427082</v>
+      </c>
       <c r="T14" s="0">
         <v>-1731.1829861111112</v>
       </c>
@@ -860,6 +1042,9 @@
       <c r="W14" s="0">
         <v>0.00045829514207149395</v>
       </c>
+      <c r="X14" s="0">
+        <v>0.00045593717595579465</v>
+      </c>
       <c r="Z14" s="0">
         <v>-1875.3816666666667</v>
       </c>
@@ -871,6 +1056,9 @@
       </c>
       <c r="AC14" s="0">
         <v>0.0002083159736688609</v>
+      </c>
+      <c r="AD14" s="0">
+        <v>0.00019760112692785765</v>
       </c>
     </row>
     <row r="15">
@@ -886,6 +1074,9 @@
       <c r="E15" s="0">
         <v>0.0006874427131072416</v>
       </c>
+      <c r="F15" s="0">
+        <v>0.0006534886489148624</v>
+      </c>
       <c r="H15" s="0">
         <v>-682.1265833333333</v>
       </c>
@@ -898,6 +1089,9 @@
       <c r="K15" s="0">
         <v>0.008686776101991507</v>
       </c>
+      <c r="L15" s="0">
+        <v>0.008714716934963625</v>
+      </c>
       <c r="N15" s="0">
         <v>-679.3254166666666</v>
       </c>
@@ -910,6 +1104,9 @@
       <c r="Q15" s="0">
         <v>0.008353470544121326</v>
       </c>
+      <c r="R15" s="0">
+        <v>0.008345970357514021</v>
+      </c>
       <c r="T15" s="0">
         <v>-1702.7641666666666</v>
       </c>
@@ -922,6 +1119,9 @@
       <c r="W15" s="0">
         <v>0.0008540954920423295</v>
       </c>
+      <c r="X15" s="0">
+        <v>0.0008665721312154754</v>
+      </c>
       <c r="Z15" s="0">
         <v>-1846.38</v>
       </c>
@@ -933,6 +1133,9 @@
       </c>
       <c r="AC15" s="0">
         <v>0.00014582118156820264</v>
+      </c>
+      <c r="AD15" s="0">
+        <v>0.00013855061147196758</v>
       </c>
     </row>
     <row r="16">
@@ -948,6 +1151,9 @@
       <c r="E16" s="0">
         <v>0.0008124322973085583</v>
       </c>
+      <c r="F16" s="0">
+        <v>0.0007726726456958151</v>
+      </c>
       <c r="H16" s="0">
         <v>-670.7732152777778</v>
       </c>
@@ -960,6 +1166,9 @@
       <c r="K16" s="0">
         <v>0.008478460128322643</v>
       </c>
+      <c r="L16" s="0">
+        <v>0.008490085268138676</v>
+      </c>
       <c r="N16" s="0">
         <v>-667.9873680555554</v>
       </c>
@@ -972,6 +1181,9 @@
       <c r="Q16" s="0">
         <v>0.007832680609949166</v>
       </c>
+      <c r="R16" s="0">
+        <v>0.007831549611239849</v>
+      </c>
       <c r="T16" s="0">
         <v>-1674.3453472222222</v>
       </c>
@@ -984,6 +1196,9 @@
       <c r="W16" s="0">
         <v>0.0009790850762436461</v>
       </c>
+      <c r="X16" s="0">
+        <v>0.001004863050300357</v>
+      </c>
       <c r="Z16" s="0">
         <v>-1817.3783333333336</v>
       </c>
@@ -995,6 +1210,9 @@
       </c>
       <c r="AC16" s="0">
         <v>0.00018748437630197482</v>
+      </c>
+      <c r="AD16" s="0">
+        <v>0.00017749565252436522</v>
       </c>
     </row>
     <row r="17">
@@ -1010,6 +1228,9 @@
       <c r="E17" s="0">
         <v>0.0010624114657111913</v>
       </c>
+      <c r="F17" s="0">
+        <v>0.0010102810103226367</v>
+      </c>
       <c r="H17" s="0">
         <v>-659.4198472222222</v>
       </c>
@@ -1022,6 +1243,9 @@
       <c r="K17" s="0">
         <v>0.0076035330389134185</v>
       </c>
+      <c r="L17" s="0">
+        <v>0.007561913343809521</v>
+      </c>
       <c r="N17" s="0">
         <v>-656.6493194444444</v>
       </c>
@@ -1034,6 +1258,9 @@
       <c r="Q17" s="0">
         <v>0.007853512207316051</v>
       </c>
+      <c r="R17" s="0">
+        <v>0.007894957866798408</v>
+      </c>
       <c r="T17" s="0">
         <v>-1645.926527777778</v>
       </c>
@@ -1046,6 +1273,9 @@
       <c r="W17" s="0">
         <v>0.0009582534788767599</v>
       </c>
+      <c r="X17" s="0">
+        <v>0.0009975504589345267</v>
+      </c>
       <c r="Z17" s="0">
         <v>-1788.376666666667</v>
       </c>
@@ -1057,6 +1287,9 @@
       </c>
       <c r="AC17" s="0">
         <v>0.00045829514207149395</v>
+      </c>
+      <c r="AD17" s="0">
+        <v>0.00043395207106150134</v>
       </c>
     </row>
     <row r="18">
@@ -1072,6 +1305,9 @@
       <c r="E18" s="0">
         <v>0.000937421881509875</v>
       </c>
+      <c r="F18" s="0">
+        <v>0.0008918485468401776</v>
+      </c>
       <c r="H18" s="0">
         <v>-648.0664791666667</v>
       </c>
@@ -1084,6 +1320,9 @@
       <c r="K18" s="0">
         <v>0.0075202066494458744</v>
       </c>
+      <c r="L18" s="0">
+        <v>0.007525964313460588</v>
+      </c>
       <c r="N18" s="0">
         <v>-645.3112708333332</v>
       </c>
@@ -1096,6 +1335,9 @@
       <c r="Q18" s="0">
         <v>0.007811849012582279</v>
       </c>
+      <c r="R18" s="0">
+        <v>0.007759656956661258</v>
+      </c>
       <c r="T18" s="0">
         <v>-1617.5077083333333</v>
       </c>
@@ -1108,6 +1350,9 @@
       <c r="W18" s="0">
         <v>0.0011040746604449626</v>
       </c>
+      <c r="X18" s="0">
+        <v>0.0011012288185867126</v>
+      </c>
       <c r="Z18" s="0">
         <v>-1759.375</v>
       </c>
@@ -1119,6 +1364,9 @@
       </c>
       <c r="AC18" s="0">
         <v>0.0003541371552370636</v>
+      </c>
+      <c r="AD18" s="0">
+        <v>0.0003358819589658578</v>
       </c>
     </row>
     <row r="19">
@@ -1134,6 +1382,9 @@
       <c r="E19" s="0">
         <v>0.0011249062578118495</v>
       </c>
+      <c r="F19" s="0">
+        <v>0.0010681489045549933</v>
+      </c>
       <c r="H19" s="0">
         <v>-636.7131111111111</v>
       </c>
@@ -1146,6 +1397,9 @@
       <c r="K19" s="0">
         <v>0.007395217065244558</v>
       </c>
+      <c r="L19" s="0">
+        <v>0.007410289134115239</v>
+      </c>
       <c r="N19" s="0">
         <v>-633.9732222222221</v>
       </c>
@@ -1158,6 +1412,9 @@
       <c r="Q19" s="0">
         <v>0.0075202066494458744</v>
       </c>
+      <c r="R19" s="0">
+        <v>0.00748928568570386</v>
+      </c>
       <c r="T19" s="0">
         <v>-1589.088888888889</v>
       </c>
@@ -1170,6 +1427,9 @@
       <c r="W19" s="0">
         <v>0.0009999166736105322</v>
       </c>
+      <c r="X19" s="0">
+        <v>0.0010079323227235254</v>
+      </c>
       <c r="Z19" s="0">
         <v>-1730.3733333333334</v>
       </c>
@@ -1181,6 +1441,9 @@
       </c>
       <c r="AC19" s="0">
         <v>0.0008749270894092156</v>
+      </c>
+      <c r="AD19" s="0">
+        <v>0.000835078843656074</v>
       </c>
     </row>
     <row r="20">
@@ -1196,6 +1459,9 @@
       <c r="E20" s="0">
         <v>0.0011874010499125078</v>
       </c>
+      <c r="F20" s="0">
+        <v>0.001127254085792467</v>
+      </c>
       <c r="H20" s="0">
         <v>-625.3597430555556</v>
       </c>
@@ -1208,6 +1474,9 @@
       <c r="K20" s="0">
         <v>0.006978585117906837</v>
       </c>
+      <c r="L20" s="0">
+        <v>0.006946450634505177</v>
+      </c>
       <c r="N20" s="0">
         <v>-622.635173611111</v>
       </c>
@@ -1220,6 +1489,9 @@
       <c r="Q20" s="0">
         <v>0.007853512207316051</v>
       </c>
+      <c r="R20" s="0">
+        <v>0.007869346032579529</v>
+      </c>
       <c r="T20" s="0">
         <v>-1560.6700694444446</v>
       </c>
@@ -1232,6 +1504,9 @@
       <c r="W20" s="0">
         <v>0.0009582534788767599</v>
       </c>
+      <c r="X20" s="0">
+        <v>0.0009582034547496277</v>
+      </c>
       <c r="Z20" s="0">
         <v>-1701.371666666667</v>
       </c>
@@ -1243,6 +1518,9 @@
       </c>
       <c r="AC20" s="0">
         <v>0.0019165069577535198</v>
+      </c>
+      <c r="AD20" s="0">
+        <v>0.001865841008829992</v>
       </c>
     </row>
     <row r="21">
@@ -1258,6 +1536,9 @@
       <c r="E21" s="0">
         <v>0.0015832013998833435</v>
       </c>
+      <c r="F21" s="0">
+        <v>0.0015032434601906265</v>
+      </c>
       <c r="H21" s="0">
         <v>-614.006375</v>
       </c>
@@ -1270,6 +1551,9 @@
       <c r="K21" s="0">
         <v>0.006957753520539951</v>
       </c>
+      <c r="L21" s="0">
+        <v>0.007011834782843657</v>
+      </c>
       <c r="N21" s="0">
         <v>-611.2971249999998</v>
       </c>
@@ -1282,6 +1566,9 @@
       <c r="Q21" s="0">
         <v>0.006895258728439292</v>
       </c>
+      <c r="R21" s="0">
+        <v>0.006901951253273526</v>
+      </c>
       <c r="T21" s="0">
         <v>-1532.25125</v>
       </c>
@@ -1294,6 +1581,9 @@
       <c r="W21" s="0">
         <v>0.0007082743104741269</v>
       </c>
+      <c r="X21" s="0">
+        <v>0.0006934402604549681</v>
+      </c>
       <c r="Z21" s="0">
         <v>-1672.3700000000003</v>
       </c>
@@ -1305,6 +1595,9 @@
       </c>
       <c r="AC21" s="0">
         <v>0.0013748854262144816</v>
+      </c>
+      <c r="AD21" s="0">
+        <v>0.0013187856209306609</v>
       </c>
     </row>
     <row r="22">
@@ -1320,6 +1613,9 @@
       <c r="E22" s="0">
         <v>0.0018540121656528622</v>
       </c>
+      <c r="F22" s="0">
+        <v>0.0017585543661403007</v>
+      </c>
       <c r="H22" s="0">
         <v>-602.6530069444444</v>
       </c>
@@ -1332,6 +1628,9 @@
       <c r="K22" s="0">
         <v>0.006832763936338634</v>
       </c>
+      <c r="L22" s="0">
+        <v>0.006795586317916063</v>
+      </c>
       <c r="N22" s="0">
         <v>-599.9590763888888</v>
       </c>
@@ -1344,6 +1643,9 @@
       <c r="Q22" s="0">
         <v>0.006999416715273723</v>
       </c>
+      <c r="R22" s="0">
+        <v>0.007004210923476116</v>
+      </c>
       <c r="T22" s="0">
         <v>-1503.8324305555557</v>
       </c>
@@ -1356,6 +1658,9 @@
       <c r="W22" s="0">
         <v>0.0023748020998250138</v>
       </c>
+      <c r="X22" s="0">
+        <v>0.0022905954689826247</v>
+      </c>
       <c r="Z22" s="0">
         <v>-1643.3683333333333</v>
       </c>
@@ -1367,6 +1672,9 @@
       </c>
       <c r="AC22" s="0">
         <v>0.002270644112990583</v>
+      </c>
+      <c r="AD22" s="0">
+        <v>0.002242906064475763</v>
       </c>
     </row>
     <row r="23">
@@ -1382,6 +1690,9 @@
       <c r="E23" s="0">
         <v>0.002395633697191901</v>
       </c>
+      <c r="F23" s="0">
+        <v>0.0022734458924341854</v>
+      </c>
       <c r="H23" s="0">
         <v>-591.2996388888889</v>
       </c>
@@ -1394,6 +1705,9 @@
       <c r="K23" s="0">
         <v>0.00706191150737438</v>
       </c>
+      <c r="L23" s="0">
+        <v>0.007081484800177209</v>
+      </c>
       <c r="N23" s="0">
         <v>-588.6210277777776</v>
       </c>
@@ -1406,6 +1720,9 @@
       <c r="Q23" s="0">
         <v>0.006624447962669774</v>
       </c>
+      <c r="R23" s="0">
+        <v>0.006621113258917515</v>
+      </c>
       <c r="T23" s="0">
         <v>-1475.4136111111113</v>
       </c>
@@ -1418,6 +1735,9 @@
       <c r="W23" s="0">
         <v>0.0019998333472210647</v>
       </c>
+      <c r="X23" s="0">
+        <v>0.0019737679346889777</v>
+      </c>
       <c r="Z23" s="0">
         <v>-1614.3666666666668</v>
       </c>
@@ -1429,6 +1749,9 @@
       </c>
       <c r="AC23" s="0">
         <v>0.0015623698025164566</v>
+      </c>
+      <c r="AD23" s="0">
+        <v>0.0015288439446719722</v>
       </c>
     </row>
     <row r="24">
@@ -1444,6 +1767,9 @@
       <c r="E24" s="0">
         <v>0.0029580868260978247</v>
       </c>
+      <c r="F24" s="0">
+        <v>0.002804676202698433</v>
+      </c>
       <c r="H24" s="0">
         <v>-579.9462708333333</v>
       </c>
@@ -1456,6 +1782,9 @@
       <c r="K24" s="0">
         <v>0.006291142404799597</v>
       </c>
+      <c r="L24" s="0">
+        <v>0.006268428956374094</v>
+      </c>
       <c r="N24" s="0">
         <v>-577.2829791666666</v>
       </c>
@@ -1468,6 +1797,9 @@
       <c r="Q24" s="0">
         <v>0.006207816015332051</v>
       </c>
+      <c r="R24" s="0">
+        <v>0.0061981124215813215</v>
+      </c>
       <c r="T24" s="0">
         <v>-1446.9947916666667</v>
       </c>
@@ -1480,6 +1812,9 @@
       <c r="W24" s="0">
         <v>0.0014998750104157986</v>
       </c>
+      <c r="X24" s="0">
+        <v>0.0014651117143547844</v>
+      </c>
       <c r="Z24" s="0">
         <v>-1585.3650000000002</v>
       </c>
@@ -1491,6 +1826,9 @@
       </c>
       <c r="AC24" s="0">
         <v>0.0019165069577535198</v>
+      </c>
+      <c r="AD24" s="0">
+        <v>0.001887277475820313</v>
       </c>
     </row>
     <row r="25">
@@ -1506,6 +1844,9 @@
       <c r="E25" s="0">
         <v>0.003228897591867344</v>
       </c>
+      <c r="F25" s="0">
+        <v>0.003063937197384798</v>
+      </c>
       <c r="H25" s="0">
         <v>-568.5929027777778</v>
       </c>
@@ -1518,6 +1859,9 @@
       <c r="K25" s="0">
         <v>0.006478626781101571</v>
       </c>
+      <c r="L25" s="0">
+        <v>0.006506627405612935</v>
+      </c>
       <c r="N25" s="0">
         <v>-565.9449305555554</v>
       </c>
@@ -1530,6 +1874,9 @@
       <c r="Q25" s="0">
         <v>0.006666111157403546</v>
       </c>
+      <c r="R25" s="0">
+        <v>0.006661296413595196</v>
+      </c>
       <c r="T25" s="0">
         <v>-1418.5759722222222</v>
       </c>
@@ -1542,6 +1889,9 @@
       <c r="W25" s="0">
         <v>0.0022081493208899257</v>
       </c>
+      <c r="X25" s="0">
+        <v>0.002120898097809237</v>
+      </c>
       <c r="Z25" s="0">
         <v>-1556.3633333333337</v>
       </c>
@@ -1553,6 +1903,9 @@
       </c>
       <c r="AC25" s="0">
         <v>0.0021456545287892666</v>
+      </c>
+      <c r="AD25" s="0">
+        <v>0.002155506979725767</v>
       </c>
     </row>
     <row r="26">
@@ -1568,6 +1921,9 @@
       <c r="E26" s="0">
         <v>0.004103824681276559</v>
       </c>
+      <c r="F26" s="0">
+        <v>0.00389550340256251</v>
+      </c>
       <c r="H26" s="0">
         <v>-557.2395347222222</v>
       </c>
@@ -1580,6 +1936,9 @@
       <c r="K26" s="0">
         <v>0.005957836846929419</v>
       </c>
+      <c r="L26" s="0">
+        <v>0.005961480142975803</v>
+      </c>
       <c r="N26" s="0">
         <v>-554.6068819444442</v>
       </c>
@@ -1592,6 +1951,9 @@
       <c r="Q26" s="0">
         <v>0.006041163236396964</v>
       </c>
+      <c r="R26" s="0">
+        <v>0.006046219030824592</v>
+      </c>
       <c r="T26" s="0">
         <v>-1390.1571527777778</v>
       </c>
@@ -1604,6 +1966,9 @@
       <c r="W26" s="0">
         <v>0.002812265644529622</v>
       </c>
+      <c r="X26" s="0">
+        <v>0.002744886255828569</v>
+      </c>
       <c r="Z26" s="0">
         <v>-1527.3616666666667</v>
       </c>
@@ -1615,6 +1980,9 @@
       </c>
       <c r="AC26" s="0">
         <v>0.0023748020998250138</v>
+      </c>
+      <c r="AD26" s="0">
+        <v>0.002329462182782168</v>
       </c>
     </row>
     <row r="27">
@@ -1630,6 +1998,9 @@
       <c r="E27" s="0">
         <v>0.0048329305891175725</v>
       </c>
+      <c r="F27" s="0">
+        <v>0.004583982507930272</v>
+      </c>
       <c r="H27" s="0">
         <v>-545.8861666666667</v>
       </c>
@@ -1642,6 +2013,9 @@
       <c r="K27" s="0">
         <v>0.006228647612698939</v>
       </c>
+      <c r="L27" s="0">
+        <v>0.006223802235062867</v>
+      </c>
       <c r="N27" s="0">
         <v>-543.2688333333332</v>
       </c>
@@ -1654,6 +2028,9 @@
       <c r="Q27" s="0">
         <v>0.006457795183734685</v>
       </c>
+      <c r="R27" s="0">
+        <v>0.006457696256669876</v>
+      </c>
       <c r="T27" s="0">
         <v>-1361.7383333333335</v>
       </c>
@@ -1666,6 +2043,9 @@
       <c r="W27" s="0">
         <v>0.002791434047162736</v>
       </c>
+      <c r="X27" s="0">
+        <v>0.0027466922737010555</v>
+      </c>
       <c r="Z27" s="0">
         <v>-1498.3600000000001</v>
       </c>
@@ -1677,6 +2057,9 @@
       </c>
       <c r="AC27" s="0">
         <v>0.0023123073077243555</v>
+      </c>
+      <c r="AD27" s="0">
+        <v>0.002262531939734989</v>
       </c>
     </row>
     <row r="28">
@@ -1692,6 +2075,9 @@
       <c r="E28" s="0">
         <v>0.005207899341721522</v>
       </c>
+      <c r="F28" s="0">
+        <v>0.004940672948931321</v>
+      </c>
       <c r="H28" s="0">
         <v>-534.5327986111112</v>
       </c>
@@ -1704,6 +2090,9 @@
       <c r="K28" s="0">
         <v>0.006082826431130736</v>
       </c>
+      <c r="L28" s="0">
+        <v>0.0060918434906205654</v>
+      </c>
       <c r="N28" s="0">
         <v>-531.9307847222221</v>
       </c>
@@ -1716,6 +2105,9 @@
       <c r="Q28" s="0">
         <v>0.005707857678526786</v>
       </c>
+      <c r="R28" s="0">
+        <v>0.0057108666814678155</v>
+      </c>
       <c r="T28" s="0">
         <v>-1333.3195138888889</v>
       </c>
@@ -1728,6 +2120,9 @@
       <c r="W28" s="0">
         <v>0.002249812515623698</v>
       </c>
+      <c r="X28" s="0">
+        <v>0.0022320755384343015</v>
+      </c>
       <c r="Z28" s="0">
         <v>-1469.3583333333336</v>
       </c>
@@ -1739,6 +2134,9 @@
       </c>
       <c r="AC28" s="0">
         <v>0.0029372552287309384</v>
+      </c>
+      <c r="AD28" s="0">
+        <v>0.002899286893142047</v>
       </c>
     </row>
     <row r="29">
@@ -1754,6 +2152,9 @@
       <c r="E29" s="0">
         <v>0.007166069494208813</v>
       </c>
+      <c r="F29" s="0">
+        <v>0.006793193222293467</v>
+      </c>
       <c r="H29" s="0">
         <v>-523.1794305555555</v>
       </c>
@@ -1766,6 +2167,9 @@
       <c r="K29" s="0">
         <v>0.005874510457461875</v>
       </c>
+      <c r="L29" s="0">
+        <v>0.005865609344496913</v>
+      </c>
       <c r="N29" s="0">
         <v>-520.592736111111</v>
       </c>
@@ -1778,6 +2182,9 @@
       <c r="Q29" s="0">
         <v>0.006395300391634027</v>
       </c>
+      <c r="R29" s="0">
+        <v>0.006436077748677026</v>
+      </c>
       <c r="T29" s="0">
         <v>-1304.9006944444445</v>
       </c>
@@ -1790,6 +2197,9 @@
       <c r="W29" s="0">
         <v>0.00420798266811099</v>
       </c>
+      <c r="X29" s="0">
+        <v>0.004183767560969145</v>
+      </c>
       <c r="Z29" s="0">
         <v>-1440.356666666667</v>
       </c>
@@ -1801,6 +2211,9 @@
       </c>
       <c r="AC29" s="0">
         <v>0.003041413215565369</v>
+      </c>
+      <c r="AD29" s="0">
+        <v>0.003067435556394147</v>
       </c>
     </row>
     <row r="30">
@@ -1816,6 +2229,9 @@
       <c r="E30" s="0">
         <v>0.007728522623114737</v>
       </c>
+      <c r="F30" s="0">
+        <v>0.007326411656838394</v>
+      </c>
       <c r="H30" s="0">
         <v>-511.82606249999986</v>
       </c>
@@ -1828,6 +2244,9 @@
       <c r="K30" s="0">
         <v>0.006041163236396963</v>
       </c>
+      <c r="L30" s="0">
+        <v>0.00603434587144158</v>
+      </c>
       <c r="N30" s="0">
         <v>-509.2546874999999</v>
       </c>
@@ -1840,6 +2259,9 @@
       <c r="Q30" s="0">
         <v>0.005666194483793015</v>
       </c>
+      <c r="R30" s="0">
+        <v>0.005575096249100196</v>
+      </c>
       <c r="T30" s="0">
         <v>-1276.4818750000002</v>
       </c>
@@ -1852,6 +2274,9 @@
       <c r="W30" s="0">
         <v>0.0032080659945004576</v>
       </c>
+      <c r="X30" s="0">
+        <v>0.0031946179108000867</v>
+      </c>
       <c r="Z30" s="0">
         <v>-1411.355</v>
       </c>
@@ -1863,6 +2288,9 @@
       </c>
       <c r="AC30" s="0">
         <v>0.0030205816181984833</v>
+      </c>
+      <c r="AD30" s="0">
+        <v>0.0029655331078331177</v>
       </c>
     </row>
     <row r="31">
@@ -1878,6 +2306,9 @@
       <c r="E31" s="0">
         <v>0.007228564286309472</v>
       </c>
+      <c r="F31" s="0">
+        <v>0.006851438543853554</v>
+      </c>
       <c r="H31" s="0">
         <v>-500.47269444444436</v>
       </c>
@@ -1890,6 +2321,9 @@
       <c r="K31" s="0">
         <v>0.005666194483793015</v>
       </c>
+      <c r="L31" s="0">
+        <v>0.005660322445579338</v>
+      </c>
       <c r="N31" s="0">
         <v>-497.9166388888888</v>
       </c>
@@ -1902,6 +2336,9 @@
       <c r="Q31" s="0">
         <v>0.005832847262728103</v>
       </c>
+      <c r="R31" s="0">
+        <v>0.005893642640850537</v>
+      </c>
       <c r="T31" s="0">
         <v>-1248.0630555555556</v>
       </c>
@@ -1914,6 +2351,9 @@
       <c r="W31" s="0">
         <v>0.003416381968169319</v>
       </c>
+      <c r="X31" s="0">
+        <v>0.0034546187653598215</v>
+      </c>
       <c r="Z31" s="0">
         <v>-1382.3533333333335</v>
       </c>
@@ -1925,6 +2365,9 @@
       </c>
       <c r="AC31" s="0">
         <v>0.0038538455128739263</v>
+      </c>
+      <c r="AD31" s="0">
+        <v>0.0038011837966303473</v>
       </c>
     </row>
     <row r="32">
@@ -1940,6 +2383,9 @@
       <c r="E32" s="0">
         <v>0.008561786517790191</v>
       </c>
+      <c r="F32" s="0">
+        <v>0.008113260373116929</v>
+      </c>
       <c r="H32" s="0">
         <v>-489.11932638888885</v>
       </c>
@@ -1952,6 +2398,9 @@
       <c r="K32" s="0">
         <v>0.005603699691692356</v>
       </c>
+      <c r="L32" s="0">
+        <v>0.005641720089869207</v>
+      </c>
       <c r="N32" s="0">
         <v>-486.57859027777766</v>
       </c>
@@ -1964,6 +2413,9 @@
       <c r="Q32" s="0">
         <v>0.005687026081159901</v>
       </c>
+      <c r="R32" s="0">
+        <v>0.005642376697012473</v>
+      </c>
       <c r="T32" s="0">
         <v>-1219.644236111111</v>
       </c>
@@ -1976,6 +2428,9 @@
       <c r="W32" s="0">
         <v>0.0031664027997666856</v>
       </c>
+      <c r="X32" s="0">
+        <v>0.003159326983271017</v>
+      </c>
       <c r="Z32" s="0">
         <v>-1353.351666666667</v>
       </c>
@@ -1987,6 +2442,9 @@
       </c>
       <c r="AC32" s="0">
         <v>0.0037288559286726094</v>
+      </c>
+      <c r="AD32" s="0">
+        <v>0.003645913902430468</v>
       </c>
     </row>
     <row r="33">
@@ -2002,6 +2460,9 @@
       <c r="E33" s="0">
         <v>0.010186651112407328</v>
       </c>
+      <c r="F33" s="0">
+        <v>0.009656735857590948</v>
+      </c>
       <c r="H33" s="0">
         <v>-477.7659583333333</v>
       </c>
@@ -2014,6 +2475,9 @@
       <c r="K33" s="0">
         <v>0.005312057328555952</v>
       </c>
+      <c r="L33" s="0">
+        <v>0.005294306336010391</v>
+      </c>
       <c r="N33" s="0">
         <v>-475.24054166666656</v>
       </c>
@@ -2026,6 +2490,9 @@
       <c r="Q33" s="0">
         <v>0.00547871010749104</v>
       </c>
+      <c r="R33" s="0">
+        <v>0.005488352593130951</v>
+      </c>
       <c r="T33" s="0">
         <v>-1191.2254166666667</v>
       </c>
@@ -2038,6 +2505,9 @@
       <c r="W33" s="0">
         <v>0.0044162986417798505</v>
       </c>
+      <c r="X33" s="0">
+        <v>0.004367267785590245</v>
+      </c>
       <c r="Z33" s="0">
         <v>-1324.3500000000004</v>
       </c>
@@ -2049,6 +2519,9 @@
       </c>
       <c r="AC33" s="0">
         <v>0.0046662778101824835</v>
+      </c>
+      <c r="AD33" s="0">
+        <v>0.004665381469715434</v>
       </c>
     </row>
     <row r="34">
@@ -2064,6 +2537,9 @@
       <c r="E34" s="0">
         <v>0.010561619865011281</v>
       </c>
+      <c r="F34" s="0">
+        <v>0.01001305138724052</v>
+      </c>
       <c r="H34" s="0">
         <v>-466.4125902777777</v>
       </c>
@@ -2076,6 +2552,9 @@
       <c r="K34" s="0">
         <v>0.005937005249562533</v>
       </c>
+      <c r="L34" s="0">
+        <v>0.005948240225557025</v>
+      </c>
       <c r="N34" s="0">
         <v>-463.90249305555545</v>
       </c>
@@ -2088,6 +2567,9 @@
       <c r="Q34" s="0">
         <v>0.005353720523289723</v>
       </c>
+      <c r="R34" s="0">
+        <v>0.005371724706189546</v>
+      </c>
       <c r="T34" s="0">
         <v>-1162.8065972222223</v>
       </c>
@@ -2100,6 +2582,9 @@
       <c r="W34" s="0">
         <v>0.003791350720773268</v>
       </c>
+      <c r="X34" s="0">
+        <v>0.0037083471097614433</v>
+      </c>
       <c r="Z34" s="0">
         <v>-1295.3483333333334</v>
       </c>
@@ -2111,6 +2596,9 @@
       </c>
       <c r="AC34" s="0">
         <v>0.0038538455128739263</v>
+      </c>
+      <c r="AD34" s="0">
+        <v>0.0038748670829643313</v>
       </c>
     </row>
     <row r="35">
@@ -2126,6 +2614,9 @@
       <c r="E35" s="0">
         <v>0.011728189317556917</v>
       </c>
+      <c r="F35" s="0">
+        <v>0.011119241860410337</v>
+      </c>
       <c r="H35" s="0">
         <v>-455.05922222222216</v>
       </c>
@@ -2138,6 +2629,9 @@
       <c r="K35" s="0">
         <v>0.005812015665361217</v>
       </c>
+      <c r="L35" s="0">
+        <v>0.005815434534468113</v>
+      </c>
       <c r="N35" s="0">
         <v>-452.56444444444435</v>
       </c>
@@ -2150,6 +2644,9 @@
       <c r="Q35" s="0">
         <v>0.005437046912757268</v>
       </c>
+      <c r="R35" s="0">
+        <v>0.005419224551429763</v>
+      </c>
       <c r="T35" s="0">
         <v>-1134.3877777777777</v>
       </c>
@@ -2162,6 +2659,9 @@
       <c r="W35" s="0">
         <v>0.005228730939088407</v>
       </c>
+      <c r="X35" s="0">
+        <v>0.005275353087148456</v>
+      </c>
       <c r="Z35" s="0">
         <v>-1266.3466666666668</v>
       </c>
@@ -2173,6 +2673,9 @@
       </c>
       <c r="AC35" s="0">
         <v>0.004499625031247395</v>
+      </c>
+      <c r="AD35" s="0">
+        <v>0.0044409119475842685</v>
       </c>
     </row>
     <row r="36">
@@ -2188,6 +2691,9 @@
       <c r="E36" s="0">
         <v>0.012332305641196625</v>
       </c>
+      <c r="F36" s="0">
+        <v>0.011695020741615474</v>
+      </c>
       <c r="H36" s="0">
         <v>-443.7058541666666</v>
       </c>
@@ -2200,6 +2706,9 @@
       <c r="K36" s="0">
         <v>0.0046662778101824835</v>
       </c>
+      <c r="L36" s="0">
+        <v>0.004658659970363722</v>
+      </c>
       <c r="N36" s="0">
         <v>-441.22639583333324</v>
       </c>
@@ -2212,6 +2721,9 @@
       <c r="Q36" s="0">
         <v>0.005603699691692356</v>
       </c>
+      <c r="R36" s="0">
+        <v>0.005610414800248853</v>
+      </c>
       <c r="T36" s="0">
         <v>-1105.9689583333334</v>
       </c>
@@ -2224,6 +2736,9 @@
       <c r="W36" s="0">
         <v>0.004832930589117572</v>
       </c>
+      <c r="X36" s="0">
+        <v>0.004767386900728184</v>
+      </c>
       <c r="Z36" s="0">
         <v>-1237.3450000000003</v>
       </c>
@@ -2235,6 +2750,9 @@
       </c>
       <c r="AC36" s="0">
         <v>0.004749604199650026</v>
+      </c>
+      <c r="AD36" s="0">
+        <v>0.004738366296832554</v>
       </c>
     </row>
     <row r="37">
@@ -2250,6 +2768,9 @@
       <c r="E37" s="0">
         <v>0.013436380301641604</v>
       </c>
+      <c r="F37" s="0">
+        <v>0.01274261867777376</v>
+      </c>
       <c r="H37" s="0">
         <v>-432.35248611111103</v>
       </c>
@@ -2262,6 +2783,9 @@
       <c r="K37" s="0">
         <v>0.005437046912757267</v>
       </c>
+      <c r="L37" s="0">
+        <v>0.0054436137402147965</v>
+      </c>
       <c r="N37" s="0">
         <v>-429.88834722222214</v>
       </c>
@@ -2274,6 +2798,9 @@
       <c r="Q37" s="0">
         <v>0.004874593783851344</v>
       </c>
+      <c r="R37" s="0">
+        <v>0.004864782905468417</v>
+      </c>
       <c r="T37" s="0">
         <v>-1077.550138888889</v>
       </c>
@@ -2286,6 +2813,9 @@
       <c r="W37" s="0">
         <v>0.0054995417048579265</v>
       </c>
+      <c r="X37" s="0">
+        <v>0.005415615291968091</v>
+      </c>
       <c r="Z37" s="0">
         <v>-1208.3433333333337</v>
       </c>
@@ -2297,6 +2827,9 @@
       </c>
       <c r="AC37" s="0">
         <v>0.004187151070744102</v>
+      </c>
+      <c r="AD37" s="0">
+        <v>0.0041783368741977476</v>
       </c>
     </row>
     <row r="38">
@@ -2312,6 +2845,9 @@
       <c r="E38" s="0">
         <v>0.013040579951670765</v>
       </c>
+      <c r="F38" s="0">
+        <v>0.012362910362666606</v>
+      </c>
       <c r="H38" s="0">
         <v>-420.99911805555547</v>
       </c>
@@ -2324,6 +2860,9 @@
       <c r="K38" s="0">
         <v>0.005332888925922838</v>
       </c>
+      <c r="L38" s="0">
+        <v>0.0053255087897398695</v>
+      </c>
       <c r="N38" s="0">
         <v>-418.55029861111103</v>
       </c>
@@ -2336,6 +2875,9 @@
       <c r="Q38" s="0">
         <v>0.005603699691692356</v>
       </c>
+      <c r="R38" s="0">
+        <v>0.005596175315513738</v>
+      </c>
       <c r="T38" s="0">
         <v>-1049.1313194444444</v>
       </c>
@@ -2348,6 +2890,9 @@
       <c r="W38" s="0">
         <v>0.004978751770685773</v>
       </c>
+      <c r="X38" s="0">
+        <v>0.004904572921476933</v>
+      </c>
       <c r="Z38" s="0">
         <v>-1179.3416666666667</v>
       </c>
@@ -2359,6 +2904,9 @@
       </c>
       <c r="AC38" s="0">
         <v>0.005749520873260558</v>
+      </c>
+      <c r="AD38" s="0">
+        <v>0.005641202742284426</v>
       </c>
     </row>
     <row r="39">
@@ -2374,6 +2922,9 @@
       <c r="E39" s="0">
         <v>0.014811265727856104</v>
       </c>
+      <c r="F39" s="0">
+        <v>0.014039789237948054</v>
+      </c>
       <c r="H39" s="0">
         <v>-409.6457499999999</v>
       </c>
@@ -2386,6 +2937,9 @@
       <c r="K39" s="0">
         <v>0.00547871010749104</v>
       </c>
+      <c r="L39" s="0">
+        <v>0.005467780195934253</v>
+      </c>
       <c r="N39" s="0">
         <v>-407.2122499999999</v>
       </c>
@@ -2398,6 +2952,9 @@
       <c r="Q39" s="0">
         <v>0.005082909757520205</v>
       </c>
+      <c r="R39" s="0">
+        <v>0.005097599321422228</v>
+      </c>
       <c r="T39" s="0">
         <v>-1020.7125</v>
       </c>
@@ -2410,6 +2967,9 @@
       <c r="W39" s="0">
         <v>0.005916173652195647</v>
       </c>
+      <c r="X39" s="0">
+        <v>0.005800138142710819</v>
+      </c>
       <c r="Z39" s="0">
         <v>-1150.3400000000001</v>
       </c>
@@ -2421,6 +2981,9 @@
       </c>
       <c r="AC39" s="0">
         <v>0.005978668444296304</v>
+      </c>
+      <c r="AD39" s="0">
+        <v>0.005965132038477447</v>
       </c>
     </row>
     <row r="40">
@@ -2436,6 +2999,9 @@
       <c r="E40" s="0">
         <v>0.013832180651612444</v>
       </c>
+      <c r="F40" s="0">
+        <v>0.013112235985159577</v>
+      </c>
       <c r="H40" s="0">
         <v>-398.29238194444434</v>
       </c>
@@ -2448,6 +3014,9 @@
       <c r="K40" s="0">
         <v>0.0052495625364552935</v>
       </c>
+      <c r="L40" s="0">
+        <v>0.005279445673234757</v>
+      </c>
       <c r="N40" s="0">
         <v>-395.8742013888888</v>
       </c>
@@ -2460,6 +3029,9 @@
       <c r="Q40" s="0">
         <v>0.005416215315390382</v>
       </c>
+      <c r="R40" s="0">
+        <v>0.005392941569783943</v>
+      </c>
       <c r="T40" s="0">
         <v>-992.2936805555555</v>
       </c>
@@ -2472,6 +3044,9 @@
       <c r="W40" s="0">
         <v>0.0065202899758353425</v>
       </c>
+      <c r="X40" s="0">
+        <v>0.006468147455210678</v>
+      </c>
       <c r="Z40" s="0">
         <v>-1121.3383333333336</v>
       </c>
@@ -2483,6 +3058,9 @@
       </c>
       <c r="AC40" s="0">
         <v>0.005770352470627444</v>
+      </c>
+      <c r="AD40" s="0">
+        <v>0.005762157420923496</v>
       </c>
     </row>
     <row r="41">
@@ -2498,6 +3076,9 @@
       <c r="E41" s="0">
         <v>0.01566536121989845</v>
       </c>
+      <c r="F41" s="0">
+        <v>0.01484516052857328</v>
+      </c>
       <c r="H41" s="0">
         <v>-386.93901388888884</v>
       </c>
@@ -2510,6 +3091,9 @@
       <c r="K41" s="0">
         <v>0.005228730939088408</v>
       </c>
+      <c r="L41" s="0">
+        <v>0.00518397916938138</v>
+      </c>
       <c r="N41" s="0">
         <v>-384.53615277777766</v>
       </c>
@@ -2522,6 +3106,9 @@
       <c r="Q41" s="0">
         <v>0.004853762186484457</v>
       </c>
+      <c r="R41" s="0">
+        <v>0.004835288932858298</v>
+      </c>
       <c r="T41" s="0">
         <v>-963.874861111111</v>
       </c>
@@ -2534,6 +3121,9 @@
       <c r="W41" s="0">
         <v>0.005874510457461874</v>
       </c>
+      <c r="X41" s="0">
+        <v>0.005808060158446446</v>
+      </c>
       <c r="Z41" s="0">
         <v>-1092.336666666667</v>
       </c>
@@ -2545,6 +3135,9 @@
       </c>
       <c r="AC41" s="0">
         <v>0.005874510457461875</v>
+      </c>
+      <c r="AD41" s="0">
+        <v>0.005840158402953385</v>
       </c>
     </row>
     <row r="42">
@@ -2560,6 +3153,9 @@
       <c r="E42" s="0">
         <v>0.015457045246229588</v>
       </c>
+      <c r="F42" s="0">
+        <v>0.01464963635462078</v>
+      </c>
       <c r="H42" s="0">
         <v>-375.5856458333333</v>
       </c>
@@ -2572,6 +3168,9 @@
       <c r="K42" s="0">
         <v>0.005187067744354634</v>
       </c>
+      <c r="L42" s="0">
+        <v>0.005216943906093485</v>
+      </c>
       <c r="N42" s="0">
         <v>-373.19810416666655</v>
       </c>
@@ -2584,6 +3183,9 @@
       <c r="Q42" s="0">
         <v>0.005270394133822179</v>
       </c>
+      <c r="R42" s="0">
+        <v>0.0052894518762275165</v>
+      </c>
       <c r="T42" s="0">
         <v>-935.4560416666667</v>
       </c>
@@ -2596,6 +3198,9 @@
       <c r="W42" s="0">
         <v>0.007103574702108155</v>
       </c>
+      <c r="X42" s="0">
+        <v>0.007042430858033792</v>
+      </c>
       <c r="Z42" s="0">
         <v>-1063.335</v>
       </c>
@@ -2607,6 +3212,9 @@
       </c>
       <c r="AC42" s="0">
         <v>0.006499458378468456</v>
+      </c>
+      <c r="AD42" s="0">
+        <v>0.0064692961250718195</v>
       </c>
     </row>
     <row r="43">
@@ -2622,6 +3230,9 @@
       <c r="E43" s="0">
         <v>0.01612365636196995</v>
       </c>
+      <c r="F43" s="0">
+        <v>0.015277653214554944</v>
+      </c>
       <c r="H43" s="0">
         <v>-364.2322777777777</v>
       </c>
@@ -2634,6 +3245,9 @@
       <c r="K43" s="0">
         <v>0.004978751770685775</v>
       </c>
+      <c r="L43" s="0">
+        <v>0.004950038514628399</v>
+      </c>
       <c r="N43" s="0">
         <v>-361.86005555555545</v>
       </c>
@@ -2646,6 +3260,9 @@
       <c r="Q43" s="0">
         <v>0.005082909757520205</v>
       </c>
+      <c r="R43" s="0">
+        <v>0.005071081913542776</v>
+      </c>
       <c r="T43" s="0">
         <v>-907.0372222222221</v>
       </c>
@@ -2658,6 +3275,9 @@
       <c r="W43" s="0">
         <v>0.007207732688942586</v>
       </c>
+      <c r="X43" s="0">
+        <v>0.007097331829032865</v>
+      </c>
       <c r="Z43" s="0">
         <v>-1034.3333333333335</v>
       </c>
@@ -2669,6 +3289,9 @@
       </c>
       <c r="AC43" s="0">
         <v>0.006916090325806178</v>
+      </c>
+      <c r="AD43" s="0">
+        <v>0.0068288914509766225</v>
       </c>
     </row>
     <row r="44">
@@ -2684,6 +3307,9 @@
       <c r="E44" s="0">
         <v>0.01733188900924936</v>
       </c>
+      <c r="F44" s="0">
+        <v>0.016426149401195467</v>
+      </c>
       <c r="H44" s="0">
         <v>-352.87890972222215</v>
       </c>
@@ -2696,6 +3322,9 @@
       <c r="K44" s="0">
         <v>0.004937088575952002</v>
       </c>
+      <c r="L44" s="0">
+        <v>0.004955568321237028</v>
+      </c>
       <c r="N44" s="0">
         <v>-350.52200694444434</v>
       </c>
@@ -2708,6 +3337,9 @@
       <c r="Q44" s="0">
         <v>0.0049995833680526605</v>
       </c>
+      <c r="R44" s="0">
+        <v>0.004994366575019948</v>
+      </c>
       <c r="T44" s="0">
         <v>-878.6184027777778</v>
       </c>
@@ -2720,6 +3352,9 @@
       <c r="W44" s="0">
         <v>0.008749270894092168</v>
       </c>
+      <c r="X44" s="0">
+        <v>0.008717316563507226</v>
+      </c>
       <c r="Z44" s="0">
         <v>-1005.3316666666668</v>
       </c>
@@ -2731,6 +3366,9 @@
       </c>
       <c r="AC44" s="0">
         <v>0.007249395883676357</v>
+      </c>
+      <c r="AD44" s="0">
+        <v>0.007209737337291426</v>
       </c>
     </row>
     <row r="45">
@@ -2746,6 +3384,9 @@
       <c r="E45" s="0">
         <v>0.015602866427797792</v>
       </c>
+      <c r="F45" s="0">
+        <v>0.014785620231259266</v>
+      </c>
       <c r="H45" s="0">
         <v>-341.5255416666666</v>
       </c>
@@ -2758,6 +3399,9 @@
       <c r="K45" s="0">
         <v>0.004937088575952002</v>
       </c>
+      <c r="L45" s="0">
+        <v>0.004934207033249939</v>
+      </c>
       <c r="N45" s="0">
         <v>-339.18395833333324</v>
       </c>
@@ -2770,6 +3414,9 @@
       <c r="Q45" s="0">
         <v>0.005187067744354635</v>
       </c>
+      <c r="R45" s="0">
+        <v>0.005222864244735742</v>
+      </c>
       <c r="T45" s="0">
         <v>-850.1995833333332</v>
       </c>
@@ -2782,6 +3429,9 @@
       <c r="W45" s="0">
         <v>0.008665944504624625</v>
       </c>
+      <c r="X45" s="0">
+        <v>0.008601092550663918</v>
+      </c>
       <c r="Z45" s="0">
         <v>-976.3300000000003</v>
       </c>
@@ -2793,6 +3443,9 @@
       </c>
       <c r="AC45" s="0">
         <v>0.008811765686192831</v>
+      </c>
+      <c r="AD45" s="0">
+        <v>0.008724846600145608</v>
       </c>
     </row>
     <row r="46">
@@ -2808,6 +3461,9 @@
       <c r="E46" s="0">
         <v>0.014998750104158083</v>
       </c>
+      <c r="F46" s="0">
+        <v>0.014209990278454748</v>
+      </c>
       <c r="H46" s="0">
         <v>-330.172173611111</v>
       </c>
@@ -2820,6 +3476,9 @@
       <c r="K46" s="0">
         <v>0.005270394133822179</v>
       </c>
+      <c r="L46" s="0">
+        <v>0.005273796832612019</v>
+      </c>
       <c r="N46" s="0">
         <v>-327.84590972222213</v>
       </c>
@@ -2832,6 +3491,9 @@
       <c r="Q46" s="0">
         <v>0.004728772602283141</v>
       </c>
+      <c r="R46" s="0">
+        <v>0.0047368459102602786</v>
+      </c>
       <c r="T46" s="0">
         <v>-821.7807638888888</v>
       </c>
@@ -2844,6 +3506,9 @@
       <c r="W46" s="0">
         <v>0.008249312557286899</v>
       </c>
+      <c r="X46" s="0">
+        <v>0.008143390581338653</v>
+      </c>
       <c r="Z46" s="0">
         <v>-947.3283333333335</v>
       </c>
@@ -2855,6 +3520,9 @@
       </c>
       <c r="AC46" s="0">
         <v>0.009290892425631216</v>
+      </c>
+      <c r="AD46" s="0">
+        <v>0.009254286106023192</v>
       </c>
     </row>
     <row r="47">
@@ -2870,6 +3538,9 @@
       <c r="E47" s="0">
         <v>0.015040413298891858</v>
       </c>
+      <c r="F47" s="0">
+        <v>0.014250816374252233</v>
+      </c>
       <c r="H47" s="0">
         <v>-318.81880555555546</v>
       </c>
@@ -2882,6 +3553,9 @@
       <c r="K47" s="0">
         <v>0.004687109407549369</v>
       </c>
+      <c r="L47" s="0">
+        <v>0.0046998711640143034</v>
+      </c>
       <c r="N47" s="0">
         <v>-316.507861111111</v>
       </c>
@@ -2894,6 +3568,9 @@
       <c r="Q47" s="0">
         <v>0.004999583368052661</v>
       </c>
+      <c r="R47" s="0">
+        <v>0.004994293961809984</v>
+      </c>
       <c r="T47" s="0">
         <v>-793.3619444444445</v>
       </c>
@@ -2906,6 +3583,9 @@
       <c r="W47" s="0">
         <v>0.009915840346637807</v>
       </c>
+      <c r="X47" s="0">
+        <v>0.009839133929475089</v>
+      </c>
       <c r="Z47" s="0">
         <v>-918.3266666666667</v>
       </c>
@@ -2917,6 +3597,9 @@
       </c>
       <c r="AC47" s="0">
         <v>0.011374052162319856</v>
+      </c>
+      <c r="AD47" s="0">
+        <v>0.011265160823810945</v>
       </c>
     </row>
     <row r="48">
@@ -2932,6 +3615,9 @@
       <c r="E48" s="0">
         <v>0.016581951504041452</v>
       </c>
+      <c r="F48" s="0">
+        <v>0.015723128032265013</v>
+      </c>
       <c r="H48" s="0">
         <v>-307.46543749999995</v>
       </c>
@@ -2944,6 +3630,9 @@
       <c r="K48" s="0">
         <v>0.00489542538121823</v>
       </c>
+      <c r="L48" s="0">
+        <v>0.004870142688877196</v>
+      </c>
       <c r="N48" s="0">
         <v>-305.16981249999986</v>
       </c>
@@ -2956,6 +3645,9 @@
       <c r="Q48" s="0">
         <v>0.004499625031247394</v>
       </c>
+      <c r="R48" s="0">
+        <v>0.004462592701387371</v>
+      </c>
       <c r="T48" s="0">
         <v>-764.9431249999999</v>
       </c>
@@ -2968,6 +3660,9 @@
       <c r="W48" s="0">
         <v>0.008874260478293488</v>
       </c>
+      <c r="X48" s="0">
+        <v>0.008754098583076596</v>
+      </c>
       <c r="Z48" s="0">
         <v>-889.3250000000002</v>
       </c>
@@ -2979,6 +3674,9 @@
       </c>
       <c r="AC48" s="0">
         <v>0.012623948004333039</v>
+      </c>
+      <c r="AD48" s="0">
+        <v>0.012668073063824462</v>
       </c>
     </row>
     <row r="49">
@@ -2994,6 +3692,9 @@
       <c r="E49" s="0">
         <v>0.014873760519956765</v>
       </c>
+      <c r="F49" s="0">
+        <v>0.014112999082624676</v>
+      </c>
       <c r="H49" s="0">
         <v>-296.1120694444444</v>
       </c>
@@ -3006,6 +3707,9 @@
       <c r="K49" s="0">
         <v>0.004707941004916256</v>
       </c>
+      <c r="L49" s="0">
+        <v>0.004764933951172846</v>
+      </c>
       <c r="N49" s="0">
         <v>-293.83176388888876</v>
       </c>
@@ -3018,6 +3722,9 @@
       <c r="Q49" s="0">
         <v>0.005478710107491041</v>
       </c>
+      <c r="R49" s="0">
+        <v>0.005507822840191323</v>
+      </c>
       <c r="T49" s="0">
         <v>-736.5243055555555</v>
       </c>
@@ -3030,6 +3737,9 @@
       <c r="W49" s="0">
         <v>0.011436546954420515</v>
       </c>
+      <c r="X49" s="0">
+        <v>0.011371073406400414</v>
+      </c>
       <c r="Z49" s="0">
         <v>-860.3233333333336</v>
       </c>
@@ -3041,6 +3751,9 @@
       </c>
       <c r="AC49" s="0">
         <v>0.010686609449212604</v>
+      </c>
+      <c r="AD49" s="0">
+        <v>0.010722741677147929</v>
       </c>
     </row>
     <row r="50">
@@ -3056,6 +3769,9 @@
       <c r="E50" s="0">
         <v>0.01624864594617127</v>
       </c>
+      <c r="F50" s="0">
+        <v>0.015424872056138732</v>
+      </c>
       <c r="H50" s="0">
         <v>-284.7587013888888</v>
       </c>
@@ -3068,6 +3784,9 @@
       <c r="K50" s="0">
         <v>0.005353720523289723</v>
       </c>
+      <c r="L50" s="0">
+        <v>0.005332458891645307</v>
+      </c>
       <c r="N50" s="0">
         <v>-282.49371527777765</v>
       </c>
@@ -3080,6 +3799,9 @@
       <c r="Q50" s="0">
         <v>0.004499625031247395</v>
       </c>
+      <c r="R50" s="0">
+        <v>0.0044544251941666165</v>
+      </c>
       <c r="T50" s="0">
         <v>-708.105486111111</v>
       </c>
@@ -3092,6 +3814,9 @@
       <c r="W50" s="0">
         <v>0.012373968835930399</v>
       </c>
+      <c r="X50" s="0">
+        <v>0.012365638221630901</v>
+      </c>
       <c r="Z50" s="0">
         <v>-831.3216666666668</v>
       </c>
@@ -3103,6 +3828,9 @@
       </c>
       <c r="AC50" s="0">
         <v>0.013853012248979337</v>
+      </c>
+      <c r="AD50" s="0">
+        <v>0.013760821281948468</v>
       </c>
     </row>
     <row r="51">
@@ -3118,6 +3846,9 @@
       <c r="E51" s="0">
         <v>0.013498875093742266</v>
       </c>
+      <c r="F51" s="0">
+        <v>0.012822529524190385</v>
+      </c>
       <c r="H51" s="0">
         <v>-273.4053333333332</v>
       </c>
@@ -3130,6 +3861,9 @@
       <c r="K51" s="0">
         <v>0.004166319473377218</v>
       </c>
+      <c r="L51" s="0">
+        <v>0.0041457114948530785</v>
+      </c>
       <c r="N51" s="0">
         <v>-271.1556666666666</v>
       </c>
@@ -3142,6 +3876,9 @@
       <c r="Q51" s="0">
         <v>0.005041246562786433</v>
       </c>
+      <c r="R51" s="0">
+        <v>0.005084144127439422</v>
+      </c>
       <c r="T51" s="0">
         <v>-679.6866666666666</v>
       </c>
@@ -3154,6 +3891,9 @@
       <c r="W51" s="0">
         <v>0.010561619865011284</v>
       </c>
+      <c r="X51" s="0">
+        <v>0.010598194073691893</v>
+      </c>
       <c r="Z51" s="0">
         <v>-802.32</v>
       </c>
@@ -3165,6 +3905,9 @@
       </c>
       <c r="AC51" s="0">
         <v>0.013436380301641609</v>
+      </c>
+      <c r="AD51" s="0">
+        <v>0.013573358716606405</v>
       </c>
     </row>
     <row r="52">
@@ -3180,6 +3923,9 @@
       <c r="E52" s="0">
         <v>0.014769602533122332</v>
       </c>
+      <c r="F52" s="0">
+        <v>0.014027882389431305</v>
+      </c>
       <c r="H52" s="0">
         <v>-262.0519652777777</v>
       </c>
@@ -3192,6 +3938,9 @@
       <c r="K52" s="0">
         <v>0.005332888925922838</v>
       </c>
+      <c r="L52" s="0">
+        <v>0.005338566443940339</v>
+      </c>
       <c r="N52" s="0">
         <v>-259.81761805555544</v>
       </c>
@@ -3204,6 +3953,9 @@
       <c r="Q52" s="0">
         <v>0.004228814265477876</v>
       </c>
+      <c r="R52" s="0">
+        <v>0.004197766946882269</v>
+      </c>
       <c r="T52" s="0">
         <v>-651.267847222222</v>
       </c>
@@ -3216,6 +3968,9 @@
       <c r="W52" s="0">
         <v>0.01172818931755692</v>
       </c>
+      <c r="X52" s="0">
+        <v>0.011763363123494342</v>
+      </c>
       <c r="Z52" s="0">
         <v>-773.3183333333335</v>
       </c>
@@ -3227,6 +3982,9 @@
       </c>
       <c r="AC52" s="0">
         <v>0.01072827264394638</v>
+      </c>
+      <c r="AD52" s="0">
+        <v>0.010901184787101873</v>
       </c>
     </row>
     <row r="53">
@@ -3242,6 +4000,9 @@
       <c r="E53" s="0">
         <v>0.0149779185067912</v>
       </c>
+      <c r="F53" s="0">
+        <v>0.01425693073817707</v>
+      </c>
       <c r="H53" s="0">
         <v>-250.6985972222222</v>
       </c>
@@ -3254,6 +4015,9 @@
       <c r="K53" s="0">
         <v>0.004020498291809015</v>
       </c>
+      <c r="L53" s="0">
+        <v>0.004016563845355536</v>
+      </c>
       <c r="N53" s="0">
         <v>-248.47956944444428</v>
       </c>
@@ -3266,6 +4030,9 @@
       <c r="Q53" s="0">
         <v>0.005103741354887091</v>
       </c>
+      <c r="R53" s="0">
+        <v>0.005098846947408623</v>
+      </c>
       <c r="T53" s="0">
         <v>-622.8490277777777</v>
       </c>
@@ -3278,6 +4045,9 @@
       <c r="W53" s="0">
         <v>0.011436546954420514</v>
       </c>
+      <c r="X53" s="0">
+        <v>0.01161092664280679</v>
+      </c>
       <c r="Z53" s="0">
         <v>-744.316666666667</v>
       </c>
@@ -3289,6 +4059,9 @@
       </c>
       <c r="AC53" s="0">
         <v>0.011415715357053628</v>
+      </c>
+      <c r="AD53" s="0">
+        <v>0.011514011891062324</v>
       </c>
     </row>
     <row r="54">
@@ -3304,6 +4077,9 @@
       <c r="E54" s="0">
         <v>0.01508207649362563</v>
       </c>
+      <c r="F54" s="0">
+        <v>0.014351973574467923</v>
+      </c>
       <c r="H54" s="0">
         <v>-239.34522916666657</v>
       </c>
@@ -3316,6 +4092,9 @@
       <c r="K54" s="0">
         <v>0.005124572952253977</v>
       </c>
+      <c r="L54" s="0">
+        <v>0.0051147600501757285</v>
+      </c>
       <c r="N54" s="0">
         <v>-237.14152083333323</v>
       </c>
@@ -3328,6 +4107,9 @@
       <c r="Q54" s="0">
         <v>0.00452045662861428</v>
       </c>
+      <c r="R54" s="0">
+        <v>0.004554344172747083</v>
+      </c>
       <c r="T54" s="0">
         <v>-594.4302083333333</v>
       </c>
@@ -3340,6 +4122,9 @@
       <c r="W54" s="0">
         <v>0.01174902091492381</v>
       </c>
+      <c r="X54" s="0">
+        <v>0.011825477450138039</v>
+      </c>
       <c r="Z54" s="0">
         <v>-715.3150000000002</v>
       </c>
@@ -3351,6 +4136,9 @@
       </c>
       <c r="AC54" s="0">
         <v>0.01204066327806022</v>
+      </c>
+      <c r="AD54" s="0">
+        <v>0.01217958286116629</v>
       </c>
     </row>
     <row r="55">
@@ -3366,6 +4154,9 @@
       <c r="E55" s="0">
         <v>0.01670694108824276</v>
       </c>
+      <c r="F55" s="0">
+        <v>0.015895381021960617</v>
+      </c>
       <c r="H55" s="0">
         <v>-227.99186111111106</v>
       </c>
@@ -3378,6 +4169,9 @@
       <c r="K55" s="0">
         <v>0.0045829514207149395</v>
       </c>
+      <c r="L55" s="0">
+        <v>0.004600645030518483</v>
+      </c>
       <c r="N55" s="0">
         <v>-225.80347222222207</v>
       </c>
@@ -3390,6 +4184,9 @@
       <c r="Q55" s="0">
         <v>0.004687109407549369</v>
       </c>
+      <c r="R55" s="0">
+        <v>0.0046332811521914204</v>
+      </c>
       <c r="T55" s="0">
         <v>-566.0113888888887</v>
       </c>
@@ -3402,6 +4199,9 @@
       <c r="W55" s="0">
         <v>0.012290642446462857</v>
       </c>
+      <c r="X55" s="0">
+        <v>0.012353311034221492</v>
+      </c>
       <c r="Z55" s="0">
         <v>-686.3133333333334</v>
       </c>
@@ -3413,6 +4213,9 @@
       </c>
       <c r="AC55" s="0">
         <v>0.01295725356220322</v>
+      </c>
+      <c r="AD55" s="0">
+        <v>0.013134740936417956</v>
       </c>
     </row>
     <row r="56">
@@ -3428,6 +4231,9 @@
       <c r="E56" s="0">
         <v>0.015561203233064012</v>
       </c>
+      <c r="F56" s="0">
+        <v>0.014822917991965702</v>
+      </c>
       <c r="H56" s="0">
         <v>-216.63849305555544</v>
       </c>
@@ -3440,6 +4246,9 @@
       <c r="K56" s="0">
         <v>0.0047496041996500276</v>
       </c>
+      <c r="L56" s="0">
+        <v>0.004749152353701588</v>
+      </c>
       <c r="N56" s="0">
         <v>-214.46542361111102</v>
       </c>
@@ -3452,6 +4261,9 @@
       <c r="Q56" s="0">
         <v>0.004770435797016914</v>
       </c>
+      <c r="R56" s="0">
+        <v>0.004783994128383426</v>
+      </c>
       <c r="T56" s="0">
         <v>-537.5925694444444</v>
       </c>
@@ -3464,6 +4276,9 @@
       <c r="W56" s="0">
         <v>0.011978168485959565</v>
       </c>
+      <c r="X56" s="0">
+        <v>0.012077489211310738</v>
+      </c>
       <c r="Z56" s="0">
         <v>-657.3116666666668</v>
       </c>
@@ -3475,6 +4290,9 @@
       </c>
       <c r="AC56" s="0">
         <v>0.012269810849095971</v>
+      </c>
+      <c r="AD56" s="0">
+        <v>0.012413913248967751</v>
       </c>
     </row>
     <row r="57">
@@ -3490,6 +4308,9 @@
       <c r="E57" s="0">
         <v>0.015311224064661377</v>
       </c>
+      <c r="F57" s="0">
+        <v>0.014596677602638821</v>
+      </c>
       <c r="H57" s="0">
         <v>-205.28512499999994</v>
       </c>
@@ -3502,6 +4323,9 @@
       <c r="K57" s="0">
         <v>0.004707941004916256</v>
       </c>
+      <c r="L57" s="0">
+        <v>0.004705878661276789</v>
+      </c>
       <c r="N57" s="0">
         <v>-203.12737499999986</v>
       </c>
@@ -3514,6 +4338,9 @@
       <c r="Q57" s="0">
         <v>0.0043329722523123065</v>
       </c>
+      <c r="R57" s="0">
+        <v>0.004318641585514391</v>
+      </c>
       <c r="T57" s="0">
         <v>-509.1737499999998</v>
       </c>
@@ -3526,6 +4353,9 @@
       <c r="W57" s="0">
         <v>0.013415548704274721</v>
       </c>
+      <c r="X57" s="0">
+        <v>0.013488868695496089</v>
+      </c>
       <c r="Z57" s="0">
         <v>-628.3100000000003</v>
       </c>
@@ -3537,6 +4367,9 @@
       </c>
       <c r="AC57" s="0">
         <v>0.0149779185067912</v>
+      </c>
+      <c r="AD57" s="0">
+        <v>0.01513155846460026</v>
       </c>
     </row>
     <row r="58">
@@ -3552,6 +4385,9 @@
       <c r="E58" s="0">
         <v>0.015686192817265337</v>
       </c>
+      <c r="F58" s="0">
+        <v>0.014957698928287948</v>
+      </c>
       <c r="H58" s="0">
         <v>-193.93175694444432</v>
       </c>
@@ -3564,6 +4400,9 @@
       <c r="K58" s="0">
         <v>0.004499625031247395</v>
       </c>
+      <c r="L58" s="0">
+        <v>0.004496898494965539</v>
+      </c>
       <c r="N58" s="0">
         <v>-191.7893263888888</v>
       </c>
@@ -3576,6 +4415,9 @@
       <c r="Q58" s="0">
         <v>0.004957920173318888</v>
       </c>
+      <c r="R58" s="0">
+        <v>0.004961947783731596</v>
+      </c>
       <c r="T58" s="0">
         <v>-480.75493055555546</v>
       </c>
@@ -3588,6 +4430,9 @@
       <c r="W58" s="0">
         <v>0.011874010499125127</v>
       </c>
+      <c r="X58" s="0">
+        <v>0.011937963605880437</v>
+      </c>
       <c r="Z58" s="0">
         <v>-599.3083333333335</v>
       </c>
@@ -3599,6 +4444,9 @@
       </c>
       <c r="AC58" s="0">
         <v>0.014957086909424317</v>
+      </c>
+      <c r="AD58" s="0">
+        <v>0.015163544240301937</v>
       </c>
     </row>
     <row r="59">
@@ -3614,6 +4462,9 @@
       <c r="E59" s="0">
         <v>0.013603033080576702</v>
       </c>
+      <c r="F59" s="0">
+        <v>0.012995371863362219</v>
+      </c>
       <c r="H59" s="0">
         <v>-182.5783888888888</v>
       </c>
@@ -3626,6 +4477,9 @@
       <c r="K59" s="0">
         <v>0.004478793433880509</v>
       </c>
+      <c r="L59" s="0">
+        <v>0.004480545350999068</v>
+      </c>
       <c r="N59" s="0">
         <v>-180.45127777777765</v>
       </c>
@@ -3638,6 +4492,9 @@
       <c r="Q59" s="0">
         <v>0.004562119823348054</v>
       </c>
+      <c r="R59" s="0">
+        <v>0.004573818984374801</v>
+      </c>
       <c r="T59" s="0">
         <v>-452.3361111111111</v>
       </c>
@@ -3650,6 +4507,9 @@
       <c r="W59" s="0">
         <v>0.012019831680693331</v>
       </c>
+      <c r="X59" s="0">
+        <v>0.012040308917581382</v>
+      </c>
       <c r="Z59" s="0">
         <v>-570.3066666666667</v>
       </c>
@@ -3661,6 +4521,9 @@
       </c>
       <c r="AC59" s="0">
         <v>0.01591534038830109</v>
+      </c>
+      <c r="AD59" s="0">
+        <v>0.016202359223981624</v>
       </c>
     </row>
     <row r="60">
@@ -3676,6 +4539,9 @@
       <c r="E60" s="0">
         <v>0.01591534038830109</v>
       </c>
+      <c r="F60" s="0">
+        <v>0.015192815143345468</v>
+      </c>
       <c r="H60" s="0">
         <v>-171.2250208333333</v>
       </c>
@@ -3688,6 +4554,9 @@
       <c r="K60" s="0">
         <v>0.004707941004916256</v>
       </c>
+      <c r="L60" s="0">
+        <v>0.004665406222991908</v>
+      </c>
       <c r="N60" s="0">
         <v>-169.11322916666649</v>
       </c>
@@ -3700,6 +4569,9 @@
       <c r="Q60" s="0">
         <v>0.004582951420714939</v>
       </c>
+      <c r="R60" s="0">
+        <v>0.004582578608792057</v>
+      </c>
       <c r="T60" s="0">
         <v>-423.91729166666653</v>
       </c>
@@ -3712,6 +4584,9 @@
       <c r="W60" s="0">
         <v>0.012853095575368787</v>
       </c>
+      <c r="X60" s="0">
+        <v>0.012820561199809394</v>
+      </c>
       <c r="Z60" s="0">
         <v>-541.3050000000002</v>
       </c>
@@ -3723,6 +4598,9 @@
       </c>
       <c r="AC60" s="0">
         <v>0.015311224064661386</v>
+      </c>
+      <c r="AD60" s="0">
+        <v>0.01554833421712287</v>
       </c>
     </row>
     <row r="61">
@@ -3738,6 +4616,9 @@
       <c r="E61" s="0">
         <v>0.01683193067244408</v>
       </c>
+      <c r="F61" s="0">
+        <v>0.01608792038267488</v>
+      </c>
       <c r="H61" s="0">
         <v>-159.87165277777768</v>
       </c>
@@ -3750,6 +4631,9 @@
       <c r="K61" s="0">
         <v>0.004874593783851344</v>
       </c>
+      <c r="L61" s="0">
+        <v>0.0049157052569562655</v>
+      </c>
       <c r="N61" s="0">
         <v>-157.77518055555544</v>
       </c>
@@ -3762,6 +4646,9 @@
       <c r="Q61" s="0">
         <v>0.0043329722523123065</v>
       </c>
+      <c r="R61" s="0">
+        <v>0.004334198871961687</v>
+      </c>
       <c r="T61" s="0">
         <v>-395.4984722222222</v>
       </c>
@@ -3774,6 +4661,9 @@
       <c r="W61" s="0">
         <v>0.012894758770102563</v>
       </c>
+      <c r="X61" s="0">
+        <v>0.013043882896386715</v>
+      </c>
       <c r="Z61" s="0">
         <v>-512.3033333333336</v>
       </c>
@@ -3785,6 +4675,9 @@
       </c>
       <c r="AC61" s="0">
         <v>0.01676943588034343</v>
+      </c>
+      <c r="AD61" s="0">
+        <v>0.016948823272950674</v>
       </c>
     </row>
     <row r="62">
@@ -3800,6 +4693,9 @@
       <c r="E62" s="0">
         <v>0.01733188900924935</v>
       </c>
+      <c r="F62" s="0">
+        <v>0.01656932333537609</v>
+      </c>
       <c r="H62" s="0">
         <v>-148.51828472222218</v>
       </c>
@@ -3812,6 +4708,9 @@
       <c r="K62" s="0">
         <v>0.004353803849679192</v>
       </c>
+      <c r="L62" s="0">
+        <v>0.004345676848911035</v>
+      </c>
       <c r="N62" s="0">
         <v>-146.43713194444427</v>
       </c>
@@ -3824,6 +4723,9 @@
       <c r="Q62" s="0">
         <v>0.004687109407549369</v>
       </c>
+      <c r="R62" s="0">
+        <v>0.004691480829099472</v>
+      </c>
       <c r="T62" s="0">
         <v>-367.0796527777776</v>
       </c>
@@ -3836,6 +4738,9 @@
       <c r="W62" s="0">
         <v>0.013144737938505199</v>
       </c>
+      <c r="X62" s="0">
+        <v>0.013192434563824327</v>
+      </c>
       <c r="Z62" s="0">
         <v>-483.30166666666685</v>
       </c>
@@ -3847,6 +4752,9 @@
       </c>
       <c r="AC62" s="0">
         <v>0.015623698025164678</v>
+      </c>
+      <c r="AD62" s="0">
+        <v>0.01570416498041634</v>
       </c>
     </row>
     <row r="63">
@@ -3862,6 +4770,9 @@
       <c r="E63" s="0">
         <v>0.016331972335638805</v>
       </c>
+      <c r="F63" s="0">
+        <v>0.015609936005214597</v>
+      </c>
       <c r="H63" s="0">
         <v>-137.16491666666656</v>
       </c>
@@ -3874,6 +4785,9 @@
       <c r="K63" s="0">
         <v>0.0048329305891175725</v>
       </c>
+      <c r="L63" s="0">
+        <v>0.0048388653492989694</v>
+      </c>
       <c r="N63" s="0">
         <v>-135.09908333333323</v>
       </c>
@@ -3886,6 +4800,9 @@
       <c r="Q63" s="0">
         <v>0.004478793433880509</v>
       </c>
+      <c r="R63" s="0">
+        <v>0.00447022847960308</v>
+      </c>
       <c r="T63" s="0">
         <v>-338.66083333333324</v>
       </c>
@@ -3898,6 +4815,9 @@
       <c r="W63" s="0">
         <v>0.012936421964836338</v>
       </c>
+      <c r="X63" s="0">
+        <v>0.012956175507645776</v>
+      </c>
       <c r="Z63" s="0">
         <v>-454.30000000000007</v>
       </c>
@@ -3909,6 +4829,9 @@
       </c>
       <c r="AC63" s="0">
         <v>0.01470710774102168</v>
+      </c>
+      <c r="AD63" s="0">
+        <v>0.014788837643061735</v>
       </c>
     </row>
     <row r="64">
@@ -3924,6 +4847,9 @@
       <c r="E64" s="0">
         <v>0.015186234480460062</v>
       </c>
+      <c r="F64" s="0">
+        <v>0.014579421810166098</v>
+      </c>
       <c r="H64" s="0">
         <v>-125.81154861111105</v>
       </c>
@@ -3936,6 +4862,9 @@
       <c r="K64" s="0">
         <v>0.004582951420714939</v>
       </c>
+      <c r="L64" s="0">
+        <v>0.004581737008609804</v>
+      </c>
       <c r="N64" s="0">
         <v>-123.76103472222206</v>
       </c>
@@ -3948,6 +4877,9 @@
       <c r="Q64" s="0">
         <v>0.004124656278643445</v>
       </c>
+      <c r="R64" s="0">
+        <v>0.004179241198686536</v>
+      </c>
       <c r="T64" s="0">
         <v>-310.2420138888889</v>
       </c>
@@ -3960,6 +4892,9 @@
       <c r="W64" s="0">
         <v>0.013436380301641607</v>
       </c>
+      <c r="X64" s="0">
+        <v>0.013376604039839214</v>
+      </c>
       <c r="Z64" s="0">
         <v>-425.2983333333335</v>
       </c>
@@ -3971,6 +4906,9 @@
       </c>
       <c r="AC64" s="0">
         <v>0.013019748354303884</v>
+      </c>
+      <c r="AD64" s="0">
+        <v>0.013146221895063486</v>
       </c>
     </row>
     <row r="65">
@@ -3986,6 +4924,9 @@
       <c r="E65" s="0">
         <v>0.014436296975252146</v>
       </c>
+      <c r="F65" s="0">
+        <v>0.013885375436370537</v>
+      </c>
       <c r="H65" s="0">
         <v>-114.45818055555543</v>
       </c>
@@ -3998,6 +4939,9 @@
       <c r="K65" s="0">
         <v>0.004374635447046079</v>
       </c>
+      <c r="L65" s="0">
+        <v>0.004374349119999635</v>
+      </c>
       <c r="N65" s="0">
         <v>-112.42298611111102</v>
       </c>
@@ -4010,6 +4954,9 @@
       <c r="Q65" s="0">
         <v>0.005041246562786433</v>
       </c>
+      <c r="R65" s="0">
+        <v>0.005005965651689618</v>
+      </c>
       <c r="T65" s="0">
         <v>-281.8231944444443</v>
       </c>
@@ -4022,6 +4969,9 @@
       <c r="W65" s="0">
         <v>0.012290642446462857</v>
       </c>
+      <c r="X65" s="0">
+        <v>0.012326597661353189</v>
+      </c>
       <c r="Z65" s="0">
         <v>-396.29666666666697</v>
       </c>
@@ -4033,6 +4983,9 @@
       </c>
       <c r="AC65" s="0">
         <v>0.01412382301474886</v>
+      </c>
+      <c r="AD65" s="0">
+        <v>0.014309753910123034</v>
       </c>
     </row>
     <row r="66">
@@ -4048,6 +5001,9 @@
       <c r="E66" s="0">
         <v>0.011999000083326447</v>
       </c>
+      <c r="F66" s="0">
+        <v>0.011548128283440744</v>
+      </c>
       <c r="H66" s="0">
         <v>-103.10481249999992</v>
       </c>
@@ -4060,6 +5016,9 @@
       <c r="K66" s="0">
         <v>0.004791267394383799</v>
       </c>
+      <c r="L66" s="0">
+        <v>0.004794660812494045</v>
+      </c>
       <c r="N66" s="0">
         <v>-101.08493749999985</v>
       </c>
@@ -4072,6 +5031,9 @@
       <c r="Q66" s="0">
         <v>0.004041329889175901</v>
       </c>
+      <c r="R66" s="0">
+        <v>0.0040378039261638205</v>
+      </c>
       <c r="T66" s="0">
         <v>-253.404375</v>
       </c>
@@ -4084,6 +5046,9 @@
       <c r="W66" s="0">
         <v>0.013894675443713107</v>
       </c>
+      <c r="X66" s="0">
+        <v>0.013878624524861721</v>
+      </c>
       <c r="Z66" s="0">
         <v>-367.2950000000002</v>
       </c>
@@ -4095,6 +5060,9 @@
       </c>
       <c r="AC66" s="0">
         <v>0.013394717106907837</v>
+      </c>
+      <c r="AD66" s="0">
+        <v>0.013585045215240612</v>
       </c>
     </row>
     <row r="67">
@@ -4110,6 +5078,9 @@
       <c r="E67" s="0">
         <v>0.010894925422881473</v>
       </c>
+      <c r="F67" s="0">
+        <v>0.01048636305157678</v>
+      </c>
       <c r="H67" s="0">
         <v>-91.7514444444443</v>
       </c>
@@ -4122,6 +5093,9 @@
       <c r="K67" s="0">
         <v>0.004353803849679192</v>
       </c>
+      <c r="L67" s="0">
+        <v>0.004350923601436594</v>
+      </c>
       <c r="N67" s="0">
         <v>-89.7468888888888</v>
       </c>
@@ -4134,6 +5108,9 @@
       <c r="Q67" s="0">
         <v>0.005124572952253977</v>
       </c>
+      <c r="R67" s="0">
+        <v>0.005117669150632279</v>
+      </c>
       <c r="T67" s="0">
         <v>-224.9855555555554</v>
       </c>
@@ -4146,6 +5123,9 @@
       <c r="W67" s="0">
         <v>0.013748854262144899</v>
       </c>
+      <c r="X67" s="0">
+        <v>0.013945196369136745</v>
+      </c>
       <c r="Z67" s="0">
         <v>-338.2933333333334</v>
       </c>
@@ -4157,6 +5137,9 @@
       </c>
       <c r="AC67" s="0">
         <v>0.012207316056995312</v>
+      </c>
+      <c r="AD67" s="0">
+        <v>0.01249291502327943</v>
       </c>
     </row>
     <row r="68">
@@ -4172,6 +5155,9 @@
       <c r="E68" s="0">
         <v>0.009520039996666974</v>
       </c>
+      <c r="F68" s="0">
+        <v>0.009195349893279341</v>
+      </c>
       <c r="H68" s="0">
         <v>-80.3980763888888</v>
       </c>
@@ -4184,6 +5170,9 @@
       <c r="K68" s="0">
         <v>0.004645446212815597</v>
       </c>
+      <c r="L68" s="0">
+        <v>0.004649068999467052</v>
+      </c>
       <c r="N68" s="0">
         <v>-78.40884027777764</v>
       </c>
@@ -4196,6 +5185,9 @@
       <c r="Q68" s="0">
         <v>0.004145487876010332</v>
       </c>
+      <c r="R68" s="0">
+        <v>0.004168041582525607</v>
+      </c>
       <c r="T68" s="0">
         <v>-196.56673611111106</v>
       </c>
@@ -4208,6 +5200,9 @@
       <c r="W68" s="0">
         <v>0.013540538288476038</v>
       </c>
+      <c r="X68" s="0">
+        <v>0.013668257656414431</v>
+      </c>
       <c r="Z68" s="0">
         <v>-309.29166666666686</v>
       </c>
@@ -4219,6 +5214,9 @@
       </c>
       <c r="AC68" s="0">
         <v>0.01289475877010256</v>
+      </c>
+      <c r="AD68" s="0">
+        <v>0.013101029325846121</v>
       </c>
     </row>
     <row r="69">
@@ -4234,6 +5232,9 @@
       <c r="E69" s="0">
         <v>0.011436546954420514</v>
       </c>
+      <c r="F69" s="0">
+        <v>0.01109445867551418</v>
+      </c>
       <c r="H69" s="0">
         <v>-69.04470833333329</v>
       </c>
@@ -4246,6 +5247,9 @@
       <c r="K69" s="0">
         <v>0.0044996250312473954</v>
       </c>
+      <c r="L69" s="0">
+        <v>0.004493348875042278</v>
+      </c>
       <c r="N69" s="0">
         <v>-67.07079166666648</v>
       </c>
@@ -4258,6 +5262,9 @@
       <c r="Q69" s="0">
         <v>0.004478793433880509</v>
       </c>
+      <c r="R69" s="0">
+        <v>0.004448951356157146</v>
+      </c>
       <c r="T69" s="0">
         <v>-168.1479166666667</v>
       </c>
@@ -4270,6 +5277,9 @@
       <c r="W69" s="0">
         <v>0.013790517456878674</v>
       </c>
+      <c r="X69" s="0">
+        <v>0.013901810731287443</v>
+      </c>
       <c r="Z69" s="0">
         <v>-280.2900000000003</v>
       </c>
@@ -4281,6 +5291,9 @@
       </c>
       <c r="AC69" s="0">
         <v>0.013373885509540944</v>
+      </c>
+      <c r="AD69" s="0">
+        <v>0.013572316505420328</v>
       </c>
     </row>
     <row r="70">
@@ -4296,6 +5309,9 @@
       <c r="E70" s="0">
         <v>0.010040829930839127</v>
       </c>
+      <c r="F70" s="0">
+        <v>0.0097584235475347</v>
+      </c>
       <c r="H70" s="0">
         <v>-57.69134027777768</v>
       </c>
@@ -4308,6 +5324,9 @@
       <c r="K70" s="0">
         <v>0.004603783018081825</v>
       </c>
+      <c r="L70" s="0">
+        <v>0.004614267275500502</v>
+      </c>
       <c r="N70" s="0">
         <v>-55.732743055555424</v>
       </c>
@@ -4320,6 +5339,9 @@
       <c r="Q70" s="0">
         <v>0.004687109407549369</v>
       </c>
+      <c r="R70" s="0">
+        <v>0.004717026518262949</v>
+      </c>
       <c r="T70" s="0">
         <v>-139.72909722222212</v>
       </c>
@@ -4332,6 +5354,9 @@
       <c r="W70" s="0">
         <v>0.014790434130489218</v>
       </c>
+      <c r="X70" s="0">
+        <v>0.014850514413544465</v>
+      </c>
       <c r="Z70" s="0">
         <v>-251.28833333333353</v>
       </c>
@@ -4343,6 +5368,9 @@
       </c>
       <c r="AC70" s="0">
         <v>0.012623948004333039</v>
+      </c>
+      <c r="AD70" s="0">
+        <v>0.012769566727600169</v>
       </c>
     </row>
     <row r="71">
@@ -4358,6 +5386,9 @@
       <c r="E71" s="0">
         <v>0.010040829930839127</v>
       </c>
+      <c r="F71" s="0">
+        <v>0.00980910740681973</v>
+      </c>
       <c r="H71" s="0">
         <v>-46.33797222222217</v>
       </c>
@@ -4370,6 +5401,9 @@
       <c r="K71" s="0">
         <v>0.00431214065494542</v>
       </c>
+      <c r="L71" s="0">
+        <v>0.0043064176457872656</v>
+      </c>
       <c r="N71" s="0">
         <v>-44.39469444444426</v>
       </c>
@@ -4382,6 +5416,9 @@
       <c r="Q71" s="0">
         <v>0.004395467044412965</v>
       </c>
+      <c r="R71" s="0">
+        <v>0.004389426424866097</v>
+      </c>
       <c r="T71" s="0">
         <v>-111.31027777777777</v>
       </c>
@@ -4394,6 +5431,9 @@
       <c r="W71" s="0">
         <v>0.013207232730605851</v>
       </c>
+      <c r="X71" s="0">
+        <v>0.013248649386121839</v>
+      </c>
       <c r="Z71" s="0">
         <v>-222.28666666666675</v>
       </c>
@@ -4405,6 +5445,9 @@
       </c>
       <c r="AC71" s="0">
         <v>0.012394800433297288</v>
+      </c>
+      <c r="AD71" s="0">
+        <v>0.012395170391959564</v>
       </c>
     </row>
     <row r="72">
@@ -4420,6 +5463,9 @@
       <c r="E72" s="0">
         <v>0.007999333388884262</v>
       </c>
+      <c r="F72" s="0">
+        <v>0.007820031825952504</v>
+      </c>
       <c r="H72" s="0">
         <v>-34.98460416666655</v>
       </c>
@@ -4432,6 +5478,9 @@
       <c r="K72" s="0">
         <v>0.004457961836513623</v>
       </c>
+      <c r="L72" s="0">
+        <v>0.004468021907356472</v>
+      </c>
       <c r="N72" s="0">
         <v>-33.056645833333214</v>
       </c>
@@ -4444,6 +5493,9 @@
       <c r="Q72" s="0">
         <v>0.004478793433880509</v>
       </c>
+      <c r="R72" s="0">
+        <v>0.004458244871418789</v>
+      </c>
       <c r="T72" s="0">
         <v>-82.89145833333319</v>
       </c>
@@ -4456,6 +5508,9 @@
       <c r="W72" s="0">
         <v>0.01658195150404145</v>
       </c>
+      <c r="X72" s="0">
+        <v>0.016718697945342715</v>
+      </c>
       <c r="Z72" s="0">
         <v>-193.2850000000002</v>
       </c>
@@ -4467,6 +5522,9 @@
       </c>
       <c r="AC72" s="0">
         <v>0.011853178901758245</v>
+      </c>
+      <c r="AD72" s="0">
+        <v>0.011766821198089587</v>
       </c>
     </row>
     <row r="73">
@@ -4482,6 +5540,9 @@
       <c r="E73" s="0">
         <v>0.009040913257228583</v>
       </c>
+      <c r="F73" s="0">
+        <v>0.008946504478931272</v>
+      </c>
       <c r="H73" s="0">
         <v>-23.631236111111043</v>
       </c>
@@ -4494,6 +5555,9 @@
       <c r="K73" s="0">
         <v>0.004228814265477876</v>
       </c>
+      <c r="L73" s="0">
+        <v>0.0041968256373572455</v>
+      </c>
       <c r="N73" s="0">
         <v>-21.71859722222205</v>
       </c>
@@ -4506,6 +5570,9 @@
       <c r="Q73" s="0">
         <v>0.004437130239146736</v>
       </c>
+      <c r="R73" s="0">
+        <v>0.0044995961581966015</v>
+      </c>
       <c r="T73" s="0">
         <v>-54.47263888888883</v>
       </c>
@@ -4518,6 +5585,9 @@
       <c r="W73" s="0">
         <v>0.016061161569869285</v>
       </c>
+      <c r="X73" s="0">
+        <v>0.016194139617143763</v>
+      </c>
       <c r="Z73" s="0">
         <v>-164.28333333333364</v>
       </c>
@@ -4529,6 +5599,9 @@
       </c>
       <c r="AC73" s="0">
         <v>0.011769852512290698</v>
+      </c>
+      <c r="AD73" s="0">
+        <v>0.011712913666914659</v>
       </c>
     </row>
     <row r="74">
@@ -4544,6 +5617,9 @@
       <c r="E74" s="0">
         <v>0.00922839763353056</v>
       </c>
+      <c r="F74" s="0">
+        <v>0.009150533525980978</v>
+      </c>
       <c r="H74" s="0">
         <v>-12.277868055555423</v>
       </c>
@@ -4556,6 +5632,9 @@
       <c r="K74" s="0">
         <v>0.004874593783851344</v>
       </c>
+      <c r="L74" s="0">
+        <v>0.004901756491338453</v>
+      </c>
       <c r="N74" s="0">
         <v>-10.380548611111003</v>
       </c>
@@ -4568,6 +5647,9 @@
       <c r="Q74" s="0">
         <v>0.0044996250312473954</v>
       </c>
+      <c r="R74" s="0">
+        <v>0.004464869194370139</v>
+      </c>
       <c r="T74" s="0">
         <v>-26.05381944444448</v>
       </c>
@@ -4580,6 +5662,9 @@
       <c r="W74" s="0">
         <v>0.016352803933005696</v>
       </c>
+      <c r="X74" s="0">
+        <v>0.016329075493122486</v>
+      </c>
       <c r="Z74" s="0">
         <v>-135.28166666666687</v>
       </c>
@@ -4591,6 +5676,9 @@
       </c>
       <c r="AC74" s="0">
         <v>0.012853095575368794</v>
+      </c>
+      <c r="AD74" s="0">
+        <v>0.012822626441679558</v>
       </c>
     </row>
     <row r="75">
@@ -4606,6 +5694,9 @@
       <c r="E75" s="0">
         <v>0.00881176568619283</v>
       </c>
+      <c r="F75" s="0">
+        <v>0.008795176834175595</v>
+      </c>
       <c r="H75" s="0">
         <v>-0.9244999999999166</v>
       </c>
@@ -4618,6 +5709,9 @@
       <c r="K75" s="0">
         <v>0.004145487876010332</v>
       </c>
+      <c r="L75" s="0">
+        <v>0.004144775395603319</v>
+      </c>
       <c r="N75" s="0">
         <v>0</v>
       </c>
@@ -4630,6 +5724,9 @@
       <c r="Q75" s="0">
         <v>0.003749687526039496</v>
       </c>
+      <c r="R75" s="0">
+        <v>0.003730140249770636</v>
+      </c>
       <c r="T75" s="0">
         <v>0</v>
       </c>
@@ -4642,6 +5739,9 @@
       <c r="W75" s="0">
         <v>0.01324889592533963</v>
       </c>
+      <c r="X75" s="0">
+        <v>0.013216623787811242</v>
+      </c>
       <c r="Z75" s="0">
         <v>-106.28000000000009</v>
       </c>
@@ -4653,6 +5753,9 @@
       </c>
       <c r="AC75" s="0">
         <v>0.0122281476543622</v>
+      </c>
+      <c r="AD75" s="0">
+        <v>0.012125300515759543</v>
       </c>
     </row>
     <row r="76">
@@ -4668,6 +5771,9 @@
       <c r="E76" s="0">
         <v>0.010457461878176859</v>
       </c>
+      <c r="F76" s="0">
+        <v>0.010496982460265142</v>
+      </c>
       <c r="H76" s="0">
         <v>0</v>
       </c>
@@ -4680,6 +5786,9 @@
       <c r="K76" s="0">
         <v>0.00033330555787017746</v>
       </c>
+      <c r="L76" s="0">
+        <v>0.0003197844466534011</v>
+      </c>
       <c r="N76" s="0">
         <v>11.351347222222223</v>
       </c>
@@ -4692,6 +5801,9 @@
       <c r="Q76" s="0">
         <v>0.004728772602283142</v>
       </c>
+      <c r="R76" s="0">
+        <v>0.004755250249469673</v>
+      </c>
       <c r="T76" s="0">
         <v>28.451666666666668</v>
       </c>
@@ -4704,6 +5816,9 @@
       <c r="W76" s="0">
         <v>0.015269560869927609</v>
       </c>
+      <c r="X76" s="0">
+        <v>0.015171351939074205</v>
+      </c>
       <c r="Z76" s="0">
         <v>-77.27833333333353</v>
       </c>
@@ -4715,6 +5830,9 @@
       </c>
       <c r="AC76" s="0">
         <v>0.011124072993917218</v>
+      </c>
+      <c r="AD76" s="0">
+        <v>0.01107982855431634</v>
       </c>
     </row>
     <row r="77">
@@ -4730,6 +5848,9 @@
       <c r="E77" s="0">
         <v>0.0078118490125822825</v>
       </c>
+      <c r="F77" s="0">
+        <v>0.00790877006264138</v>
+      </c>
       <c r="H77" s="0">
         <v>11.50025352112676</v>
       </c>
@@ -4742,6 +5863,9 @@
       <c r="K77" s="0">
         <v>0.0051662361469877495</v>
       </c>
+      <c r="L77" s="0">
+        <v>0.005171823574641966</v>
+      </c>
       <c r="N77" s="0">
         <v>22.702694444444447</v>
       </c>
@@ -4754,6 +5878,9 @@
       <c r="Q77" s="0">
         <v>0.0045829514207149395</v>
       </c>
+      <c r="R77" s="0">
+        <v>0.004569823067886797</v>
+      </c>
       <c r="T77" s="0">
         <v>56.903333333333336</v>
       </c>
@@ -4766,6 +5893,9 @@
       <c r="W77" s="0">
         <v>0.015915340388301086</v>
       </c>
+      <c r="X77" s="0">
+        <v>0.015859194133883335</v>
+      </c>
       <c r="Z77" s="0">
         <v>-48.27666666666698</v>
       </c>
@@ -4777,6 +5907,9 @@
       </c>
       <c r="AC77" s="0">
         <v>0.012207316056995309</v>
+      </c>
+      <c r="AD77" s="0">
+        <v>0.01206058580219852</v>
       </c>
     </row>
     <row r="78">
@@ -4792,6 +5925,9 @@
       <c r="E78" s="0">
         <v>0.007999333388884259</v>
       </c>
+      <c r="F78" s="0">
+        <v>0.00812774731172025</v>
+      </c>
       <c r="H78" s="0">
         <v>23.00050704225352</v>
       </c>
@@ -4804,6 +5940,9 @@
       <c r="K78" s="0">
         <v>0.00431214065494542</v>
       </c>
+      <c r="L78" s="0">
+        <v>0.004292574886797157</v>
+      </c>
       <c r="N78" s="0">
         <v>34.05404166666667</v>
       </c>
@@ -4816,6 +5955,9 @@
       <c r="Q78" s="0">
         <v>0.004145487876010332</v>
       </c>
+      <c r="R78" s="0">
+        <v>0.004160611975560771</v>
+      </c>
       <c r="T78" s="0">
         <v>85.355</v>
       </c>
@@ -4828,6 +5970,9 @@
       <c r="W78" s="0">
         <v>0.014019665027914428</v>
       </c>
+      <c r="X78" s="0">
+        <v>0.01403057777935137</v>
+      </c>
       <c r="Z78" s="0">
         <v>-19.275000000000432</v>
       </c>
@@ -4839,6 +5984,9 @@
       </c>
       <c r="AC78" s="0">
         <v>0.01276976918590124</v>
+      </c>
+      <c r="AD78" s="0">
+        <v>0.0127518188778247</v>
       </c>
     </row>
     <row r="79">
@@ -4854,6 +6002,9 @@
       <c r="E79" s="0">
         <v>0.009145071244063014</v>
       </c>
+      <c r="F79" s="0">
+        <v>0.009395589618369143</v>
+      </c>
       <c r="H79" s="0">
         <v>34.50076056338028</v>
       </c>
@@ -4866,6 +6017,9 @@
       <c r="K79" s="0">
         <v>0.0047496041996500276</v>
       </c>
+      <c r="L79" s="0">
+        <v>0.004737716517342044</v>
+      </c>
       <c r="N79" s="0">
         <v>45.40538888888889</v>
       </c>
@@ -4878,6 +6032,9 @@
       <c r="Q79" s="0">
         <v>0.004645446212815598</v>
       </c>
+      <c r="R79" s="0">
+        <v>0.0046457811841981835</v>
+      </c>
       <c r="T79" s="0">
         <v>113.80666666666667</v>
       </c>
@@ -4890,6 +6047,9 @@
       <c r="W79" s="0">
         <v>0.015019581701524974</v>
       </c>
+      <c r="X79" s="0">
+        <v>0.014962794480026713</v>
+      </c>
       <c r="Z79" s="0">
         <v>0</v>
       </c>
@@ -4901,6 +6061,9 @@
       </c>
       <c r="AC79" s="0">
         <v>0.00791600699941671</v>
+      </c>
+      <c r="AD79" s="0">
+        <v>0.007905969828759926</v>
       </c>
     </row>
     <row r="80">
@@ -4916,6 +6079,9 @@
       <c r="E80" s="0">
         <v>0.008540954920423303</v>
       </c>
+      <c r="F80" s="0">
+        <v>0.00884729565067377</v>
+      </c>
       <c r="H80" s="0">
         <v>46.00101408450704</v>
       </c>
@@ -4928,6 +6094,9 @@
       <c r="K80" s="0">
         <v>0.004416298641779851</v>
       </c>
+      <c r="L80" s="0">
+        <v>0.0044199722664063305</v>
+      </c>
       <c r="N80" s="0">
         <v>56.75673611111112</v>
       </c>
@@ -4940,6 +6109,9 @@
       <c r="Q80" s="0">
         <v>0.004437130239146736</v>
       </c>
+      <c r="R80" s="0">
+        <v>0.0044432341824251</v>
+      </c>
       <c r="T80" s="0">
         <v>142.25833333333333</v>
       </c>
@@ -4952,6 +6124,9 @@
       <c r="W80" s="0">
         <v>0.014352970585784611</v>
       </c>
+      <c r="X80" s="0">
+        <v>0.014422187103301528</v>
+      </c>
       <c r="Z80" s="0">
         <v>29.14470588235294</v>
       </c>
@@ -4963,6 +6138,9 @@
       </c>
       <c r="AC80" s="0">
         <v>0.013915507041079992</v>
+      </c>
+      <c r="AD80" s="0">
+        <v>0.013888718035210027</v>
       </c>
     </row>
     <row r="81">
@@ -4978,6 +6156,9 @@
       <c r="E81" s="0">
         <v>0.008936755270394147</v>
       </c>
+      <c r="F81" s="0">
+        <v>0.009319172685166932</v>
+      </c>
       <c r="H81" s="0">
         <v>57.5012676056338</v>
       </c>
@@ -4990,6 +6171,9 @@
       <c r="K81" s="0">
         <v>0.004707941004916255</v>
       </c>
+      <c r="L81" s="0">
+        <v>0.004712455850810548</v>
+      </c>
       <c r="N81" s="0">
         <v>68.10808333333334</v>
       </c>
@@ -5002,6 +6186,9 @@
       <c r="Q81" s="0">
         <v>0.004770435797016914</v>
       </c>
+      <c r="R81" s="0">
+        <v>0.0047522012961668395</v>
+      </c>
       <c r="T81" s="0">
         <v>170.70999999999998</v>
       </c>
@@ -5014,6 +6201,9 @@
       <c r="W81" s="0">
         <v>0.01489459211732366</v>
       </c>
+      <c r="X81" s="0">
+        <v>0.014912759475068971</v>
+      </c>
       <c r="Z81" s="0">
         <v>58.28941176470588</v>
       </c>
@@ -5025,6 +6215,9 @@
       </c>
       <c r="AC81" s="0">
         <v>0.016019498375135516</v>
+      </c>
+      <c r="AD81" s="0">
+        <v>0.015955886569093584</v>
       </c>
     </row>
     <row r="82">
@@ -5040,6 +6233,9 @@
       <c r="E82" s="0">
         <v>0.010040829930839127</v>
       </c>
+      <c r="F82" s="0">
+        <v>0.010483093772652023</v>
+      </c>
       <c r="H82" s="0">
         <v>69.00152112676057</v>
       </c>
@@ -5052,6 +6248,9 @@
       <c r="K82" s="0">
         <v>0.004374635447046079</v>
       </c>
+      <c r="L82" s="0">
+        <v>0.004359252405033397</v>
+      </c>
       <c r="N82" s="0">
         <v>79.45943055555557</v>
       </c>
@@ -5064,6 +6263,9 @@
       <c r="Q82" s="0">
         <v>0.004062161486542788</v>
       </c>
+      <c r="R82" s="0">
+        <v>0.004082841843353575</v>
+      </c>
       <c r="T82" s="0">
         <v>199.1616666666667</v>
       </c>
@@ -5076,6 +6278,9 @@
       <c r="W82" s="0">
         <v>0.01562369802516468</v>
       </c>
+      <c r="X82" s="0">
+        <v>0.015682198436110253</v>
+      </c>
       <c r="Z82" s="0">
         <v>87.43411764705883</v>
       </c>
@@ -5087,6 +6292,9 @@
       </c>
       <c r="AC82" s="0">
         <v>0.013707191067411126</v>
+      </c>
+      <c r="AD82" s="0">
+        <v>0.013624779915276245</v>
       </c>
     </row>
     <row r="83">
@@ -5102,6 +6310,9 @@
       <c r="E83" s="0">
         <v>0.008457628530955764</v>
       </c>
+      <c r="F83" s="0">
+        <v>0.00886428082790869</v>
+      </c>
       <c r="H83" s="0">
         <v>80.50177464788733</v>
       </c>
@@ -5114,6 +6325,9 @@
       <c r="K83" s="0">
         <v>0.0046662778101824835</v>
       </c>
+      <c r="L83" s="0">
+        <v>0.00466851133718258</v>
+      </c>
       <c r="N83" s="0">
         <v>90.81077777777779</v>
       </c>
@@ -5126,6 +6340,9 @@
       <c r="Q83" s="0">
         <v>0.004749604199650028</v>
       </c>
+      <c r="R83" s="0">
+        <v>0.004743578449275494</v>
+      </c>
       <c r="T83" s="0">
         <v>227.61333333333334</v>
       </c>
@@ -5138,6 +6355,9 @@
       <c r="W83" s="0">
         <v>0.013269727522706517</v>
       </c>
+      <c r="X83" s="0">
+        <v>0.013391054622958344</v>
+      </c>
       <c r="Z83" s="0">
         <v>116.57882352941176</v>
       </c>
@@ -5149,6 +6369,9 @@
       </c>
       <c r="AC83" s="0">
         <v>0.012582284809599264</v>
+      </c>
+      <c r="AD83" s="0">
+        <v>0.012556186090257543</v>
       </c>
     </row>
     <row r="84">
@@ -5164,6 +6387,9 @@
       <c r="E84" s="0">
         <v>0.010124156320306677</v>
       </c>
+      <c r="F84" s="0">
+        <v>0.010619766908042382</v>
+      </c>
       <c r="H84" s="0">
         <v>92.00202816901408</v>
       </c>
@@ -5176,6 +6402,9 @@
       <c r="K84" s="0">
         <v>0.004541288225981167</v>
       </c>
+      <c r="L84" s="0">
+        <v>0.004546212363998482</v>
+      </c>
       <c r="N84" s="0">
         <v>102.162125</v>
       </c>
@@ -5188,6 +6417,9 @@
       <c r="Q84" s="0">
         <v>0.004353803849679192</v>
       </c>
+      <c r="R84" s="0">
+        <v>0.004361756486823696</v>
+      </c>
       <c r="T84" s="0">
         <v>256.065</v>
       </c>
@@ -5200,6 +6432,9 @@
       <c r="W84" s="0">
         <v>0.012519790017498606</v>
       </c>
+      <c r="X84" s="0">
+        <v>0.012494863158273778</v>
+      </c>
       <c r="Z84" s="0">
         <v>145.7235294117647</v>
       </c>
@@ -5211,6 +6446,9 @@
       </c>
       <c r="AC84" s="0">
         <v>0.0137488542621449</v>
+      </c>
+      <c r="AD84" s="0">
+        <v>0.013643629559044496</v>
       </c>
     </row>
     <row r="85">
@@ -5226,6 +6464,9 @@
       <c r="E85" s="0">
         <v>0.009061744854595467</v>
       </c>
+      <c r="F85" s="0">
+        <v>0.009499597530961877</v>
+      </c>
       <c r="H85" s="0">
         <v>103.50228169014085</v>
       </c>
@@ -5238,6 +6479,9 @@
       <c r="K85" s="0">
         <v>0.004374635447046078</v>
       </c>
+      <c r="L85" s="0">
+        <v>0.004356847303200905</v>
+      </c>
       <c r="N85" s="0">
         <v>113.51347222222222</v>
       </c>
@@ -5250,6 +6494,9 @@
       <c r="Q85" s="0">
         <v>0.004707941004916256</v>
       </c>
+      <c r="R85" s="0">
+        <v>0.004685210071994257</v>
+      </c>
       <c r="T85" s="0">
         <v>284.51666666666665</v>
       </c>
@@ -5262,6 +6509,9 @@
       <c r="W85" s="0">
         <v>0.013665527872677358</v>
       </c>
+      <c r="X85" s="0">
+        <v>0.013693183385488469</v>
+      </c>
       <c r="Z85" s="0">
         <v>174.86823529411765</v>
       </c>
@@ -5273,6 +6523,9 @@
       </c>
       <c r="AC85" s="0">
         <v>0.012373968835930397</v>
+      </c>
+      <c r="AD85" s="0">
+        <v>0.01232958512756462</v>
       </c>
     </row>
     <row r="86">
@@ -5288,6 +6541,9 @@
       <c r="E86" s="0">
         <v>0.008395133738855103</v>
       </c>
+      <c r="F86" s="0">
+        <v>0.00889319387992283</v>
+      </c>
       <c r="H86" s="0">
         <v>115.00253521126761</v>
       </c>
@@ -5300,6 +6556,9 @@
       <c r="K86" s="0">
         <v>0.004895425381218231</v>
       </c>
+      <c r="L86" s="0">
+        <v>0.004912407700372129</v>
+      </c>
       <c r="N86" s="0">
         <v>124.86481944444446</v>
       </c>
@@ -5312,6 +6571,9 @@
       <c r="Q86" s="0">
         <v>0.004270477460211647</v>
       </c>
+      <c r="R86" s="0">
+        <v>0.004276876411550282</v>
+      </c>
       <c r="T86" s="0">
         <v>312.9683333333333</v>
       </c>
@@ -5324,6 +6586,9 @@
       <c r="W86" s="0">
         <v>0.012311474043829743</v>
       </c>
+      <c r="X86" s="0">
+        <v>0.012334914646213602</v>
+      </c>
       <c r="Z86" s="0">
         <v>204.0129411764706</v>
       </c>
@@ -5335,6 +6600,9 @@
       </c>
       <c r="AC86" s="0">
         <v>0.012103158070160875</v>
+      </c>
+      <c r="AD86" s="0">
+        <v>0.012104190617816717</v>
       </c>
     </row>
     <row r="87">
@@ -5350,6 +6618,9 @@
       <c r="E87" s="0">
         <v>0.009832513957170264</v>
       </c>
+      <c r="F87" s="0">
+        <v>0.01043373079297873</v>
+      </c>
       <c r="H87" s="0">
         <v>126.50278873239436</v>
       </c>
@@ -5362,6 +6633,9 @@
       <c r="K87" s="0">
         <v>0.0044162986417798505</v>
       </c>
+      <c r="L87" s="0">
+        <v>0.004397261277855966</v>
+      </c>
       <c r="N87" s="0">
         <v>136.21616666666668</v>
       </c>
@@ -5374,6 +6648,9 @@
       <c r="Q87" s="0">
         <v>0.0048329305891175725</v>
       </c>
+      <c r="R87" s="0">
+        <v>0.004845536362977328</v>
+      </c>
       <c r="T87" s="0">
         <v>341.42</v>
       </c>
@@ -5386,6 +6663,9 @@
       <c r="W87" s="0">
         <v>0.012623948004333039</v>
       </c>
+      <c r="X87" s="0">
+        <v>0.012586406350089315</v>
+      </c>
       <c r="Z87" s="0">
         <v>233.15764705882353</v>
       </c>
@@ -5397,6 +6677,9 @@
       </c>
       <c r="AC87" s="0">
         <v>0.014477960169985923</v>
+      </c>
+      <c r="AD87" s="0">
+        <v>0.014308246280656118</v>
       </c>
     </row>
     <row r="88">
@@ -5412,6 +6695,9 @@
       <c r="E88" s="0">
         <v>0.010228314307141106</v>
       </c>
+      <c r="F88" s="0">
+        <v>0.010860275684715794</v>
+      </c>
       <c r="H88" s="0">
         <v>138.00304225352113</v>
       </c>
@@ -5424,6 +6710,9 @@
       <c r="K88" s="0">
         <v>0.0046662778101824835</v>
       </c>
+      <c r="L88" s="0">
+        <v>0.004684921947139444</v>
+      </c>
       <c r="N88" s="0">
         <v>147.5675138888889</v>
       </c>
@@ -5436,6 +6725,9 @@
       <c r="Q88" s="0">
         <v>0.004145487876010331</v>
       </c>
+      <c r="R88" s="0">
+        <v>0.0041471837633316674</v>
+      </c>
       <c r="T88" s="0">
         <v>369.87166666666667</v>
       </c>
@@ -5448,6 +6740,9 @@
       <c r="W88" s="0">
         <v>0.011582368135988723</v>
       </c>
+      <c r="X88" s="0">
+        <v>0.011570272151679642</v>
+      </c>
       <c r="Z88" s="0">
         <v>262.3023529411765</v>
       </c>
@@ -5459,6 +6754,9 @@
       </c>
       <c r="AC88" s="0">
         <v>0.014873760519956765</v>
+      </c>
+      <c r="AD88" s="0">
+        <v>0.014880899381476275</v>
       </c>
     </row>
     <row r="89">
@@ -5474,6 +6772,9 @@
       <c r="E89" s="0">
         <v>0.007957670194150489</v>
       </c>
+      <c r="F89" s="0">
+        <v>0.008471244677338242</v>
+      </c>
       <c r="H89" s="0">
         <v>149.50329577464788</v>
       </c>
@@ -5486,6 +6787,9 @@
       <c r="K89" s="0">
         <v>0.004499625031247395</v>
       </c>
+      <c r="L89" s="0">
+        <v>0.004493552008335078</v>
+      </c>
       <c r="N89" s="0">
         <v>158.9188611111111</v>
       </c>
@@ -5498,6 +6802,9 @@
       <c r="Q89" s="0">
         <v>0.00489542538121823</v>
       </c>
+      <c r="R89" s="0">
+        <v>0.0048607896293989365</v>
+      </c>
       <c r="T89" s="0">
         <v>398.3233333333333</v>
       </c>
@@ -5510,6 +6817,9 @@
       <c r="W89" s="0">
         <v>0.014332138988417724</v>
       </c>
+      <c r="X89" s="0">
+        <v>0.014336707929468518</v>
+      </c>
       <c r="Z89" s="0">
         <v>291.4470588235294</v>
       </c>
@@ -5521,6 +6831,9 @@
       </c>
       <c r="AC89" s="0">
         <v>0.014790434130489217</v>
+      </c>
+      <c r="AD89" s="0">
+        <v>0.014856729890330383</v>
       </c>
     </row>
     <row r="90">
@@ -5536,6 +6849,9 @@
       <c r="E90" s="0">
         <v>0.008728439296725283</v>
       </c>
+      <c r="F90" s="0">
+        <v>0.009307156794180971</v>
+      </c>
       <c r="H90" s="0">
         <v>161.00354929577463</v>
       </c>
@@ -5548,6 +6864,9 @@
       <c r="K90" s="0">
         <v>0.004687109407549369</v>
       </c>
+      <c r="L90" s="0">
+        <v>0.00469435114165695</v>
+      </c>
       <c r="N90" s="0">
         <v>170.27020833333336</v>
       </c>
@@ -5560,6 +6879,9 @@
       <c r="Q90" s="0">
         <v>0.004520456628614281</v>
       </c>
+      <c r="R90" s="0">
+        <v>0.004546603542173278</v>
+      </c>
       <c r="T90" s="0">
         <v>426.77500000000003</v>
       </c>
@@ -5572,6 +6894,9 @@
       <c r="W90" s="0">
         <v>0.012561453212232381</v>
       </c>
+      <c r="X90" s="0">
+        <v>0.012651143355640198</v>
+      </c>
       <c r="Z90" s="0">
         <v>320.5917647058823</v>
       </c>
@@ -5583,6 +6908,9 @@
       </c>
       <c r="AC90" s="0">
         <v>0.014811265727856106</v>
+      </c>
+      <c r="AD90" s="0">
+        <v>0.01477841023590434</v>
       </c>
     </row>
     <row r="91">
@@ -5598,6 +6926,9 @@
       <c r="E91" s="0">
         <v>0.00979085076243649</v>
       </c>
+      <c r="F91" s="0">
+        <v>0.010410423828619514</v>
+      </c>
       <c r="H91" s="0">
         <v>172.50380281690138</v>
       </c>
@@ -5610,6 +6941,9 @@
       <c r="K91" s="0">
         <v>0.004562119823348053</v>
       </c>
+      <c r="L91" s="0">
+        <v>0.004541576891618826</v>
+      </c>
       <c r="N91" s="0">
         <v>181.62155555555557</v>
       </c>
@@ -5622,6 +6956,9 @@
       <c r="Q91" s="0">
         <v>0.004457961836513623</v>
       </c>
+      <c r="R91" s="0">
+        <v>0.004440805512092986</v>
+      </c>
       <c r="T91" s="0">
         <v>455.2266666666667</v>
       </c>
@@ -5634,6 +6971,9 @@
       <c r="W91" s="0">
         <v>0.013269727522706517</v>
       </c>
+      <c r="X91" s="0">
+        <v>0.013292208741733815</v>
+      </c>
       <c r="Z91" s="0">
         <v>349.73647058823525</v>
       </c>
@@ -5645,6 +6985,9 @@
       </c>
       <c r="AC91" s="0">
         <v>0.01576951920673288</v>
+      </c>
+      <c r="AD91" s="0">
+        <v>0.01565133297526159</v>
       </c>
     </row>
     <row r="92">
@@ -5660,6 +7003,9 @@
       <c r="E92" s="0">
         <v>0.008145154570452463</v>
       </c>
+      <c r="F92" s="0">
+        <v>0.00871364517578959</v>
+      </c>
       <c r="H92" s="0">
         <v>184.00405633802816</v>
       </c>
@@ -5672,6 +7018,9 @@
       <c r="K92" s="0">
         <v>0.004687109407549369</v>
       </c>
+      <c r="L92" s="0">
+        <v>0.004682502056893388</v>
+      </c>
       <c r="N92" s="0">
         <v>192.9729027777778</v>
       </c>
@@ -5684,6 +7033,9 @@
       <c r="Q92" s="0">
         <v>0.004978751770685775</v>
       </c>
+      <c r="R92" s="0">
+        <v>0.004994066655086248</v>
+      </c>
       <c r="T92" s="0">
         <v>483.67833333333334</v>
       </c>
@@ -5696,6 +7048,9 @@
       <c r="W92" s="0">
         <v>0.012873927172735675</v>
       </c>
+      <c r="X92" s="0">
+        <v>0.01292896875664163</v>
+      </c>
       <c r="Z92" s="0">
         <v>378.88117647058823</v>
       </c>
@@ -5707,6 +7062,9 @@
       </c>
       <c r="AC92" s="0">
         <v>0.014644612948921018</v>
+      </c>
+      <c r="AD92" s="0">
+        <v>0.014582678119388657</v>
       </c>
     </row>
     <row r="93">
@@ -5722,6 +7080,9 @@
       <c r="E93" s="0">
         <v>0.0074993750520789895</v>
       </c>
+      <c r="F93" s="0">
+        <v>0.008083515489095576</v>
+      </c>
       <c r="H93" s="0">
         <v>195.50430985915492</v>
       </c>
@@ -5734,6 +7095,9 @@
       <c r="K93" s="0">
         <v>0.004645446212815597</v>
       </c>
+      <c r="L93" s="0">
+        <v>0.0046445076602217245</v>
+      </c>
       <c r="N93" s="0">
         <v>204.32425</v>
       </c>
@@ -5746,6 +7110,9 @@
       <c r="Q93" s="0">
         <v>0.004062161486542787</v>
       </c>
+      <c r="R93" s="0">
+        <v>0.0040589969837451995</v>
+      </c>
       <c r="T93" s="0">
         <v>512.13</v>
       </c>
@@ -5758,6 +7125,9 @@
       <c r="W93" s="0">
         <v>0.012353137238563516</v>
       </c>
+      <c r="X93" s="0">
+        <v>0.012391785838069318</v>
+      </c>
       <c r="Z93" s="0">
         <v>408.02588235294115</v>
       </c>
@@ -5769,6 +7139,9 @@
       </c>
       <c r="AC93" s="0">
         <v>0.012415632030664177</v>
+      </c>
+      <c r="AD93" s="0">
+        <v>0.012504599998416889</v>
       </c>
     </row>
     <row r="94">
@@ -5784,6 +7157,9 @@
       <c r="E94" s="0">
         <v>0.007207732688942584</v>
       </c>
+      <c r="F94" s="0">
+        <v>0.007770531527365926</v>
+      </c>
       <c r="H94" s="0">
         <v>207.00456338028167</v>
       </c>
@@ -5796,6 +7172,9 @@
       <c r="K94" s="0">
         <v>0.004874593783851344</v>
       </c>
+      <c r="L94" s="0">
+        <v>0.00489609295119799</v>
+      </c>
       <c r="N94" s="0">
         <v>215.67559722222222</v>
       </c>
@@ -5808,6 +7187,9 @@
       <c r="Q94" s="0">
         <v>0.0049162569785851165</v>
       </c>
+      <c r="R94" s="0">
+        <v>0.0049385006417974366</v>
+      </c>
       <c r="T94" s="0">
         <v>540.5816666666667</v>
       </c>
@@ -5820,6 +7202,9 @@
       <c r="W94" s="0">
         <v>0.012082326472793994</v>
       </c>
+      <c r="X94" s="0">
+        <v>0.012141815694511176</v>
+      </c>
       <c r="Z94" s="0">
         <v>437.1705882352941</v>
       </c>
@@ -5831,6 +7216,9 @@
       </c>
       <c r="AC94" s="0">
         <v>0.014790434130489223</v>
+      </c>
+      <c r="AD94" s="0">
+        <v>0.014950266360055942</v>
       </c>
     </row>
     <row r="95">
@@ -5846,6 +7234,9 @@
       <c r="E95" s="0">
         <v>0.008165986167819352</v>
       </c>
+      <c r="F95" s="0">
+        <v>0.008803074653515175</v>
+      </c>
       <c r="H95" s="0">
         <v>218.50481690140845</v>
       </c>
@@ -5858,6 +7249,9 @@
       <c r="K95" s="0">
         <v>0.004937088575952002</v>
       </c>
+      <c r="L95" s="0">
+        <v>0.004938797830917805</v>
+      </c>
       <c r="N95" s="0">
         <v>227.02694444444447</v>
       </c>
@@ -5870,6 +7264,9 @@
       <c r="Q95" s="0">
         <v>0.00452045662861428</v>
       </c>
+      <c r="R95" s="0">
+        <v>0.004535767855543133</v>
+      </c>
       <c r="T95" s="0">
         <v>569.0333333333334</v>
       </c>
@@ -5882,6 +7279,9 @@
       <c r="W95" s="0">
         <v>0.011103241396550334</v>
       </c>
+      <c r="X95" s="0">
+        <v>0.010958547386586972</v>
+      </c>
       <c r="Z95" s="0">
         <v>466.31529411764706</v>
       </c>
@@ -5893,6 +7293,9 @@
       </c>
       <c r="AC95" s="0">
         <v>0.013061411549037652</v>
+      </c>
+      <c r="AD95" s="0">
+        <v>0.01312830583528747</v>
       </c>
     </row>
     <row r="96">
@@ -5908,6 +7311,9 @@
       <c r="E96" s="0">
         <v>0.00745771185734522</v>
       </c>
+      <c r="F96" s="0">
+        <v>0.008068061681486018</v>
+      </c>
       <c r="H96" s="0">
         <v>230.0050704225352</v>
       </c>
@@ -5920,6 +7326,9 @@
       <c r="K96" s="0">
         <v>0.004457961836513622</v>
       </c>
+      <c r="L96" s="0">
+        <v>0.004466304311200298</v>
+      </c>
       <c r="N96" s="0">
         <v>238.37829166666668</v>
       </c>
@@ -5932,6 +7341,9 @@
       <c r="Q96" s="0">
         <v>0.004812098991750686</v>
       </c>
+      <c r="R96" s="0">
+        <v>0.004796803992365206</v>
+      </c>
       <c r="T96" s="0">
         <v>597.485</v>
       </c>
@@ -5944,6 +7356,9 @@
       <c r="W96" s="0">
         <v>0.01137405216231986</v>
       </c>
+      <c r="X96" s="0">
+        <v>0.011399582597314797</v>
+      </c>
       <c r="Z96" s="0">
         <v>495.46</v>
       </c>
@@ -5955,6 +7370,9 @@
       </c>
       <c r="AC96" s="0">
         <v>0.013019748354303882</v>
+      </c>
+      <c r="AD96" s="0">
+        <v>0.01307573946255527</v>
       </c>
     </row>
     <row r="97">
@@ -5970,6 +7388,9 @@
       <c r="E97" s="0">
         <v>0.008874260478293492</v>
       </c>
+      <c r="F97" s="0">
+        <v>0.009627088948491562</v>
+      </c>
       <c r="H97" s="0">
         <v>241.50532394366195</v>
       </c>
@@ -5982,6 +7403,9 @@
       <c r="K97" s="0">
         <v>0.004874593783851344</v>
       </c>
+      <c r="L97" s="0">
+        <v>0.004844112947360051</v>
+      </c>
       <c r="N97" s="0">
         <v>249.7296388888889</v>
       </c>
@@ -5994,6 +7418,9 @@
       <c r="Q97" s="0">
         <v>0.0047496041996500276</v>
       </c>
+      <c r="R97" s="0">
+        <v>0.0047556537784199365</v>
+      </c>
       <c r="T97" s="0">
         <v>625.9366666666667</v>
       </c>
@@ -6006,6 +7433,9 @@
       <c r="W97" s="0">
         <v>0.010624114657111947</v>
       </c>
+      <c r="X97" s="0">
+        <v>0.01059135221356781</v>
+      </c>
       <c r="Z97" s="0">
         <v>524.604705882353</v>
       </c>
@@ -6017,6 +7447,9 @@
       </c>
       <c r="AC97" s="0">
         <v>0.012769769185901248</v>
+      </c>
+      <c r="AD97" s="0">
+        <v>0.012662105475417212</v>
       </c>
     </row>
     <row r="98">
@@ -6032,6 +7465,9 @@
       <c r="E98" s="0">
         <v>0.008415965336221989</v>
       </c>
+      <c r="F98" s="0">
+        <v>0.009108872543115532</v>
+      </c>
       <c r="H98" s="0">
         <v>253.00557746478873</v>
       </c>
@@ -6044,6 +7480,9 @@
       <c r="K98" s="0">
         <v>0.0047912673943838</v>
       </c>
+      <c r="L98" s="0">
+        <v>0.004817398806565039</v>
+      </c>
       <c r="N98" s="0">
         <v>261.08098611111114</v>
       </c>
@@ -6056,6 +7495,9 @@
       <c r="Q98" s="0">
         <v>0.0044162986417798505</v>
       </c>
+      <c r="R98" s="0">
+        <v>0.004442249131456165</v>
+      </c>
       <c r="T98" s="0">
         <v>654.3883333333334</v>
       </c>
@@ -6068,6 +7510,9 @@
       <c r="W98" s="0">
         <v>0.012123989667527767</v>
       </c>
+      <c r="X98" s="0">
+        <v>0.01210001289561894</v>
+      </c>
       <c r="Z98" s="0">
         <v>553.7494117647059</v>
       </c>
@@ -6079,6 +7524,9 @@
       </c>
       <c r="AC98" s="0">
         <v>0.011186567786017879</v>
+      </c>
+      <c r="AD98" s="0">
+        <v>0.011162658700045121</v>
       </c>
     </row>
     <row r="99">
@@ -6094,6 +7542,9 @@
       <c r="E99" s="0">
         <v>0.008249312557286894</v>
       </c>
+      <c r="F99" s="0">
+        <v>0.008982572129489875</v>
+      </c>
       <c r="H99" s="0">
         <v>264.5058309859155</v>
       </c>
@@ -6106,6 +7557,9 @@
       <c r="K99" s="0">
         <v>0.004687109407549369</v>
       </c>
+      <c r="L99" s="0">
+        <v>0.004656665417601408</v>
+      </c>
       <c r="N99" s="0">
         <v>272.43233333333336</v>
       </c>
@@ -6118,6 +7572,9 @@
       <c r="Q99" s="0">
         <v>0.005103741354887091</v>
       </c>
+      <c r="R99" s="0">
+        <v>0.005068151319292372</v>
+      </c>
       <c r="T99" s="0">
         <v>682.84</v>
       </c>
@@ -6130,6 +7587,9 @@
       <c r="W99" s="0">
         <v>0.011124072993917218</v>
       </c>
+      <c r="X99" s="0">
+        <v>0.011210081773611172</v>
+      </c>
       <c r="Z99" s="0">
         <v>582.8941176470588</v>
       </c>
@@ -6141,6 +7601,9 @@
       </c>
       <c r="AC99" s="0">
         <v>0.01229064244646286</v>
+      </c>
+      <c r="AD99" s="0">
+        <v>0.012288333555147255</v>
       </c>
     </row>
     <row r="100">
@@ -6156,6 +7619,9 @@
       <c r="E100" s="0">
         <v>0.007749354220481627</v>
       </c>
+      <c r="F100" s="0">
+        <v>0.0084427495459779</v>
+      </c>
       <c r="H100" s="0">
         <v>276.00608450704226</v>
       </c>
@@ -6168,6 +7634,9 @@
       <c r="K100" s="0">
         <v>0.004916256978585116</v>
       </c>
+      <c r="L100" s="0">
+        <v>0.004954931440647325</v>
+      </c>
       <c r="N100" s="0">
         <v>283.7836805555556</v>
       </c>
@@ -6180,6 +7649,9 @@
       <c r="Q100" s="0">
         <v>0.004291309057578534</v>
       </c>
+      <c r="R100" s="0">
+        <v>0.004342346322108706</v>
+      </c>
       <c r="T100" s="0">
         <v>711.2916666666667</v>
       </c>
@@ -6192,6 +7664,9 @@
       <c r="W100" s="0">
         <v>0.011811515707024474</v>
       </c>
+      <c r="X100" s="0">
+        <v>0.011905107221882245</v>
+      </c>
       <c r="Z100" s="0">
         <v>612.0388235294117</v>
       </c>
@@ -6203,6 +7678,9 @@
       </c>
       <c r="AC100" s="0">
         <v>0.011644862928089382</v>
+      </c>
+      <c r="AD100" s="0">
+        <v>0.011762198004457776</v>
       </c>
     </row>
     <row r="101">
@@ -6218,6 +7696,9 @@
       <c r="E101" s="0">
         <v>0.008499291725689534</v>
       </c>
+      <c r="F101" s="0">
+        <v>0.009291648096579442</v>
+      </c>
       <c r="H101" s="0">
         <v>287.506338028169</v>
       </c>
@@ -6230,6 +7711,9 @@
       <c r="K101" s="0">
         <v>0.0047912673943838</v>
       </c>
+      <c r="L101" s="0">
+        <v>0.004739323963452856</v>
+      </c>
       <c r="N101" s="0">
         <v>295.1350277777778</v>
       </c>
@@ -6242,6 +7726,9 @@
       <c r="Q101" s="0">
         <v>0.005353720523289724</v>
       </c>
+      <c r="R101" s="0">
+        <v>0.005309909035133284</v>
+      </c>
       <c r="T101" s="0">
         <v>739.7433333333335</v>
       </c>
@@ -6254,6 +7741,9 @@
       <c r="W101" s="0">
         <v>0.009582534788767628</v>
       </c>
+      <c r="X101" s="0">
+        <v>0.009628186531756617</v>
+      </c>
       <c r="Z101" s="0">
         <v>641.1835294117647</v>
       </c>
@@ -6265,6 +7755,9 @@
       </c>
       <c r="AC101" s="0">
         <v>0.01060328305974506</v>
+      </c>
+      <c r="AD101" s="0">
+        <v>0.010604919420766154</v>
       </c>
     </row>
     <row r="102">
@@ -6280,6 +7773,9 @@
       <c r="E102" s="0">
         <v>0.0075827014415465336</v>
       </c>
+      <c r="F102" s="0">
+        <v>0.008279512758298524</v>
+      </c>
       <c r="H102" s="0">
         <v>299.00659154929576</v>
       </c>
@@ -6292,6 +7788,9 @@
       <c r="K102" s="0">
         <v>0.0049162569785851165</v>
       </c>
+      <c r="L102" s="0">
+        <v>0.0049601778315340106</v>
+      </c>
       <c r="N102" s="0">
         <v>306.486375</v>
       </c>
@@ -6304,6 +7803,9 @@
       <c r="Q102" s="0">
         <v>0.004270477460211648</v>
       </c>
+      <c r="R102" s="0">
+        <v>0.0042870375442713585</v>
+      </c>
       <c r="T102" s="0">
         <v>768.195</v>
       </c>
@@ -6316,6 +7818,9 @@
       <c r="W102" s="0">
         <v>0.008686776101991511</v>
       </c>
+      <c r="X102" s="0">
+        <v>0.008813577544239502</v>
+      </c>
       <c r="Z102" s="0">
         <v>670.3282352941176</v>
       </c>
@@ -6327,6 +7832,9 @@
       </c>
       <c r="AC102" s="0">
         <v>0.010936588617615239</v>
+      </c>
+      <c r="AD102" s="0">
+        <v>0.011009126984705853</v>
       </c>
     </row>
     <row r="103">
@@ -6342,6 +7850,9 @@
       <c r="E103" s="0">
         <v>0.00637446879426714</v>
       </c>
+      <c r="F103" s="0">
+        <v>0.007001101042310411</v>
+      </c>
       <c r="H103" s="0">
         <v>310.5068450704225</v>
       </c>
@@ -6354,6 +7865,9 @@
       <c r="K103" s="0">
         <v>0.00489542538121823</v>
       </c>
+      <c r="L103" s="0">
+        <v>0.0048484662859994785</v>
+      </c>
       <c r="N103" s="0">
         <v>317.8377222222222</v>
       </c>
@@ -6366,6 +7880,9 @@
       <c r="Q103" s="0">
         <v>0.00489542538121823</v>
       </c>
+      <c r="R103" s="0">
+        <v>0.004910659616855758</v>
+      </c>
       <c r="T103" s="0">
         <v>796.6466666666668</v>
       </c>
@@ -6378,6 +7895,9 @@
       <c r="W103" s="0">
         <v>0.008145154570452466</v>
       </c>
+      <c r="X103" s="0">
+        <v>0.008175996364519376</v>
+      </c>
       <c r="Z103" s="0">
         <v>699.4729411764706</v>
       </c>
@@ -6389,6 +7909,9 @@
       </c>
       <c r="AC103" s="0">
         <v>0.010457461878176854</v>
+      </c>
+      <c r="AD103" s="0">
+        <v>0.010413290535750616</v>
       </c>
     </row>
     <row r="104">
@@ -6404,6 +7927,9 @@
       <c r="E104" s="0">
         <v>0.0066036163653028866</v>
       </c>
+      <c r="F104" s="0">
+        <v>0.0072511781906732155</v>
+      </c>
       <c r="H104" s="0">
         <v>322.00709859154927</v>
       </c>
@@ -6416,6 +7942,9 @@
       <c r="K104" s="0">
         <v>0.0047912673943838</v>
       </c>
+      <c r="L104" s="0">
+        <v>0.004828638675194384</v>
+      </c>
       <c r="N104" s="0">
         <v>329.1890694444445</v>
       </c>
@@ -6428,6 +7957,9 @@
       <c r="Q104" s="0">
         <v>0.00489542538121823</v>
       </c>
+      <c r="R104" s="0">
+        <v>0.004911262267562016</v>
+      </c>
       <c r="T104" s="0">
         <v>825.0983333333335</v>
       </c>
@@ -6440,6 +7972,9 @@
       <c r="W104" s="0">
         <v>0.008311807349387556</v>
       </c>
+      <c r="X104" s="0">
+        <v>0.008353906139337687</v>
+      </c>
       <c r="Z104" s="0">
         <v>728.6176470588235</v>
       </c>
@@ -6451,6 +7986,9 @@
       </c>
       <c r="AC104" s="0">
         <v>0.009728355970335834</v>
+      </c>
+      <c r="AD104" s="0">
+        <v>0.009741719794639149</v>
       </c>
     </row>
     <row r="105">
@@ -6466,6 +8004,9 @@
       <c r="E105" s="0">
         <v>0.005624531289059242</v>
       </c>
+      <c r="F105" s="0">
+        <v>0.006191631755865762</v>
+      </c>
       <c r="H105" s="0">
         <v>333.507352112676</v>
       </c>
@@ -6478,6 +8019,9 @@
       <c r="K105" s="0">
         <v>0.005457878510124154</v>
       </c>
+      <c r="L105" s="0">
+        <v>0.005406195029173655</v>
+      </c>
       <c r="N105" s="0">
         <v>340.5404166666667</v>
       </c>
@@ -6490,6 +8034,9 @@
       <c r="Q105" s="0">
         <v>0.004978751770685775</v>
       </c>
+      <c r="R105" s="0">
+        <v>0.004970700765046898</v>
+      </c>
       <c r="T105" s="0">
         <v>853.5500000000001</v>
       </c>
@@ -6502,6 +8049,9 @@
       <c r="W105" s="0">
         <v>0.008499291725689532</v>
       </c>
+      <c r="X105" s="0">
+        <v>0.008560624348042603</v>
+      </c>
       <c r="Z105" s="0">
         <v>757.7623529411765</v>
       </c>
@@ -6513,6 +8063,9 @@
       </c>
       <c r="AC105" s="0">
         <v>0.008374302141488215</v>
+      </c>
+      <c r="AD105" s="0">
+        <v>0.008355344034322643</v>
       </c>
     </row>
     <row r="106">
@@ -6528,6 +8081,9 @@
       <c r="E106" s="0">
         <v>0.006103658028497623</v>
       </c>
+      <c r="F106" s="0">
+        <v>0.006701652641369791</v>
+      </c>
       <c r="H106" s="0">
         <v>345.0076056338028</v>
       </c>
@@ -6540,6 +8096,9 @@
       <c r="K106" s="0">
         <v>0.004707941004916256</v>
       </c>
+      <c r="L106" s="0">
+        <v>0.004784296670540643</v>
+      </c>
       <c r="N106" s="0">
         <v>351.89176388888893</v>
       </c>
@@ -6552,6 +8111,9 @@
       <c r="Q106" s="0">
         <v>0.005332888925922838</v>
       </c>
+      <c r="R106" s="0">
+        <v>0.005338503366766127</v>
+      </c>
       <c r="T106" s="0">
         <v>882.0016666666668</v>
       </c>
@@ -6564,6 +8126,9 @@
       <c r="W106" s="0">
         <v>0.010686609449212604</v>
       </c>
+      <c r="X106" s="0">
+        <v>0.010839736708666886</v>
+      </c>
       <c r="Z106" s="0">
         <v>786.9070588235294</v>
       </c>
@@ -6575,6 +8140,9 @@
       </c>
       <c r="AC106" s="0">
         <v>0.008790934088825943</v>
+      </c>
+      <c r="AD106" s="0">
+        <v>0.00877860548728333</v>
       </c>
     </row>
     <row r="107">
@@ -6590,6 +8158,9 @@
       <c r="E107" s="0">
         <v>0.005603699691692357</v>
       </c>
+      <c r="F107" s="0">
+        <v>0.0061395751664586745</v>
+      </c>
       <c r="H107" s="0">
         <v>356.5078591549296</v>
       </c>
@@ -6602,6 +8173,9 @@
       <c r="K107" s="0">
         <v>0.005332888925922838</v>
       </c>
+      <c r="L107" s="0">
+        <v>0.005265813273292553</v>
+      </c>
       <c r="N107" s="0">
         <v>363.24311111111115</v>
       </c>
@@ -6614,6 +8188,9 @@
       <c r="Q107" s="0">
         <v>0.004624614615448711</v>
       </c>
+      <c r="R107" s="0">
+        <v>0.004648186002732357</v>
+      </c>
       <c r="T107" s="0">
         <v>910.4533333333334</v>
       </c>
@@ -6626,6 +8203,9 @@
       <c r="W107" s="0">
         <v>0.009645029580868283</v>
       </c>
+      <c r="X107" s="0">
+        <v>0.009816888101377553</v>
+      </c>
       <c r="Z107" s="0">
         <v>816.0517647058823</v>
       </c>
@@ -6637,6 +8217,9 @@
       </c>
       <c r="AC107" s="0">
         <v>0.008415965336221987</v>
+      </c>
+      <c r="AD107" s="0">
+        <v>0.00833418109261257</v>
       </c>
     </row>
     <row r="108">
@@ -6652,6 +8235,9 @@
       <c r="E108" s="0">
         <v>0.004395467044412964</v>
       </c>
+      <c r="F108" s="0">
+        <v>0.004877285262504792</v>
+      </c>
       <c r="H108" s="0">
         <v>368.0081126760563</v>
       </c>
@@ -6664,6 +8250,9 @@
       <c r="K108" s="0">
         <v>0.0046662778101824835</v>
       </c>
+      <c r="L108" s="0">
+        <v>0.004695388781911264</v>
+      </c>
       <c r="N108" s="0">
         <v>374.59445833333336</v>
       </c>
@@ -6676,6 +8265,9 @@
       <c r="Q108" s="0">
         <v>0.005082909757520205</v>
       </c>
+      <c r="R108" s="0">
+        <v>0.005024494233350757</v>
+      </c>
       <c r="T108" s="0">
         <v>938.9050000000001</v>
       </c>
@@ -6688,6 +8280,9 @@
       <c r="W108" s="0">
         <v>0.008957586867761033</v>
       </c>
+      <c r="X108" s="0">
+        <v>0.009107094849572306</v>
+      </c>
       <c r="Z108" s="0">
         <v>845.1964705882352</v>
       </c>
@@ -6699,6 +8294,9 @@
       </c>
       <c r="AC108" s="0">
         <v>0.007499375052078989</v>
+      </c>
+      <c r="AD108" s="0">
+        <v>0.007446255772606283</v>
       </c>
     </row>
     <row r="109">
@@ -6714,6 +8312,9 @@
       <c r="E109" s="0">
         <v>0.004270477460211648</v>
       </c>
+      <c r="F109" s="0">
+        <v>0.004809211858107658</v>
+      </c>
       <c r="H109" s="0">
         <v>379.5083661971831</v>
       </c>
@@ -6726,6 +8327,9 @@
       <c r="K109" s="0">
         <v>0.005249562536455293</v>
       </c>
+      <c r="L109" s="0">
+        <v>0.005230617198898666</v>
+      </c>
       <c r="N109" s="0">
         <v>385.9458055555556</v>
       </c>
@@ -6738,6 +8342,9 @@
       <c r="Q109" s="0">
         <v>0.00489542538121823</v>
       </c>
+      <c r="R109" s="0">
+        <v>0.004934748384277724</v>
+      </c>
       <c r="T109" s="0">
         <v>967.3566666666668</v>
       </c>
@@ -6750,6 +8357,9 @@
       <c r="W109" s="0">
         <v>0.00829097575202067</v>
       </c>
+      <c r="X109" s="0">
+        <v>0.008351080719500283</v>
+      </c>
       <c r="Z109" s="0">
         <v>874.3411764705883</v>
       </c>
@@ -6761,6 +8371,9 @@
       </c>
       <c r="AC109" s="0">
         <v>0.007041079910007494</v>
+      </c>
+      <c r="AD109" s="0">
+        <v>0.006892675712439562</v>
       </c>
     </row>
     <row r="110">
@@ -6776,6 +8389,9 @@
       <c r="E110" s="0">
         <v>0.004228814265477876</v>
       </c>
+      <c r="F110" s="0">
+        <v>0.004729745352283347</v>
+      </c>
       <c r="H110" s="0">
         <v>391.00861971830983</v>
       </c>
@@ -6788,6 +8404,9 @@
       <c r="K110" s="0">
         <v>0.0052495625364552935</v>
       </c>
+      <c r="L110" s="0">
+        <v>0.005252042302251814</v>
+      </c>
       <c r="N110" s="0">
         <v>397.2971527777778</v>
       </c>
@@ -6800,6 +8419,9 @@
       <c r="Q110" s="0">
         <v>0.005228730939088407</v>
       </c>
+      <c r="R110" s="0">
+        <v>0.0051995643295178135</v>
+      </c>
       <c r="T110" s="0">
         <v>995.8083333333334</v>
       </c>
@@ -6812,6 +8434,9 @@
       <c r="W110" s="0">
         <v>0.006332805599533369</v>
       </c>
+      <c r="X110" s="0">
+        <v>0.0063453408218829945</v>
+      </c>
       <c r="Z110" s="0">
         <v>903.4858823529412</v>
       </c>
@@ -6823,6 +8448,9 @@
       </c>
       <c r="AC110" s="0">
         <v>0.0074368802599783295</v>
+      </c>
+      <c r="AD110" s="0">
+        <v>0.007357366802918355</v>
       </c>
     </row>
     <row r="111">
@@ -6838,6 +8466,9 @@
       <c r="E111" s="0">
         <v>0.00420798266811099</v>
       </c>
+      <c r="F111" s="0">
+        <v>0.004709487872032974</v>
+      </c>
       <c r="H111" s="0">
         <v>402.5088732394366</v>
       </c>
@@ -6850,6 +8481,9 @@
       <c r="K111" s="0">
         <v>0.005145404549620863</v>
       </c>
+      <c r="L111" s="0">
+        <v>0.005157281011387273</v>
+      </c>
       <c r="N111" s="0">
         <v>408.6485</v>
       </c>
@@ -6862,6 +8496,9 @@
       <c r="Q111" s="0">
         <v>0.005187067744354635</v>
       </c>
+      <c r="R111" s="0">
+        <v>0.005183332356500792</v>
+      </c>
       <c r="T111" s="0">
         <v>1024.26</v>
       </c>
@@ -6874,6 +8511,9 @@
       <c r="W111" s="0">
         <v>0.0072702274810432415</v>
       </c>
+      <c r="X111" s="0">
+        <v>0.007263089931248024</v>
+      </c>
       <c r="Z111" s="0">
         <v>932.6305882352941</v>
       </c>
@@ -6885,6 +8525,9 @@
       </c>
       <c r="AC111" s="0">
         <v>0.0068535955337055195</v>
+      </c>
+      <c r="AD111" s="0">
+        <v>0.006697018466679672</v>
       </c>
     </row>
     <row r="112">
@@ -6900,6 +8543,9 @@
       <c r="E112" s="0">
         <v>0.003666361136571952</v>
       </c>
+      <c r="F112" s="0">
+        <v>0.004114232619822846</v>
+      </c>
       <c r="H112" s="0">
         <v>414.00912676056333</v>
       </c>
@@ -6912,6 +8558,9 @@
       <c r="K112" s="0">
         <v>0.005166236146987749</v>
       </c>
+      <c r="L112" s="0">
+        <v>0.00512661412915294</v>
+      </c>
       <c r="N112" s="0">
         <v>419.99984722222223</v>
       </c>
@@ -6924,6 +8573,9 @@
       <c r="Q112" s="0">
         <v>0.005187067744354635</v>
       </c>
+      <c r="R112" s="0">
+        <v>0.005187003959102995</v>
+      </c>
       <c r="T112" s="0">
         <v>1052.7116666666666</v>
       </c>
@@ -6936,6 +8588,9 @@
       <c r="W112" s="0">
         <v>0.007374385467877672</v>
       </c>
+      <c r="X112" s="0">
+        <v>0.007304420910432552</v>
+      </c>
       <c r="Z112" s="0">
         <v>961.775294117647</v>
       </c>
@@ -6947,6 +8602,9 @@
       </c>
       <c r="AC112" s="0">
         <v>0.006416131989000913</v>
+      </c>
+      <c r="AD112" s="0">
+        <v>0.0063603856572847835</v>
       </c>
     </row>
     <row r="113">
@@ -6962,6 +8620,9 @@
       <c r="E113" s="0">
         <v>0.0039996666944421295</v>
       </c>
+      <c r="F113" s="0">
+        <v>0.0045035664805827096</v>
+      </c>
       <c r="H113" s="0">
         <v>425.50938028169014</v>
       </c>
@@ -6974,6 +8635,9 @@
       <c r="K113" s="0">
         <v>0.0056870260811599</v>
       </c>
+      <c r="L113" s="0">
+        <v>0.005729042143832794</v>
+      </c>
       <c r="N113" s="0">
         <v>431.3511944444445</v>
       </c>
@@ -6986,6 +8650,9 @@
       <c r="Q113" s="0">
         <v>0.005457878510124154</v>
       </c>
+      <c r="R113" s="0">
+        <v>0.005449445891427574</v>
+      </c>
       <c r="T113" s="0">
         <v>1081.1633333333334</v>
       </c>
@@ -6998,6 +8665,9 @@
       <c r="W113" s="0">
         <v>0.005937005249562533</v>
       </c>
+      <c r="X113" s="0">
+        <v>0.005848975399304393</v>
+      </c>
       <c r="Z113" s="0">
         <v>990.92</v>
       </c>
@@ -7009,6 +8679,9 @@
       </c>
       <c r="AC113" s="0">
         <v>0.006374468794267139</v>
+      </c>
+      <c r="AD113" s="0">
+        <v>0.006295510128066648</v>
       </c>
     </row>
     <row r="114">
@@ -7024,6 +8697,9 @@
       <c r="E114" s="0">
         <v>0.002937255228730939</v>
       </c>
+      <c r="F114" s="0">
+        <v>0.003282941812968798</v>
+      </c>
       <c r="H114" s="0">
         <v>437.0096338028169</v>
       </c>
@@ -7036,6 +8712,9 @@
       <c r="K114" s="0">
         <v>0.005499541704857926</v>
       </c>
+      <c r="L114" s="0">
+        <v>0.005463142093579226</v>
+      </c>
       <c r="N114" s="0">
         <v>442.7025416666667</v>
       </c>
@@ -7048,6 +8727,9 @@
       <c r="Q114" s="0">
         <v>0.004957920173318888</v>
       </c>
+      <c r="R114" s="0">
+        <v>0.004955971218772742</v>
+      </c>
       <c r="T114" s="0">
         <v>1109.615</v>
       </c>
@@ -7060,6 +8742,9 @@
       <c r="W114" s="0">
         <v>0.006561953170569115</v>
       </c>
+      <c r="X114" s="0">
+        <v>0.006449983433670107</v>
+      </c>
       <c r="Z114" s="0">
         <v>1020.0647058823529</v>
       </c>
@@ -7071,6 +8756,9 @@
       </c>
       <c r="AC114" s="0">
         <v>0.007041079910007495</v>
+      </c>
+      <c r="AD114" s="0">
+        <v>0.007078199902537459</v>
       </c>
     </row>
     <row r="115">
@@ -7086,6 +8774,9 @@
       <c r="E115" s="0">
         <v>0.003228897591867344</v>
       </c>
+      <c r="F115" s="0">
+        <v>0.0036340130194645877</v>
+      </c>
       <c r="H115" s="0">
         <v>448.50988732394364</v>
       </c>
@@ -7098,6 +8789,9 @@
       <c r="K115" s="0">
         <v>0.005541204899591699</v>
       </c>
+      <c r="L115" s="0">
+        <v>0.005578154171706271</v>
+      </c>
       <c r="N115" s="0">
         <v>454.05388888888893</v>
       </c>
@@ -7110,6 +8804,9 @@
       <c r="Q115" s="0">
         <v>0.005603699691692357</v>
       </c>
+      <c r="R115" s="0">
+        <v>0.005632870849417884</v>
+      </c>
       <c r="T115" s="0">
         <v>1138.0666666666666</v>
       </c>
@@ -7122,6 +8819,9 @@
       <c r="W115" s="0">
         <v>0.005957836846929421</v>
       </c>
+      <c r="X115" s="0">
+        <v>0.005832162760863019</v>
+      </c>
       <c r="Z115" s="0">
         <v>1049.209411764706</v>
       </c>
@@ -7133,6 +8833,9 @@
       </c>
       <c r="AC115" s="0">
         <v>0.0052703941338221785</v>
+      </c>
+      <c r="AD115" s="0">
+        <v>0.005140991431076028</v>
       </c>
     </row>
     <row r="116">
@@ -7148,6 +8851,9 @@
       <c r="E116" s="0">
         <v>0.002749770852428964</v>
       </c>
+      <c r="F116" s="0">
+        <v>0.003109431560912028</v>
+      </c>
       <c r="H116" s="0">
         <v>460.0101408450704</v>
       </c>
@@ -7160,6 +8866,9 @@
       <c r="K116" s="0">
         <v>0.005020414965419546</v>
       </c>
+      <c r="L116" s="0">
+        <v>0.004990628966671458</v>
+      </c>
       <c r="N116" s="0">
         <v>465.40523611111115</v>
       </c>
@@ -7172,6 +8881,9 @@
       <c r="Q116" s="0">
         <v>0.005291225731189065</v>
       </c>
+      <c r="R116" s="0">
+        <v>0.005281930495452783</v>
+      </c>
       <c r="T116" s="0">
         <v>1166.5183333333332</v>
       </c>
@@ -7184,6 +8896,9 @@
       <c r="W116" s="0">
         <v>0.004291309057578534</v>
       </c>
+      <c r="X116" s="0">
+        <v>0.004236554084342114</v>
+      </c>
       <c r="Z116" s="0">
         <v>1078.354117647059</v>
       </c>
@@ -7195,6 +8910,9 @@
       </c>
       <c r="AC116" s="0">
         <v>0.00452045662861428</v>
+      </c>
+      <c r="AD116" s="0">
+        <v>0.004395938041341559</v>
       </c>
     </row>
     <row r="117">
@@ -7210,6 +8928,9 @@
       <c r="E117" s="0">
         <v>0.0021248229314223812</v>
       </c>
+      <c r="F117" s="0">
+        <v>0.0024039907918628695</v>
+      </c>
       <c r="H117" s="0">
         <v>471.51039436619715</v>
       </c>
@@ -7222,6 +8943,9 @@
       <c r="K117" s="0">
         <v>0.005812015665361217</v>
       </c>
+      <c r="L117" s="0">
+        <v>0.005814883036380425</v>
+      </c>
       <c r="N117" s="0">
         <v>476.75658333333337</v>
       </c>
@@ -7234,6 +8958,9 @@
       <c r="Q117" s="0">
         <v>0.005457878510124154</v>
       </c>
+      <c r="R117" s="0">
+        <v>0.005470438052911613</v>
+      </c>
       <c r="T117" s="0">
         <v>1194.97</v>
       </c>
@@ -7246,6 +8973,9 @@
       <c r="W117" s="0">
         <v>0.004457961836513623</v>
       </c>
+      <c r="X117" s="0">
+        <v>0.004348738535391026</v>
+      </c>
       <c r="Z117" s="0">
         <v>1107.4988235294118</v>
       </c>
@@ -7257,6 +8987,9 @@
       </c>
       <c r="AC117" s="0">
         <v>0.003978835097075243</v>
+      </c>
+      <c r="AD117" s="0">
+        <v>0.003944636969585182</v>
       </c>
     </row>
     <row r="118">
@@ -7272,6 +9005,9 @@
       <c r="E118" s="0">
         <v>0.0020206649445879505</v>
       </c>
+      <c r="F118" s="0">
+        <v>0.0023226758058884044</v>
+      </c>
       <c r="H118" s="0">
         <v>483.0106478873239</v>
       </c>
@@ -7284,6 +9020,9 @@
       <c r="K118" s="0">
         <v>0.0059995000416631925</v>
       </c>
+      <c r="L118" s="0">
+        <v>0.005994497709745396</v>
+      </c>
       <c r="N118" s="0">
         <v>488.1079305555556</v>
       </c>
@@ -7296,6 +9035,9 @@
       <c r="Q118" s="0">
         <v>0.005728689275893673</v>
       </c>
+      <c r="R118" s="0">
+        <v>0.005717941721792514</v>
+      </c>
       <c r="T118" s="0">
         <v>1223.4216666666666</v>
       </c>
@@ -7308,6 +9050,9 @@
       <c r="W118" s="0">
         <v>0.004145487876010332</v>
       </c>
+      <c r="X118" s="0">
+        <v>0.004069247480363628</v>
+      </c>
       <c r="Z118" s="0">
         <v>1136.6435294117648</v>
       </c>
@@ -7319,6 +9064,9 @@
       </c>
       <c r="AC118" s="0">
         <v>0.0038330139155070405</v>
+      </c>
+      <c r="AD118" s="0">
+        <v>0.0037181191077079842</v>
       </c>
     </row>
     <row r="119">
@@ -7334,6 +9082,9 @@
       <c r="E119" s="0">
         <v>0.0017290225814515453</v>
       </c>
+      <c r="F119" s="0">
+        <v>0.0020015326975947865</v>
+      </c>
       <c r="H119" s="0">
         <v>494.5109014084507</v>
       </c>
@@ -7346,6 +9097,9 @@
       <c r="K119" s="0">
         <v>0.005332888925922837</v>
       </c>
+      <c r="L119" s="0">
+        <v>0.005330713306515227</v>
+      </c>
       <c r="N119" s="0">
         <v>499.4592777777778</v>
       </c>
@@ -7358,6 +9112,9 @@
       <c r="Q119" s="0">
         <v>0.005187067744354634</v>
       </c>
+      <c r="R119" s="0">
+        <v>0.005205624709420692</v>
+      </c>
       <c r="T119" s="0">
         <v>1251.8733333333332</v>
       </c>
@@ -7370,6 +9127,9 @@
       <c r="W119" s="0">
         <v>0.003687192733938838</v>
       </c>
+      <c r="X119" s="0">
+        <v>0.0036358841715943627</v>
+      </c>
       <c r="Z119" s="0">
         <v>1165.7882352941178</v>
       </c>
@@ -7381,6 +9141,9 @@
       </c>
       <c r="AC119" s="0">
         <v>0.0025622864761269894</v>
+      </c>
+      <c r="AD119" s="0">
+        <v>0.0025360302351277336</v>
       </c>
     </row>
     <row r="120">
@@ -7396,6 +9159,9 @@
       <c r="E120" s="0">
         <v>0.0018123489709190894</v>
       </c>
+      <c r="F120" s="0">
+        <v>0.0020915673613626376</v>
+      </c>
       <c r="H120" s="0">
         <v>506.01115492957746</v>
       </c>
@@ -7408,6 +9174,9 @@
       <c r="K120" s="0">
         <v>0.006020331639030078</v>
       </c>
+      <c r="L120" s="0">
+        <v>0.006065240939355113</v>
+      </c>
       <c r="N120" s="0">
         <v>510.8106250000001</v>
       </c>
@@ -7420,6 +9189,9 @@
       <c r="Q120" s="0">
         <v>0.005645362886426129</v>
       </c>
+      <c r="R120" s="0">
+        <v>0.0056379466816838565</v>
+      </c>
       <c r="T120" s="0">
         <v>1280.325</v>
       </c>
@@ -7432,6 +9204,9 @@
       <c r="W120" s="0">
         <v>0.0033955503708024324</v>
       </c>
+      <c r="X120" s="0">
+        <v>0.003352306965039807</v>
+      </c>
       <c r="Z120" s="0">
         <v>1194.9329411764706</v>
       </c>
@@ -7443,6 +9218,9 @@
       </c>
       <c r="AC120" s="0">
         <v>0.0026664444629614192</v>
+      </c>
+      <c r="AD120" s="0">
+        <v>0.00257986261021819</v>
       </c>
     </row>
     <row r="121">
@@ -7458,6 +9236,9 @@
       <c r="E121" s="0">
         <v>0.0014790434130489121</v>
       </c>
+      <c r="F121" s="0">
+        <v>0.001716499649894424</v>
+      </c>
       <c r="H121" s="0">
         <v>517.5114084507043</v>
       </c>
@@ -7470,6 +9251,9 @@
       <c r="K121" s="0">
         <v>0.006291142404799597</v>
       </c>
+      <c r="L121" s="0">
+        <v>0.0062577196181061445</v>
+      </c>
       <c r="N121" s="0">
         <v>522.1619722222223</v>
       </c>
@@ -7482,6 +9266,9 @@
       <c r="Q121" s="0">
         <v>0.006395300391634027</v>
       </c>
+      <c r="R121" s="0">
+        <v>0.006401032396390738</v>
+      </c>
       <c r="T121" s="0">
         <v>1308.7766666666666</v>
       </c>
@@ -7494,6 +9281,9 @@
       <c r="W121" s="0">
         <v>0.0037080243313057236</v>
       </c>
+      <c r="X121" s="0">
+        <v>0.003615764311459019</v>
+      </c>
       <c r="Z121" s="0">
         <v>1224.0776470588237</v>
       </c>
@@ -7505,6 +9295,9 @@
       </c>
       <c r="AC121" s="0">
         <v>0.003228897591867344</v>
+      </c>
+      <c r="AD121" s="0">
+        <v>0.0031793238080837596</v>
       </c>
     </row>
     <row r="122">
@@ -7520,6 +9313,9 @@
       <c r="E122" s="0">
         <v>0.0017706857761853171</v>
       </c>
+      <c r="F122" s="0">
+        <v>0.0020725637261009102</v>
+      </c>
       <c r="H122" s="0">
         <v>529.011661971831</v>
       </c>
@@ -7532,6 +9328,9 @@
       <c r="K122" s="0">
         <v>0.005666194483793015</v>
       </c>
+      <c r="L122" s="0">
+        <v>0.0056722574281647346</v>
+      </c>
       <c r="N122" s="0">
         <v>533.5133194444445</v>
       </c>
@@ -7544,6 +9343,9 @@
       <c r="Q122" s="0">
         <v>0.005666194483793015</v>
       </c>
+      <c r="R122" s="0">
+        <v>0.0056823317823735025</v>
+      </c>
       <c r="T122" s="0">
         <v>1337.2283333333332</v>
       </c>
@@ -7556,6 +9358,9 @@
       <c r="W122" s="0">
         <v>0.003187234397133572</v>
       </c>
+      <c r="X122" s="0">
+        <v>0.003134558162230292</v>
+      </c>
       <c r="Z122" s="0">
         <v>1253.2223529411765</v>
       </c>
@@ -7567,6 +9372,9 @@
       </c>
       <c r="AC122" s="0">
         <v>0.0026247812682276476</v>
+      </c>
+      <c r="AD122" s="0">
+        <v>0.0025345834046071143</v>
       </c>
     </row>
     <row r="123">
@@ -7582,6 +9390,9 @@
       <c r="E123" s="0">
         <v>0.001208232647279393</v>
       </c>
+      <c r="F123" s="0">
+        <v>0.0014141203288730302</v>
+      </c>
       <c r="H123" s="0">
         <v>540.5119154929578</v>
       </c>
@@ -7594,6 +9405,9 @@
       <c r="K123" s="0">
         <v>0.006478626781101572</v>
       </c>
+      <c r="L123" s="0">
+        <v>0.006468270643370717</v>
+      </c>
       <c r="N123" s="0">
         <v>544.8646666666667</v>
       </c>
@@ -7606,6 +9420,9 @@
       <c r="Q123" s="0">
         <v>0.00606199483376385</v>
       </c>
+      <c r="R123" s="0">
+        <v>0.006054925083462764</v>
+      </c>
       <c r="T123" s="0">
         <v>1365.68</v>
       </c>
@@ -7618,6 +9435,9 @@
       <c r="W123" s="0">
         <v>0.003333055578701774</v>
       </c>
+      <c r="X123" s="0">
+        <v>0.0032604700266731334</v>
+      </c>
       <c r="Z123" s="0">
         <v>1282.3670588235295</v>
       </c>
@@ -7629,6 +9449,9 @@
       </c>
       <c r="AC123" s="0">
         <v>0.0025206232813932165</v>
+      </c>
+      <c r="AD123" s="0">
+        <v>0.0024480962471639858</v>
       </c>
     </row>
     <row r="124">
@@ -7644,6 +9467,9 @@
       <c r="E124" s="0">
         <v>0.0010832430630780764</v>
       </c>
+      <c r="F124" s="0">
+        <v>0.0012728556466098861</v>
+      </c>
       <c r="H124" s="0">
         <v>552.0121690140845</v>
       </c>
@@ -7656,6 +9482,9 @@
       <c r="K124" s="0">
         <v>0.005582868094325469</v>
       </c>
+      <c r="L124" s="0">
+        <v>0.005582614912689238</v>
+      </c>
       <c r="N124" s="0">
         <v>556.2160138888889</v>
       </c>
@@ -7668,6 +9497,9 @@
       <c r="Q124" s="0">
         <v>0.006311974002166483</v>
       </c>
+      <c r="R124" s="0">
+        <v>0.006331350014368578</v>
+      </c>
       <c r="T124" s="0">
         <v>1394.1316666666667</v>
       </c>
@@ -7680,6 +9512,9 @@
       <c r="W124" s="0">
         <v>0.00277060244979585</v>
       </c>
+      <c r="X124" s="0">
+        <v>0.002762394582466705</v>
+      </c>
       <c r="Z124" s="0">
         <v>1311.5117647058823</v>
       </c>
@@ -7691,6 +9526,9 @@
       </c>
       <c r="AC124" s="0">
         <v>0.003145571202399799</v>
+      </c>
+      <c r="AD124" s="0">
+        <v>0.00305413526905639</v>
       </c>
     </row>
     <row r="125">
@@ -7706,6 +9544,9 @@
       <c r="E125" s="0">
         <v>0.0012915590367469374</v>
       </c>
+      <c r="F125" s="0">
+        <v>0.001527413125044578</v>
+      </c>
       <c r="H125" s="0">
         <v>563.5124225352113</v>
       </c>
@@ -7718,6 +9559,9 @@
       <c r="K125" s="0">
         <v>0.0065827847679360025</v>
       </c>
+      <c r="L125" s="0">
+        <v>0.006540064545170865</v>
+      </c>
       <c r="N125" s="0">
         <v>567.5673611111112</v>
       </c>
@@ -7730,6 +9574,9 @@
       <c r="Q125" s="0">
         <v>0.006041163236396963</v>
       </c>
+      <c r="R125" s="0">
+        <v>0.006021517178507015</v>
+      </c>
       <c r="T125" s="0">
         <v>1422.5833333333333</v>
       </c>
@@ -7742,6 +9589,9 @@
       <c r="W125" s="0">
         <v>0.0033330555787017737</v>
       </c>
+      <c r="X125" s="0">
+        <v>0.003366874623436695</v>
+      </c>
       <c r="Z125" s="0">
         <v>1340.6564705882354</v>
       </c>
@@ -7753,6 +9603,9 @@
       </c>
       <c r="AC125" s="0">
         <v>0.002103991334055495</v>
+      </c>
+      <c r="AD125" s="0">
+        <v>0.00207779988353974</v>
       </c>
     </row>
     <row r="126">
@@ -7768,6 +9621,9 @@
       <c r="E126" s="0">
         <v>0.0013123906341138234</v>
       </c>
+      <c r="F126" s="0">
+        <v>0.0015573845692821752</v>
+      </c>
       <c r="H126" s="0">
         <v>575.012676056338</v>
       </c>
@@ -7780,6 +9636,9 @@
       <c r="K126" s="0">
         <v>0.005916173652195647</v>
       </c>
+      <c r="L126" s="0">
+        <v>0.005940302819094168</v>
+      </c>
       <c r="N126" s="0">
         <v>578.9187083333334</v>
       </c>
@@ -7792,6 +9651,9 @@
       <c r="Q126" s="0">
         <v>0.0064161319890009135</v>
       </c>
+      <c r="R126" s="0">
+        <v>0.006467277628440773</v>
+      </c>
       <c r="T126" s="0">
         <v>1451.035</v>
       </c>
@@ -7804,6 +9666,9 @@
       <c r="W126" s="0">
         <v>0.0022498125156236977</v>
       </c>
+      <c r="X126" s="0">
+        <v>0.0022881855683637813</v>
+      </c>
       <c r="Z126" s="0">
         <v>1369.8011764705884</v>
       </c>
@@ -7815,6 +9680,9 @@
       </c>
       <c r="AC126" s="0">
         <v>0.0006874427131072409</v>
+      </c>
+      <c r="AD126" s="0">
+        <v>0.000669167855762557</v>
       </c>
     </row>
     <row r="127">
@@ -7830,6 +9698,9 @@
       <c r="E127" s="0">
         <v>0.0014373802183151399</v>
       </c>
+      <c r="F127" s="0">
+        <v>0.0017021299865896788</v>
+      </c>
       <c r="H127" s="0">
         <v>586.5129295774648</v>
       </c>
@@ -7842,6 +9713,9 @@
       <c r="K127" s="0">
         <v>0.006499458378468457</v>
       </c>
+      <c r="L127" s="0">
+        <v>0.006505140340969561</v>
+      </c>
       <c r="N127" s="0">
         <v>590.2700555555556</v>
       </c>
@@ -7854,6 +9728,9 @@
       <c r="Q127" s="0">
         <v>0.006666111157403546</v>
       </c>
+      <c r="R127" s="0">
+        <v>0.006641119856383442</v>
+      </c>
       <c r="T127" s="0">
         <v>1479.4866666666667</v>
       </c>
@@ -7866,6 +9743,9 @@
       <c r="W127" s="0">
         <v>0.0019790017498541785</v>
       </c>
+      <c r="X127" s="0">
+        <v>0.0020033239796514828</v>
+      </c>
       <c r="Z127" s="0">
         <v>1398.9458823529412</v>
       </c>
@@ -7877,6 +9757,9 @@
       </c>
       <c r="AC127" s="0">
         <v>0.0012290642446462791</v>
+      </c>
+      <c r="AD127" s="0">
+        <v>0.0012037939466302025</v>
       </c>
     </row>
     <row r="128">
@@ -7892,6 +9775,9 @@
       <c r="E128" s="0">
         <v>0.0018123489709190894</v>
       </c>
+      <c r="F128" s="0">
+        <v>0.002138544143372103</v>
+      </c>
       <c r="H128" s="0">
         <v>598.0131830985915</v>
       </c>
@@ -7904,6 +9790,9 @@
       <c r="K128" s="0">
         <v>0.006811932338971749</v>
       </c>
+      <c r="L128" s="0">
+        <v>0.006768178605295322</v>
+      </c>
       <c r="N128" s="0">
         <v>601.6214027777778</v>
       </c>
@@ -7916,6 +9805,9 @@
       <c r="Q128" s="0">
         <v>0.006416131989000912</v>
       </c>
+      <c r="R128" s="0">
+        <v>0.0064070254964873645</v>
+      </c>
       <c r="T128" s="0">
         <v>1507.9383333333333</v>
       </c>
@@ -7928,6 +9820,9 @@
       <c r="W128" s="0">
         <v>0.0012082326472793933</v>
       </c>
+      <c r="X128" s="0">
+        <v>0.0011783437173966062</v>
+      </c>
       <c r="Z128" s="0">
         <v>1428.0905882352943</v>
       </c>
@@ -7939,6 +9834,9 @@
       </c>
       <c r="AC128" s="0">
         <v>0.0009999166736105322</v>
+      </c>
+      <c r="AD128" s="0">
+        <v>0.0009893515088919037</v>
       </c>
     </row>
     <row r="129">
@@ -7954,6 +9852,9 @@
       <c r="E129" s="0">
         <v>0.0011874010499125069</v>
       </c>
+      <c r="F129" s="0">
+        <v>0.0014060911673214776</v>
+      </c>
       <c r="H129" s="0">
         <v>609.5134366197183</v>
       </c>
@@ -7966,6 +9867,9 @@
       <c r="K129" s="0">
         <v>0.007061911507374381</v>
       </c>
+      <c r="L129" s="0">
+        <v>0.007111364239031364</v>
+      </c>
       <c r="N129" s="0">
         <v>612.97275</v>
       </c>
@@ -7978,6 +9882,9 @@
       <c r="Q129" s="0">
         <v>0.007041079910007495</v>
       </c>
+      <c r="R129" s="0">
+        <v>0.0071083775703436455</v>
+      </c>
       <c r="T129" s="0">
         <v>1536.39</v>
       </c>
@@ -7990,6 +9897,9 @@
       <c r="W129" s="0">
         <v>0.0013332222314807098</v>
       </c>
+      <c r="X129" s="0">
+        <v>0.0012936331274040203</v>
+      </c>
       <c r="Z129" s="0">
         <v>1457.235294117647</v>
       </c>
@@ -8001,6 +9911,9 @@
       </c>
       <c r="AC129" s="0">
         <v>0.0012498958420131654</v>
+      </c>
+      <c r="AD129" s="0">
+        <v>0.001255746286353955</v>
       </c>
     </row>
     <row r="130">
@@ -8016,6 +9929,9 @@
       <c r="E130" s="0">
         <v>0.0018748437630197476</v>
       </c>
+      <c r="F130" s="0">
+        <v>0.0022506689018961332</v>
+      </c>
       <c r="H130" s="0">
         <v>621.013690140845</v>
       </c>
@@ -8028,6 +9944,9 @@
       <c r="K130" s="0">
         <v>0.0069369219231730644</v>
       </c>
+      <c r="L130" s="0">
+        <v>0.006907643388731504</v>
+      </c>
       <c r="N130" s="0">
         <v>624.3240972222222</v>
       </c>
@@ -8040,6 +9959,9 @@
       <c r="Q130" s="0">
         <v>0.006582784767936001</v>
       </c>
+      <c r="R130" s="0">
+        <v>0.006507336003842199</v>
+      </c>
       <c r="T130" s="0">
         <v>1564.8416666666667</v>
       </c>
@@ -8052,6 +9974,9 @@
       <c r="W130" s="0">
         <v>0.0016040329972502286</v>
       </c>
+      <c r="X130" s="0">
+        <v>0.001604986279479065</v>
+      </c>
       <c r="Z130" s="0">
         <v>1486.38</v>
       </c>
@@ -8063,6 +9988,9 @@
       </c>
       <c r="AC130" s="0">
         <v>0.0008332638946754436</v>
+      </c>
+      <c r="AD130" s="0">
+        <v>0.0008454628400689488</v>
       </c>
     </row>
     <row r="131">
@@ -8078,6 +10006,9 @@
       <c r="E131" s="0">
         <v>0.002437296891925672</v>
       </c>
+      <c r="F131" s="0">
+        <v>0.0028994097731157766</v>
+      </c>
       <c r="H131" s="0">
         <v>632.5139436619718</v>
       </c>
@@ -8090,6 +10021,9 @@
       <c r="K131" s="0">
         <v>0.008082659778351802</v>
       </c>
+      <c r="L131" s="0">
+        <v>0.00809216791668092</v>
+      </c>
       <c r="N131" s="0">
         <v>635.6754444444445</v>
       </c>
@@ -8102,6 +10036,9 @@
       <c r="Q131" s="0">
         <v>0.00754103824681276</v>
       </c>
+      <c r="R131" s="0">
+        <v>0.007522816137352081</v>
+      </c>
       <c r="T131" s="0">
         <v>1593.2933333333333</v>
       </c>
@@ -8114,6 +10051,9 @@
       <c r="W131" s="0">
         <v>0.0014998750104157981</v>
       </c>
+      <c r="X131" s="0">
+        <v>0.001471080826137147</v>
+      </c>
       <c r="Z131" s="0">
         <v>1515.524705882353</v>
       </c>
@@ -8125,6 +10065,9 @@
       </c>
       <c r="AC131" s="0">
         <v>0.001187401049912507</v>
+      </c>
+      <c r="AD131" s="0">
+        <v>0.0012211598471110821</v>
       </c>
     </row>
     <row r="132">
@@ -8140,6 +10083,9 @@
       <c r="E132" s="0">
         <v>0.0020623281393217226</v>
       </c>
+      <c r="F132" s="0">
+        <v>0.0024784313568802724</v>
+      </c>
       <c r="H132" s="0">
         <v>644.0141971830985</v>
       </c>
@@ -8152,6 +10098,9 @@
       <c r="K132" s="0">
         <v>0.007311890675777014</v>
       </c>
+      <c r="L132" s="0">
+        <v>0.007301299313951729</v>
+      </c>
       <c r="N132" s="0">
         <v>647.0267916666668</v>
       </c>
@@ -8164,6 +10113,9 @@
       <c r="Q132" s="0">
         <v>0.007561869844179646</v>
       </c>
+      <c r="R132" s="0">
+        <v>0.007559017986483576</v>
+      </c>
       <c r="T132" s="0">
         <v>1621.7450000000001</v>
       </c>
@@ -8176,6 +10128,9 @@
       <c r="W132" s="0">
         <v>0.0011040746604449626</v>
       </c>
+      <c r="X132" s="0">
+        <v>0.001074551561455308</v>
+      </c>
       <c r="Z132" s="0">
         <v>1544.669411764706</v>
       </c>
@@ -8187,6 +10142,9 @@
       </c>
       <c r="AC132" s="0">
         <v>0.001979001749854178</v>
+      </c>
+      <c r="AD132" s="0">
+        <v>0.0019931366674825284</v>
       </c>
     </row>
     <row r="133">
@@ -8202,6 +10160,9 @@
       <c r="E133" s="0">
         <v>0.0022498125156236973</v>
       </c>
+      <c r="F133" s="0">
+        <v>0.0026930831558400906</v>
+      </c>
       <c r="H133" s="0">
         <v>655.5144507042253</v>
       </c>
@@ -8214,6 +10175,9 @@
       <c r="K133" s="0">
         <v>0.007957670194150484</v>
       </c>
+      <c r="L133" s="0">
+        <v>0.007981403412248038</v>
+      </c>
       <c r="N133" s="0">
         <v>658.378138888889</v>
       </c>
@@ -8226,6 +10190,9 @@
       <c r="Q133" s="0">
         <v>0.007499375052078988</v>
       </c>
+      <c r="R133" s="0">
+        <v>0.007535298635315284</v>
+      </c>
       <c r="T133" s="0">
         <v>1650.1966666666667</v>
       </c>
@@ -8238,6 +10205,9 @@
       <c r="W133" s="0">
         <v>0.0007707691025747853</v>
       </c>
+      <c r="X133" s="0">
+        <v>0.0007390981753325599</v>
+      </c>
       <c r="Z133" s="0">
         <v>1573.814117647059</v>
       </c>
@@ -8249,6 +10219,9 @@
       </c>
       <c r="AC133" s="0">
         <v>0.0011040746604449626</v>
+      </c>
+      <c r="AD133" s="0">
+        <v>0.0010838564345125284</v>
       </c>
     </row>
     <row r="134">
@@ -8264,6 +10237,9 @@
       <c r="E134" s="0">
         <v>0.002687276060328305</v>
       </c>
+      <c r="F134" s="0">
+        <v>0.003228672239891638</v>
+      </c>
       <c r="H134" s="0">
         <v>667.014704225352</v>
       </c>
@@ -8276,6 +10252,9 @@
       <c r="K134" s="0">
         <v>0.007582701441546533</v>
       </c>
+      <c r="L134" s="0">
+        <v>0.007570398048217989</v>
+      </c>
       <c r="N134" s="0">
         <v>669.7294861111112</v>
       </c>
@@ -8288,6 +10267,9 @@
       <c r="Q134" s="0">
         <v>0.007582701441546533</v>
       </c>
+      <c r="R134" s="0">
+        <v>0.007599455742877685</v>
+      </c>
       <c r="T134" s="0">
         <v>1678.6483333333333</v>
       </c>
@@ -8300,6 +10282,9 @@
       <c r="W134" s="0">
         <v>0.0005624531289059243</v>
       </c>
+      <c r="X134" s="0">
+        <v>0.0005328063028752602</v>
+      </c>
       <c r="Z134" s="0">
         <v>1602.9588235294118</v>
       </c>
@@ -8311,6 +10296,9 @@
       </c>
       <c r="AC134" s="0">
         <v>0.0009582534788767599</v>
+      </c>
+      <c r="AD134" s="0">
+        <v>0.0009841932653874273</v>
       </c>
     </row>
     <row r="135">
@@ -8326,6 +10314,9 @@
       <c r="E135" s="0">
         <v>0.002937255228730938</v>
       </c>
+      <c r="F135" s="0">
+        <v>0.0035481152295545916</v>
+      </c>
       <c r="H135" s="0">
         <v>678.5149577464789</v>
       </c>
@@ -8338,6 +10329,9 @@
       <c r="K135" s="0">
         <v>0.00820764936255312</v>
       </c>
+      <c r="L135" s="0">
+        <v>0.008244723536529898</v>
+      </c>
       <c r="N135" s="0">
         <v>681.0808333333334</v>
       </c>
@@ -8350,6 +10344,9 @@
       <c r="Q135" s="0">
         <v>0.007832680609949166</v>
       </c>
+      <c r="R135" s="0">
+        <v>0.007865902452041341</v>
+      </c>
       <c r="T135" s="0">
         <v>1707.1</v>
       </c>
@@ -8362,6 +10359,9 @@
       <c r="W135" s="0">
         <v>0.0006666111157403548</v>
       </c>
+      <c r="X135" s="0">
+        <v>0.0006302567105926989</v>
+      </c>
       <c r="Z135" s="0">
         <v>1632.1035294117648</v>
       </c>
@@ -8373,6 +10373,9 @@
       </c>
       <c r="AC135" s="0">
         <v>0.0010415798683443044</v>
+      </c>
+      <c r="AD135" s="0">
+        <v>0.0010318246373462285</v>
       </c>
     </row>
     <row r="136">
@@ -8388,6 +10391,9 @@
       <c r="E136" s="0">
         <v>0.0023748020998250138</v>
       </c>
+      <c r="F136" s="0">
+        <v>0.0028593344071287455</v>
+      </c>
       <c r="H136" s="0">
         <v>690.0152112676057</v>
       </c>
@@ -8400,6 +10406,9 @@
       <c r="K136" s="0">
         <v>0.00879093408882594</v>
       </c>
+      <c r="L136" s="0">
+        <v>0.008783357807745546</v>
+      </c>
       <c r="N136" s="0">
         <v>692.4321805555556</v>
       </c>
@@ -8412,6 +10421,9 @@
       <c r="Q136" s="0">
         <v>0.008686776101991507</v>
       </c>
+      <c r="R136" s="0">
+        <v>0.008699839439864191</v>
+      </c>
       <c r="T136" s="0">
         <v>1735.5516666666667</v>
       </c>
@@ -8424,6 +10436,9 @@
       <c r="W136" s="0">
         <v>0.00043746354470460783</v>
       </c>
+      <c r="X136" s="0">
+        <v>0.00041526699447944787</v>
+      </c>
       <c r="Z136" s="0">
         <v>1661.2482352941176</v>
       </c>
@@ -8435,6 +10450,9 @@
       </c>
       <c r="AC136" s="0">
         <v>0.00045829514207149395</v>
+      </c>
+      <c r="AD136" s="0">
+        <v>0.00046337458247233524</v>
       </c>
     </row>
     <row r="137">
@@ -8450,6 +10468,9 @@
       <c r="E137" s="0">
         <v>0.002124822931422381</v>
       </c>
+      <c r="F137" s="0">
+        <v>0.0025841087503931126</v>
+      </c>
       <c r="H137" s="0">
         <v>701.5154647887324</v>
       </c>
@@ -8462,6 +10483,9 @@
       <c r="K137" s="0">
         <v>0.008770102491459054</v>
       </c>
+      <c r="L137" s="0">
+        <v>0.00878488774449485</v>
+      </c>
       <c r="N137" s="0">
         <v>703.7835277777779</v>
       </c>
@@ -8474,6 +10498,9 @@
       <c r="Q137" s="0">
         <v>0.009270060828264327</v>
       </c>
+      <c r="R137" s="0">
+        <v>0.00928099635142867</v>
+      </c>
       <c r="T137" s="0">
         <v>1764.0033333333333</v>
       </c>
@@ -8486,6 +10513,9 @@
       <c r="W137" s="0">
         <v>0.00016665277893508873</v>
       </c>
+      <c r="X137" s="0">
+        <v>0.0001584795891818493</v>
+      </c>
       <c r="Z137" s="0">
         <v>1690.3929411764707</v>
       </c>
@@ -8497,6 +10527,9 @@
       </c>
       <c r="AC137" s="0">
         <v>0.0008124322973085576</v>
+      </c>
+      <c r="AD137" s="0">
+        <v>0.0007939919922140351</v>
       </c>
     </row>
     <row r="138">
@@ -8512,6 +10545,9 @@
       <c r="E138" s="0">
         <v>0.001749854178818431</v>
       </c>
+      <c r="F138" s="0">
+        <v>0.002125133607483048</v>
+      </c>
       <c r="H138" s="0">
         <v>713.0157183098592</v>
       </c>
@@ -8524,6 +10560,9 @@
       <c r="K138" s="0">
         <v>0.009436713607199419</v>
       </c>
+      <c r="L138" s="0">
+        <v>0.00940585834362579</v>
+      </c>
       <c r="N138" s="0">
         <v>715.1348750000001</v>
       </c>
@@ -8536,6 +10575,9 @@
       <c r="Q138" s="0">
         <v>0.009457545204566304</v>
       </c>
+      <c r="R138" s="0">
+        <v>0.00945430913598708</v>
+      </c>
       <c r="T138" s="0">
         <v>1792.455</v>
       </c>
@@ -8548,6 +10590,9 @@
       <c r="W138" s="0">
         <v>0.0002499791684026331</v>
       </c>
+      <c r="X138" s="0">
+        <v>0.00023711184173356807</v>
+      </c>
       <c r="Z138" s="0">
         <v>1719.5376470588237</v>
       </c>
@@ -8559,6 +10604,9 @@
       </c>
       <c r="AC138" s="0">
         <v>0.0003749687526039496</v>
+      </c>
+      <c r="AD138" s="0">
+        <v>0.00037619362526622127</v>
       </c>
     </row>
     <row r="139">
@@ -8574,6 +10622,9 @@
       <c r="E139" s="0">
         <v>0.0014373802183151399</v>
       </c>
+      <c r="F139" s="0">
+        <v>0.0017412134262301143</v>
+      </c>
       <c r="H139" s="0">
         <v>724.5159718309859</v>
       </c>
@@ -8586,6 +10637,9 @@
       <c r="K139" s="0">
         <v>0.010436630280809966</v>
       </c>
+      <c r="L139" s="0">
+        <v>0.010358118094540174</v>
+      </c>
       <c r="N139" s="0">
         <v>726.4862222222223</v>
       </c>
@@ -8598,6 +10652,9 @@
       <c r="Q139" s="0">
         <v>0.010207482709774215</v>
       </c>
+      <c r="R139" s="0">
+        <v>0.010238012946415109</v>
+      </c>
       <c r="T139" s="0">
         <v>1820.9066666666668</v>
       </c>
@@ -8610,6 +10667,9 @@
       <c r="W139" s="0">
         <v>0.00033330555787017746</v>
       </c>
+      <c r="X139" s="0">
+        <v>0.00031455419504376313</v>
+      </c>
       <c r="Z139" s="0">
         <v>1748.6823529411765</v>
       </c>
@@ -8621,6 +10681,9 @@
       </c>
       <c r="AC139" s="0">
         <v>0.00031247396050329134</v>
+      </c>
+      <c r="AD139" s="0">
+        <v>0.0003323363673007379</v>
       </c>
     </row>
     <row r="140">
@@ -8636,6 +10699,9 @@
       <c r="E140" s="0">
         <v>0.0018123489709190894</v>
       </c>
+      <c r="F140" s="0">
+        <v>0.002203104663858155</v>
+      </c>
       <c r="H140" s="0">
         <v>736.0162253521127</v>
       </c>
@@ -8648,6 +10714,9 @@
       <c r="K140" s="0">
         <v>0.010457461878176854</v>
       </c>
+      <c r="L140" s="0">
+        <v>0.010499940418355296</v>
+      </c>
       <c r="N140" s="0">
         <v>737.8375694444445</v>
       </c>
@@ -8660,6 +10729,9 @@
       <c r="Q140" s="0">
         <v>0.010749104241313262</v>
       </c>
+      <c r="R140" s="0">
+        <v>0.010745870048746766</v>
+      </c>
       <c r="T140" s="0">
         <v>1849.3583333333333</v>
       </c>
@@ -8672,6 +10744,9 @@
       <c r="W140" s="0">
         <v>0.00018748437630197482</v>
       </c>
+      <c r="X140" s="0">
+        <v>0.00017854475745552754</v>
+      </c>
       <c r="Z140" s="0">
         <v>1777.8270588235296</v>
       </c>
@@ -8683,6 +10758,9 @@
       </c>
       <c r="AC140" s="0">
         <v>0.0005207899341721522</v>
+      </c>
+      <c r="AD140" s="0">
+        <v>0.0005445149847399747</v>
       </c>
     </row>
     <row r="141">
@@ -8698,6 +10776,9 @@
       <c r="E141" s="0">
         <v>0.0011249062578118486</v>
       </c>
+      <c r="F141" s="0">
+        <v>0.0013639081010694712</v>
+      </c>
       <c r="H141" s="0">
         <v>747.5164788732394</v>
       </c>
@@ -8710,6 +10791,9 @@
       <c r="K141" s="0">
         <v>0.011728189317556923</v>
       </c>
+      <c r="L141" s="0">
+        <v>0.011723842134952079</v>
+      </c>
       <c r="N141" s="0">
         <v>749.1889166666667</v>
       </c>
@@ -8722,6 +10806,9 @@
       <c r="Q141" s="0">
         <v>0.0114573785517874</v>
       </c>
+      <c r="R141" s="0">
+        <v>0.011414082432450947</v>
+      </c>
       <c r="T141" s="0">
         <v>1877.81</v>
       </c>
@@ -8734,6 +10821,9 @@
       <c r="W141" s="0">
         <v>2.0831597366886094E-05</v>
       </c>
+      <c r="X141" s="0">
+        <v>1.9911776514204286E-05</v>
+      </c>
       <c r="Z141" s="0">
         <v>1806.9717647058824</v>
       </c>
@@ -8745,6 +10835,9 @@
       </c>
       <c r="AC141" s="0">
         <v>0.0004166319473377218</v>
+      </c>
+      <c r="AD141" s="0">
+        <v>0.0004413393266223685</v>
       </c>
     </row>
     <row r="142">
@@ -8760,6 +10853,9 @@
       <c r="E142" s="0">
         <v>0.0010624114657111904</v>
       </c>
+      <c r="F142" s="0">
+        <v>0.001291259573769727</v>
+      </c>
       <c r="H142" s="0">
         <v>759.0167323943662</v>
       </c>
@@ -8772,6 +10868,9 @@
       <c r="K142" s="0">
         <v>0.013207232730605858</v>
       </c>
+      <c r="L142" s="0">
+        <v>0.013254307273987067</v>
+      </c>
       <c r="N142" s="0">
         <v>760.540263888889</v>
       </c>
@@ -8784,6 +10883,9 @@
       <c r="Q142" s="0">
         <v>0.012769769185901243</v>
       </c>
+      <c r="R142" s="0">
+        <v>0.012755491955669045</v>
+      </c>
       <c r="T142" s="0">
         <v>1906.2616666666668</v>
       </c>
@@ -8796,6 +10898,9 @@
       <c r="W142" s="0">
         <v>0.00018748437630197482</v>
       </c>
+      <c r="X142" s="0">
+        <v>0.00017850911980486046</v>
+      </c>
       <c r="Z142" s="0">
         <v>1836.1164705882354</v>
       </c>
@@ -8807,6 +10912,9 @@
       </c>
       <c r="AC142" s="0">
         <v>0.0002499791684026331</v>
+      </c>
+      <c r="AD142" s="0">
+        <v>0.0002519464923179214</v>
       </c>
     </row>
     <row r="143">
@@ -8822,6 +10930,9 @@
       <c r="E143" s="0">
         <v>0.0004999583368052661</v>
       </c>
+      <c r="F143" s="0">
+        <v>0.0006124842602172688</v>
+      </c>
       <c r="H143" s="0">
         <v>770.5169859154929</v>
       </c>
@@ -8834,6 +10945,9 @@
       <c r="K143" s="0">
         <v>0.014102991417381975</v>
       </c>
+      <c r="L143" s="0">
+        <v>0.01412762236897018</v>
+      </c>
       <c r="N143" s="0">
         <v>771.8916111111112</v>
       </c>
@@ -8846,6 +10960,9 @@
       <c r="Q143" s="0">
         <v>0.014373802183151499</v>
       </c>
+      <c r="R143" s="0">
+        <v>0.014350087376732292</v>
+      </c>
       <c r="T143" s="0">
         <v>1934.7133333333334</v>
       </c>
@@ -8858,6 +10975,9 @@
       <c r="W143" s="0">
         <v>2.0831597366886094E-05</v>
       </c>
+      <c r="X143" s="0">
+        <v>1.99136608434107E-05</v>
+      </c>
       <c r="Z143" s="0">
         <v>1865.2611764705882</v>
       </c>
@@ -8869,6 +10989,9 @@
       </c>
       <c r="AC143" s="0">
         <v>0.00047912673943838007</v>
+      </c>
+      <c r="AD143" s="0">
+        <v>0.0005222578670574512</v>
       </c>
     </row>
     <row r="144">
@@ -8884,6 +11007,9 @@
       <c r="E144" s="0">
         <v>0.00018748437630197482</v>
       </c>
+      <c r="F144" s="0">
+        <v>0.00022990973647474792</v>
+      </c>
       <c r="H144" s="0">
         <v>782.0172394366197</v>
       </c>
@@ -8896,6 +11022,9 @@
       <c r="K144" s="0">
         <v>0.017394383801350017</v>
       </c>
+      <c r="L144" s="0">
+        <v>0.017462654870115456</v>
+      </c>
       <c r="N144" s="0">
         <v>783.2429583333334</v>
       </c>
@@ -8908,6 +11037,9 @@
       <c r="Q144" s="0">
         <v>0.017623531372385762</v>
       </c>
+      <c r="R144" s="0">
+        <v>0.017689013588251774</v>
+      </c>
       <c r="T144" s="0">
         <v>1963.165</v>
       </c>
@@ -8920,6 +11052,9 @@
       <c r="W144" s="0">
         <v>0</v>
       </c>
+      <c r="X144" s="0">
+        <v>0</v>
+      </c>
       <c r="Z144" s="0">
         <v>1894.4058823529413</v>
       </c>
@@ -8931,6 +11066,9 @@
       </c>
       <c r="AC144" s="0">
         <v>0.0003749687526039496</v>
+      </c>
+      <c r="AD144" s="0">
+        <v>0.00038517574625832735</v>
       </c>
     </row>
     <row r="145">
@@ -8946,6 +11084,9 @@
       <c r="E145" s="0">
         <v>0.00031247396050329134</v>
       </c>
+      <c r="F145" s="0">
+        <v>0.00038329302714888594</v>
+      </c>
       <c r="H145" s="0">
         <v>793.5174929577464</v>
       </c>
@@ -8958,6 +11099,9 @@
       <c r="K145" s="0">
         <v>0.024060494958753627</v>
       </c>
+      <c r="L145" s="0">
+        <v>0.023928823554787978</v>
+      </c>
       <c r="N145" s="0">
         <v>794.5943055555556</v>
       </c>
@@ -8970,6 +11114,9 @@
       <c r="Q145" s="0">
         <v>0.022768935922006683</v>
       </c>
+      <c r="R145" s="0">
+        <v>0.022746272027775936</v>
+      </c>
       <c r="T145" s="0">
         <v>1991.6166666666668</v>
       </c>
@@ -8982,6 +11129,9 @@
       <c r="W145" s="0">
         <v>0.00012498958420131655</v>
       </c>
+      <c r="X145" s="0">
+        <v>0.00011882190190119074</v>
+      </c>
       <c r="Z145" s="0">
         <v>1923.5505882352943</v>
       </c>
@@ -8993,6 +11143,9 @@
       </c>
       <c r="AC145" s="0">
         <v>0.0002708107657695192</v>
+      </c>
+      <c r="AD145" s="0">
+        <v>0.0002773443431468468</v>
       </c>
     </row>
     <row r="146">
@@ -9008,6 +11161,9 @@
       <c r="E146" s="0">
         <v>0.00018748437630197482</v>
       </c>
+      <c r="F146" s="0">
+        <v>0.00022977963923575834</v>
+      </c>
       <c r="H146" s="0">
         <v>805.0177464788732</v>
       </c>
@@ -9020,6 +11176,9 @@
       <c r="K146" s="0">
         <v>0.03843429714190515</v>
       </c>
+      <c r="L146" s="0">
+        <v>0.03850861919892773</v>
+      </c>
       <c r="N146" s="0">
         <v>805.9456527777778</v>
       </c>
@@ -9032,6 +11191,9 @@
       <c r="Q146" s="0">
         <v>0.0389759186734442</v>
       </c>
+      <c r="R146" s="0">
+        <v>0.0388772916769915</v>
+      </c>
       <c r="T146" s="0">
         <v>2020.0683333333334</v>
       </c>
@@ -9044,6 +11206,9 @@
       <c r="W146" s="0">
         <v>6.249479210065827E-05</v>
       </c>
+      <c r="X146" s="0">
+        <v>5.936027656567269E-05</v>
+      </c>
       <c r="Z146" s="0">
         <v>1952.695294117647</v>
       </c>
@@ -9054,6 +11219,9 @@
         <v>1923.550588235294</v>
       </c>
       <c r="AC146" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="0">
         <v>0</v>
       </c>
     </row>
@@ -9070,6 +11238,9 @@
       <c r="E147" s="0">
         <v>0.0002499791684026331</v>
       </c>
+      <c r="F147" s="0">
+        <v>0.00030627619079490306</v>
+      </c>
       <c r="H147" s="0">
         <v>816.5179999999999</v>
       </c>
@@ -9082,6 +11253,9 @@
       <c r="K147" s="0">
         <v>0.013873843846346223</v>
       </c>
+      <c r="L147" s="0">
+        <v>0.013848109697370737</v>
+      </c>
       <c r="N147" s="0">
         <v>817.297</v>
       </c>
@@ -9094,6 +11268,9 @@
       <c r="Q147" s="0">
         <v>0.012728105991167473</v>
       </c>
+      <c r="R147" s="0">
+        <v>0.01296930077520645</v>
+      </c>
       <c r="T147" s="0">
         <v>2048.52</v>
       </c>
@@ -9106,6 +11283,9 @@
       <c r="W147" s="0">
         <v>0.0003749687526039496</v>
       </c>
+      <c r="X147" s="0">
+        <v>0.00035633133785865906</v>
+      </c>
       <c r="Z147" s="0">
         <v>1981.8400000000001</v>
       </c>
@@ -9117,6 +11297,9 @@
       </c>
       <c r="AC147" s="0">
         <v>6.249479210065829E-05</v>
+      </c>
+      <c r="AD147" s="0">
+        <v>5.9790672989305094E-05</v>
       </c>
     </row>
   </sheetData>
